--- a/HASIL PENGUJIAN 100 EPOCHS.xlsx
+++ b/HASIL PENGUJIAN 100 EPOCHS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SKRIPSI\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A18700C-30D7-44E6-97BC-B1F796D7D178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D5210E-BE12-467C-B5B6-2F2B6B27A020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADAM FULL" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="27">
   <si>
     <t>80/20</t>
   </si>
@@ -92,12 +92,33 @@
   <si>
     <t>5466.48 seconds</t>
   </si>
+  <si>
+    <t>1817.28 seconds</t>
+  </si>
+  <si>
+    <t>1850.68 seconds.</t>
+  </si>
+  <si>
+    <t>2007.77 seconds.</t>
+  </si>
+  <si>
+    <t>1851.25 seconds</t>
+  </si>
+  <si>
+    <t>1741.12 seconds.</t>
+  </si>
+  <si>
+    <t>TANPA DATA AUGMENTASI ADAM 80/20</t>
+  </si>
+  <si>
+    <t>806.36 seconds.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +193,19 @@
       <color theme="0"/>
       <name val="Aptos Display"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -316,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -346,6 +380,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -355,21 +395,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1968,14 +2006,14 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>299357</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>177458</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>163851</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>434066</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>100693</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>87086</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2005,7 +2043,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11933464" y="558458"/>
+          <a:off x="11933464" y="735351"/>
           <a:ext cx="7482566" cy="2644664"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2122,6 +2160,172 @@
         <a:xfrm>
           <a:off x="16695964" y="4626429"/>
           <a:ext cx="4458322" cy="1657581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>56160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>319767</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>148318</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{738F9E15-868F-A213-AAB8-C05D47DF2A08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1088571" y="17514124"/>
+          <a:ext cx="9028339" cy="3140158"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>178134</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>610960</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58AAC97A-C1C0-A1E8-5E68-9EDEA0E1D2B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11008178" y="17255098"/>
+          <a:ext cx="4298496" cy="3812841"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>367392</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>136070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>402033</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95F7577-D223-09E2-7E03-A86449582707}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1592035" y="21213534"/>
+          <a:ext cx="8607141" cy="3238502"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2305,14 +2509,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>173181</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>16363</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>85635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>314951</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>138544</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>17316</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2342,7 +2546,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="779317" y="8069318"/>
+          <a:off x="779317" y="8329090"/>
           <a:ext cx="8021543" cy="2841135"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2471,14 +2675,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>363683</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>77668</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>8395</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>259773</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>109970</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>40697</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2508,7 +2712,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="969819" y="458668"/>
+          <a:off x="969819" y="579895"/>
           <a:ext cx="7775863" cy="2751257"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3404,7 +3608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D4:AL83"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
@@ -3473,54 +3677,54 @@
     </row>
     <row r="9" spans="4:38">
       <c r="D9" s="5"/>
-      <c r="R9" s="27" t="s">
+      <c r="R9" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="S9" s="27"/>
+      <c r="S9" s="31"/>
       <c r="T9" s="6"/>
       <c r="V9" s="5"/>
-      <c r="AJ9" s="27" t="s">
+      <c r="AJ9" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="AK9" s="27"/>
+      <c r="AK9" s="31"/>
       <c r="AL9" s="6"/>
     </row>
     <row r="10" spans="4:38">
       <c r="D10" s="5"/>
-      <c r="R10" s="28" t="s">
+      <c r="R10" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="S10" s="28"/>
+      <c r="S10" s="32"/>
       <c r="T10" s="6"/>
       <c r="V10" s="5"/>
-      <c r="AJ10" s="28" t="s">
+      <c r="AJ10" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="AK10" s="28"/>
+      <c r="AK10" s="32"/>
       <c r="AL10" s="6"/>
     </row>
     <row r="11" spans="4:38">
       <c r="D11" s="5"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
       <c r="T11" s="6"/>
       <c r="V11" s="5"/>
-      <c r="AJ11" s="28"/>
-      <c r="AK11" s="28"/>
+      <c r="AJ11" s="32"/>
+      <c r="AK11" s="32"/>
       <c r="AL11" s="6"/>
     </row>
     <row r="12" spans="4:38" ht="18.75">
       <c r="D12" s="5"/>
-      <c r="R12" s="29" t="s">
+      <c r="R12" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="S12" s="29"/>
+      <c r="S12" s="33"/>
       <c r="T12" s="6"/>
       <c r="V12" s="5"/>
-      <c r="AJ12" s="29" t="s">
+      <c r="AJ12" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AK12" s="29"/>
+      <c r="AK12" s="33"/>
       <c r="AL12" s="6"/>
     </row>
     <row r="13" spans="4:38">
@@ -3771,32 +3975,32 @@
     </row>
     <row r="49" spans="4:20">
       <c r="D49" s="5"/>
-      <c r="R49" s="27" t="s">
+      <c r="R49" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="S49" s="27"/>
+      <c r="S49" s="31"/>
       <c r="T49" s="6"/>
     </row>
     <row r="50" spans="4:20">
       <c r="D50" s="5"/>
-      <c r="R50" s="28" t="s">
+      <c r="R50" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="S50" s="28"/>
+      <c r="S50" s="32"/>
       <c r="T50" s="6"/>
     </row>
     <row r="51" spans="4:20">
       <c r="D51" s="5"/>
-      <c r="R51" s="28"/>
-      <c r="S51" s="28"/>
+      <c r="R51" s="32"/>
+      <c r="S51" s="32"/>
       <c r="T51" s="6"/>
     </row>
     <row r="52" spans="4:20" ht="18.75">
       <c r="D52" s="5"/>
-      <c r="R52" s="29" t="s">
+      <c r="R52" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="S52" s="29"/>
+      <c r="S52" s="33"/>
       <c r="T52" s="6"/>
     </row>
     <row r="53" spans="4:20">
@@ -3972,7 +4176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3265C1DE-771B-466D-AFE8-2C836A595B59}">
   <dimension ref="B4:AJ81"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
@@ -4104,10 +4308,10 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="30" t="s">
+      <c r="P7" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="Q7" s="30"/>
+      <c r="Q7" s="35"/>
       <c r="R7" s="15"/>
       <c r="T7" s="14"/>
       <c r="U7" s="10"/>
@@ -4123,10 +4327,10 @@
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
       <c r="AG7" s="10"/>
-      <c r="AH7" s="30" t="s">
+      <c r="AH7" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="AI7" s="30"/>
+      <c r="AI7" s="35"/>
       <c r="AJ7" s="15"/>
     </row>
     <row r="8" spans="2:36">
@@ -4144,10 +4348,10 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
-      <c r="P8" s="31" t="s">
+      <c r="P8" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="Q8" s="31"/>
+      <c r="Q8" s="36"/>
       <c r="R8" s="15"/>
       <c r="T8" s="14"/>
       <c r="U8" s="10"/>
@@ -4163,10 +4367,10 @@
       <c r="AE8" s="10"/>
       <c r="AF8" s="10"/>
       <c r="AG8" s="10"/>
-      <c r="AH8" s="31" t="s">
+      <c r="AH8" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="AI8" s="31"/>
+      <c r="AI8" s="36"/>
       <c r="AJ8" s="15"/>
     </row>
     <row r="9" spans="2:36">
@@ -4184,8 +4388,8 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
       <c r="R9" s="15"/>
       <c r="T9" s="14"/>
       <c r="U9" s="10"/>
@@ -4201,8 +4405,8 @@
       <c r="AE9" s="10"/>
       <c r="AF9" s="10"/>
       <c r="AG9" s="10"/>
-      <c r="AH9" s="31"/>
-      <c r="AI9" s="31"/>
+      <c r="AH9" s="36"/>
+      <c r="AI9" s="36"/>
       <c r="AJ9" s="15"/>
     </row>
     <row r="10" spans="2:36" ht="18.75">
@@ -4220,10 +4424,10 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
-      <c r="P10" s="32" t="s">
+      <c r="P10" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="Q10" s="32"/>
+      <c r="Q10" s="34"/>
       <c r="R10" s="15"/>
       <c r="T10" s="14"/>
       <c r="U10" s="10"/>
@@ -4239,10 +4443,10 @@
       <c r="AE10" s="10"/>
       <c r="AF10" s="10"/>
       <c r="AG10" s="10"/>
-      <c r="AH10" s="32" t="s">
+      <c r="AH10" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="AI10" s="32"/>
+      <c r="AI10" s="34"/>
       <c r="AJ10" s="15"/>
     </row>
     <row r="11" spans="2:36">
@@ -5359,7 +5563,7 @@
       <c r="AJ41" s="18"/>
     </row>
     <row r="44" spans="2:36">
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C44" s="12"/>
@@ -5432,10 +5636,10 @@
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
-      <c r="P47" s="30" t="s">
+      <c r="P47" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="Q47" s="30"/>
+      <c r="Q47" s="35"/>
       <c r="R47" s="15"/>
     </row>
     <row r="48" spans="2:36">
@@ -5453,10 +5657,10 @@
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
-      <c r="P48" s="31" t="s">
+      <c r="P48" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="Q48" s="31"/>
+      <c r="Q48" s="36"/>
       <c r="R48" s="15"/>
     </row>
     <row r="49" spans="2:18">
@@ -5474,8 +5678,8 @@
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
-      <c r="P49" s="31"/>
-      <c r="Q49" s="31"/>
+      <c r="P49" s="36"/>
+      <c r="Q49" s="36"/>
       <c r="R49" s="15"/>
     </row>
     <row r="50" spans="2:18" ht="18.75">
@@ -5492,10 +5696,10 @@
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
-      <c r="P50" s="32" t="s">
+      <c r="P50" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="Q50" s="32"/>
+      <c r="Q50" s="34"/>
       <c r="R50" s="15"/>
     </row>
     <row r="51" spans="2:18">
@@ -6107,7 +6311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800CFA05-9B27-4650-A169-A5D3EBB0D79D}">
   <dimension ref="B2:AJ79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AJ17" sqref="AJ17"/>
     </sheetView>
   </sheetViews>
@@ -6246,10 +6450,10 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
-      <c r="P5" s="30" t="s">
+      <c r="P5" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="30"/>
+      <c r="Q5" s="35"/>
       <c r="R5" s="15"/>
       <c r="S5"/>
       <c r="T5" s="14"/>
@@ -6266,10 +6470,10 @@
       <c r="AE5" s="10"/>
       <c r="AF5" s="10"/>
       <c r="AG5" s="10"/>
-      <c r="AH5" s="30" t="s">
+      <c r="AH5" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="AI5" s="30"/>
+      <c r="AI5" s="35"/>
       <c r="AJ5" s="15"/>
     </row>
     <row r="6" spans="2:36">
@@ -6287,10 +6491,10 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
-      <c r="P6" s="31" t="s">
+      <c r="P6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="31"/>
+      <c r="Q6" s="36"/>
       <c r="R6" s="15"/>
       <c r="S6"/>
       <c r="T6" s="14"/>
@@ -6307,10 +6511,10 @@
       <c r="AE6" s="10"/>
       <c r="AF6" s="10"/>
       <c r="AG6" s="10"/>
-      <c r="AH6" s="31" t="s">
+      <c r="AH6" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="AI6" s="31"/>
+      <c r="AI6" s="36"/>
       <c r="AJ6" s="15"/>
     </row>
     <row r="7" spans="2:36">
@@ -6328,8 +6532,8 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
       <c r="R7" s="15"/>
       <c r="S7"/>
       <c r="T7" s="14"/>
@@ -6346,8 +6550,8 @@
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
       <c r="AG7" s="10"/>
-      <c r="AH7" s="31"/>
-      <c r="AI7" s="31"/>
+      <c r="AH7" s="36"/>
+      <c r="AI7" s="36"/>
       <c r="AJ7" s="15"/>
     </row>
     <row r="8" spans="2:36" ht="18.75">
@@ -6365,10 +6569,10 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
-      <c r="P8" s="32" t="s">
+      <c r="P8" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="Q8" s="32"/>
+      <c r="Q8" s="34"/>
       <c r="R8" s="15"/>
       <c r="S8"/>
       <c r="T8" s="14"/>
@@ -6385,10 +6589,10 @@
       <c r="AE8" s="10"/>
       <c r="AF8" s="10"/>
       <c r="AG8" s="10"/>
-      <c r="AH8" s="32" t="s">
+      <c r="AH8" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="AI8" s="32"/>
+      <c r="AI8" s="34"/>
       <c r="AJ8" s="15"/>
     </row>
     <row r="9" spans="2:36">
@@ -6696,7 +6900,7 @@
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="35" t="s">
+      <c r="J17" s="27" t="s">
         <v>16</v>
       </c>
       <c r="K17" s="10"/>
@@ -6751,7 +6955,7 @@
       <c r="W18" s="10"/>
       <c r="X18" s="10"/>
       <c r="Y18" s="10"/>
-      <c r="Z18" s="36"/>
+      <c r="Z18" s="28"/>
       <c r="AA18" s="10"/>
       <c r="AB18" s="10"/>
       <c r="AC18" s="10"/>
@@ -7740,10 +7944,10 @@
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
-      <c r="P45" s="30" t="s">
+      <c r="P45" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="Q45" s="30"/>
+      <c r="Q45" s="35"/>
       <c r="R45" s="15"/>
       <c r="S45"/>
       <c r="T45"/>
@@ -7779,10 +7983,10 @@
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
-      <c r="P46" s="31" t="s">
+      <c r="P46" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="Q46" s="31"/>
+      <c r="Q46" s="36"/>
       <c r="R46" s="15"/>
       <c r="S46"/>
       <c r="T46"/>
@@ -7818,8 +8022,8 @@
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
-      <c r="P47" s="31"/>
-      <c r="Q47" s="31"/>
+      <c r="P47" s="36"/>
+      <c r="Q47" s="36"/>
       <c r="R47" s="15"/>
       <c r="S47"/>
       <c r="T47"/>
@@ -7855,10 +8059,10 @@
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
-      <c r="P48" s="32" t="s">
+      <c r="P48" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="Q48" s="32"/>
+      <c r="Q48" s="34"/>
       <c r="R48" s="15"/>
       <c r="S48"/>
       <c r="T48"/>
@@ -8221,7 +8425,7 @@
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
-      <c r="J58" s="35" t="s">
+      <c r="J58" s="27" t="s">
         <v>16</v>
       </c>
       <c r="K58" s="10"/>
@@ -9063,15 +9267,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7155BC64-C482-45D1-904B-A1912B1B7F57}">
-  <dimension ref="B3:AJ80"/>
+  <dimension ref="B3:AJ89"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y50" sqref="Y50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AF43" sqref="AF43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="2:36">
+    <row r="3" spans="2:36" ht="15.75">
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -9090,7 +9294,9 @@
       <c r="Q3" s="12"/>
       <c r="R3" s="13"/>
       <c r="T3" s="11"/>
-      <c r="U3" s="12"/>
+      <c r="U3" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="V3" s="12"/>
       <c r="W3" s="12"/>
       <c r="X3" s="12"/>
@@ -9195,10 +9401,10 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
-      <c r="P6" s="33" t="s">
+      <c r="P6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="33"/>
+      <c r="Q6" s="37"/>
       <c r="R6" s="15"/>
       <c r="T6" s="14"/>
       <c r="U6" s="10"/>
@@ -9213,10 +9419,10 @@
       <c r="AE6" s="10"/>
       <c r="AF6" s="10"/>
       <c r="AG6" s="10"/>
-      <c r="AH6" s="33" t="s">
+      <c r="AH6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AI6" s="33"/>
+      <c r="AI6" s="37"/>
       <c r="AJ6" s="15"/>
     </row>
     <row r="7" spans="2:36">
@@ -9234,10 +9440,10 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="31" t="s">
+      <c r="P7" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="Q7" s="31"/>
+      <c r="Q7" s="36"/>
       <c r="R7" s="15"/>
       <c r="T7" s="14"/>
       <c r="U7" s="10"/>
@@ -9253,10 +9459,10 @@
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
       <c r="AG7" s="10"/>
-      <c r="AH7" s="31" t="s">
+      <c r="AH7" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="AI7" s="31"/>
+      <c r="AI7" s="36"/>
       <c r="AJ7" s="15"/>
     </row>
     <row r="8" spans="2:36">
@@ -9274,8 +9480,8 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
       <c r="R8" s="15"/>
       <c r="T8" s="14"/>
       <c r="U8" s="10"/>
@@ -9291,8 +9497,8 @@
       <c r="AE8" s="10"/>
       <c r="AF8" s="10"/>
       <c r="AG8" s="10"/>
-      <c r="AH8" s="31"/>
-      <c r="AI8" s="31"/>
+      <c r="AH8" s="36"/>
+      <c r="AI8" s="36"/>
       <c r="AJ8" s="15"/>
     </row>
     <row r="9" spans="2:36" ht="18.75">
@@ -9310,10 +9516,10 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
-      <c r="P9" s="32" t="s">
+      <c r="P9" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="Q9" s="32"/>
+      <c r="Q9" s="34"/>
       <c r="R9" s="15"/>
       <c r="T9" s="14"/>
       <c r="U9" s="10"/>
@@ -9329,10 +9535,10 @@
       <c r="AE9" s="10"/>
       <c r="AF9" s="10"/>
       <c r="AG9" s="10"/>
-      <c r="AH9" s="32" t="s">
+      <c r="AH9" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="AI9" s="32"/>
+      <c r="AI9" s="34"/>
       <c r="AJ9" s="15"/>
     </row>
     <row r="10" spans="2:36">
@@ -10450,7 +10656,9 @@
     </row>
     <row r="43" spans="2:36">
       <c r="B43" s="2"/>
-      <c r="C43" s="3"/>
+      <c r="C43" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -10520,10 +10728,10 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
-      <c r="P46" s="33" t="s">
+      <c r="P46" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="Q46" s="33"/>
+      <c r="Q46" s="37"/>
       <c r="R46" s="6"/>
     </row>
     <row r="47" spans="2:36" ht="15" customHeight="1">
@@ -10541,10 +10749,10 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
-      <c r="P47" s="28" t="s">
+      <c r="P47" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="Q47" s="28"/>
+      <c r="Q47" s="32"/>
       <c r="R47" s="6"/>
     </row>
     <row r="48" spans="2:36" ht="15" customHeight="1">
@@ -10562,8 +10770,8 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
-      <c r="P48" s="28"/>
-      <c r="Q48" s="28"/>
+      <c r="P48" s="32"/>
+      <c r="Q48" s="32"/>
       <c r="R48" s="6"/>
     </row>
     <row r="49" spans="2:18" ht="18.75">
@@ -10581,10 +10789,10 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
-      <c r="P49" s="29" t="s">
+      <c r="P49" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="Q49" s="29"/>
+      <c r="Q49" s="33"/>
       <c r="R49" s="6"/>
     </row>
     <row r="50" spans="2:18">
@@ -11176,8 +11384,54 @@
       <c r="Q80" s="8"/>
       <c r="R80" s="9"/>
     </row>
+    <row r="85" spans="2:18">
+      <c r="B85" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C85" s="38"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="38"/>
+      <c r="F85" s="38"/>
+      <c r="G85" s="38"/>
+      <c r="H85" s="38"/>
+      <c r="I85" s="38"/>
+      <c r="J85" s="38"/>
+      <c r="K85" s="38"/>
+      <c r="L85" s="38"/>
+      <c r="M85" s="38"/>
+      <c r="N85" s="38"/>
+      <c r="O85" s="38"/>
+      <c r="P85" s="38"/>
+      <c r="Q85" s="38"/>
+      <c r="R85" s="38"/>
+    </row>
+    <row r="86" spans="2:18">
+      <c r="B86" s="38"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="38"/>
+      <c r="F86" s="38"/>
+      <c r="G86" s="38"/>
+      <c r="H86" s="38"/>
+      <c r="I86" s="38"/>
+      <c r="J86" s="38"/>
+      <c r="K86" s="38"/>
+      <c r="L86" s="38"/>
+      <c r="M86" s="38"/>
+      <c r="N86" s="38"/>
+      <c r="O86" s="38"/>
+      <c r="P86" s="38"/>
+      <c r="Q86" s="38"/>
+      <c r="R86" s="38"/>
+    </row>
+    <row r="89" spans="2:18">
+      <c r="E89" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="B85:R86"/>
     <mergeCell ref="P46:Q46"/>
     <mergeCell ref="P47:Q48"/>
     <mergeCell ref="P49:Q49"/>
@@ -11189,7 +11443,8 @@
     <mergeCell ref="AH9:AI9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11197,15 +11452,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF690D20-3AF0-4911-A815-03050030AE1D}">
   <dimension ref="B2:AJ79"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AL28" sqref="AL28"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AH59" sqref="AH59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:36">
       <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
+      <c r="C2" s="30" t="s">
+        <v>22</v>
+      </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
@@ -11223,7 +11480,9 @@
       <c r="R2" s="13"/>
       <c r="T2" s="11"/>
       <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
+      <c r="V2" s="30" t="s">
+        <v>23</v>
+      </c>
       <c r="W2" s="12"/>
       <c r="X2" s="12"/>
       <c r="Y2" s="12"/>
@@ -11326,10 +11585,10 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
-      <c r="P5" s="33" t="s">
+      <c r="P5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="33"/>
+      <c r="Q5" s="37"/>
       <c r="R5" s="15"/>
       <c r="T5" s="14"/>
       <c r="U5" s="10"/>
@@ -11345,10 +11604,10 @@
       <c r="AE5" s="10"/>
       <c r="AF5" s="10"/>
       <c r="AG5" s="10"/>
-      <c r="AH5" s="33" t="s">
+      <c r="AH5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AI5" s="33"/>
+      <c r="AI5" s="37"/>
       <c r="AJ5" s="15"/>
     </row>
     <row r="6" spans="2:36">
@@ -11366,10 +11625,10 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
-      <c r="P6" s="31" t="s">
+      <c r="P6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="31"/>
+      <c r="Q6" s="36"/>
       <c r="R6" s="15"/>
       <c r="T6" s="14"/>
       <c r="U6" s="10"/>
@@ -11385,10 +11644,10 @@
       <c r="AE6" s="10"/>
       <c r="AF6" s="10"/>
       <c r="AG6" s="10"/>
-      <c r="AH6" s="31" t="s">
+      <c r="AH6" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="AI6" s="31"/>
+      <c r="AI6" s="36"/>
       <c r="AJ6" s="15"/>
     </row>
     <row r="7" spans="2:36">
@@ -11406,8 +11665,8 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
       <c r="R7" s="15"/>
       <c r="T7" s="14"/>
       <c r="U7" s="10"/>
@@ -11423,8 +11682,8 @@
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
       <c r="AG7" s="10"/>
-      <c r="AH7" s="31"/>
-      <c r="AI7" s="31"/>
+      <c r="AH7" s="36"/>
+      <c r="AI7" s="36"/>
       <c r="AJ7" s="15"/>
     </row>
     <row r="8" spans="2:36" ht="18.75">
@@ -11442,10 +11701,10 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
-      <c r="P8" s="32" t="s">
+      <c r="P8" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="Q8" s="32"/>
+      <c r="Q8" s="34"/>
       <c r="R8" s="15"/>
       <c r="T8" s="14"/>
       <c r="U8" s="10"/>
@@ -11461,10 +11720,10 @@
       <c r="AE8" s="10"/>
       <c r="AF8" s="10"/>
       <c r="AG8" s="10"/>
-      <c r="AH8" s="32" t="s">
+      <c r="AH8" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="AI8" s="32"/>
+      <c r="AI8" s="34"/>
       <c r="AJ8" s="15"/>
     </row>
     <row r="9" spans="2:36">
@@ -12601,7 +12860,9 @@
     <row r="43" spans="2:36">
       <c r="B43" s="5"/>
       <c r="C43" s="19"/>
-      <c r="D43" s="1"/>
+      <c r="D43" s="23" t="s">
+        <v>24</v>
+      </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -12651,10 +12912,10 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
-      <c r="P45" s="33" t="s">
+      <c r="P45" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="Q45" s="33"/>
+      <c r="Q45" s="37"/>
       <c r="R45" s="6"/>
     </row>
     <row r="46" spans="2:36">
@@ -12672,10 +12933,10 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
-      <c r="P46" s="28" t="s">
+      <c r="P46" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="Q46" s="28"/>
+      <c r="Q46" s="32"/>
       <c r="R46" s="6"/>
     </row>
     <row r="47" spans="2:36">
@@ -12693,8 +12954,8 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
-      <c r="P47" s="28"/>
-      <c r="Q47" s="28"/>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="32"/>
       <c r="R47" s="6"/>
     </row>
     <row r="48" spans="2:36" ht="18.75">
@@ -12712,10 +12973,10 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
-      <c r="P48" s="29" t="s">
+      <c r="P48" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="Q48" s="29"/>
+      <c r="Q48" s="33"/>
       <c r="R48" s="6"/>
     </row>
     <row r="49" spans="2:18">
@@ -13319,7 +13580,8 @@
     <mergeCell ref="AH8:AI8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -13328,7 +13590,7 @@
   <dimension ref="B2:AJ79"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Z59" sqref="Z59"/>
+      <selection activeCell="AJ40" sqref="AJ40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13460,10 +13722,10 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
-      <c r="P5" s="33" t="s">
+      <c r="P5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="33"/>
+      <c r="Q5" s="37"/>
       <c r="R5" s="15"/>
       <c r="T5" s="14"/>
       <c r="U5" s="10"/>
@@ -13479,10 +13741,10 @@
       <c r="AE5" s="10"/>
       <c r="AF5" s="10"/>
       <c r="AG5" s="10"/>
-      <c r="AH5" s="33" t="s">
+      <c r="AH5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AI5" s="33"/>
+      <c r="AI5" s="37"/>
       <c r="AJ5" s="15"/>
     </row>
     <row r="6" spans="2:36">
@@ -13500,10 +13762,10 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
-      <c r="P6" s="31" t="s">
+      <c r="P6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="31"/>
+      <c r="Q6" s="36"/>
       <c r="R6" s="15"/>
       <c r="T6" s="14"/>
       <c r="U6" s="10"/>
@@ -13519,10 +13781,10 @@
       <c r="AE6" s="10"/>
       <c r="AF6" s="10"/>
       <c r="AG6" s="10"/>
-      <c r="AH6" s="31" t="s">
+      <c r="AH6" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="AI6" s="31"/>
+      <c r="AI6" s="36"/>
       <c r="AJ6" s="15"/>
     </row>
     <row r="7" spans="2:36">
@@ -13540,8 +13802,8 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
       <c r="R7" s="15"/>
       <c r="T7" s="14"/>
       <c r="U7" s="10"/>
@@ -13557,8 +13819,8 @@
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
       <c r="AG7" s="10"/>
-      <c r="AH7" s="31"/>
-      <c r="AI7" s="31"/>
+      <c r="AH7" s="36"/>
+      <c r="AI7" s="36"/>
       <c r="AJ7" s="15"/>
     </row>
     <row r="8" spans="2:36" ht="18.75">
@@ -13576,10 +13838,10 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
-      <c r="P8" s="32" t="s">
+      <c r="P8" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="Q8" s="32"/>
+      <c r="Q8" s="34"/>
       <c r="R8" s="15"/>
       <c r="T8" s="14"/>
       <c r="U8" s="10"/>
@@ -13595,10 +13857,10 @@
       <c r="AE8" s="10"/>
       <c r="AF8" s="10"/>
       <c r="AG8" s="10"/>
-      <c r="AH8" s="32" t="s">
+      <c r="AH8" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="AI8" s="32"/>
+      <c r="AI8" s="34"/>
       <c r="AJ8" s="15"/>
     </row>
     <row r="9" spans="2:36">
@@ -14787,10 +15049,10 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
-      <c r="P45" s="33" t="s">
+      <c r="P45" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="Q45" s="33"/>
+      <c r="Q45" s="37"/>
       <c r="R45" s="6"/>
     </row>
     <row r="46" spans="2:36">
@@ -14807,10 +15069,10 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
-      <c r="P46" s="28" t="s">
+      <c r="P46" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="Q46" s="28"/>
+      <c r="Q46" s="32"/>
       <c r="R46" s="6"/>
     </row>
     <row r="47" spans="2:36">
@@ -14828,8 +15090,8 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
-      <c r="P47" s="28"/>
-      <c r="Q47" s="28"/>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="32"/>
       <c r="R47" s="6"/>
     </row>
     <row r="48" spans="2:36" ht="18.75">
@@ -14847,10 +15109,10 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
-      <c r="P48" s="29" t="s">
+      <c r="P48" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="Q48" s="29"/>
+      <c r="Q48" s="33"/>
       <c r="R48" s="6"/>
     </row>
     <row r="49" spans="2:18">

--- a/HASIL PENGUJIAN 100 EPOCHS.xlsx
+++ b/HASIL PENGUJIAN 100 EPOCHS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SKRIPSI\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D5210E-BE12-467C-B5B6-2F2B6B27A020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06F3461-43FB-4871-A55D-8E6D37DD32FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADAM FULL" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="ADAM SMALL" sheetId="4" r:id="rId5"/>
     <sheet name="SGD SMALL" sheetId="5" r:id="rId6"/>
     <sheet name="RMSProp SMALL" sheetId="6" r:id="rId7"/>
+    <sheet name="Rekapan" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="34">
   <si>
     <t>80/20</t>
   </si>
@@ -113,12 +114,33 @@
   <si>
     <t>806.36 seconds.</t>
   </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Pembagian Data</t>
+  </si>
+  <si>
+    <t>Akurasi</t>
+  </si>
+  <si>
+    <t>f1-score</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Durasi Training</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +229,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -258,7 +286,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -346,11 +374,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -404,12 +443,26 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3177,15 +3230,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>186073</xdr:rowOff>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>207818</xdr:colOff>
+      <xdr:colOff>207817</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>23380</xdr:rowOff>
+      <xdr:rowOff>36987</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3215,8 +3268,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="987136" y="567073"/>
-          <a:ext cx="7706591" cy="2746762"/>
+          <a:off x="993320" y="580680"/>
+          <a:ext cx="7786997" cy="2749236"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3608,16 +3661,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D4:AL83"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView showGridLines="0" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:38">
+    <row r="4" spans="4:38" x14ac:dyDescent="0.25">
       <c r="X4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3625,7 +3678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="4:38">
+    <row r="6" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -3663,19 +3716,19 @@
       <c r="AK6" s="3"/>
       <c r="AL6" s="4"/>
     </row>
-    <row r="7" spans="4:38">
+    <row r="7" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D7" s="5"/>
       <c r="T7" s="6"/>
       <c r="V7" s="5"/>
       <c r="AL7" s="6"/>
     </row>
-    <row r="8" spans="4:38">
+    <row r="8" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D8" s="5"/>
       <c r="T8" s="6"/>
       <c r="V8" s="5"/>
       <c r="AL8" s="6"/>
     </row>
-    <row r="9" spans="4:38">
+    <row r="9" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D9" s="5"/>
       <c r="R9" s="31" t="s">
         <v>1</v>
@@ -3689,7 +3742,7 @@
       <c r="AK9" s="31"/>
       <c r="AL9" s="6"/>
     </row>
-    <row r="10" spans="4:38">
+    <row r="10" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D10" s="5"/>
       <c r="R10" s="32" t="s">
         <v>0</v>
@@ -3703,7 +3756,7 @@
       <c r="AK10" s="32"/>
       <c r="AL10" s="6"/>
     </row>
-    <row r="11" spans="4:38">
+    <row r="11" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D11" s="5"/>
       <c r="R11" s="32"/>
       <c r="S11" s="32"/>
@@ -3713,7 +3766,7 @@
       <c r="AK11" s="32"/>
       <c r="AL11" s="6"/>
     </row>
-    <row r="12" spans="4:38" ht="18.75">
+    <row r="12" spans="4:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D12" s="5"/>
       <c r="R12" s="33" t="s">
         <v>2</v>
@@ -3727,187 +3780,187 @@
       <c r="AK12" s="33"/>
       <c r="AL12" s="6"/>
     </row>
-    <row r="13" spans="4:38">
+    <row r="13" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D13" s="5"/>
       <c r="T13" s="6"/>
       <c r="V13" s="5"/>
       <c r="AL13" s="6"/>
     </row>
-    <row r="14" spans="4:38">
+    <row r="14" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D14" s="5"/>
       <c r="T14" s="6"/>
       <c r="V14" s="5"/>
       <c r="AL14" s="6"/>
     </row>
-    <row r="15" spans="4:38">
+    <row r="15" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D15" s="5"/>
       <c r="T15" s="6"/>
       <c r="V15" s="5"/>
       <c r="AL15" s="6"/>
     </row>
-    <row r="16" spans="4:38">
+    <row r="16" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D16" s="5"/>
       <c r="T16" s="6"/>
       <c r="V16" s="5"/>
       <c r="AL16" s="6"/>
     </row>
-    <row r="17" spans="4:38">
+    <row r="17" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D17" s="5"/>
       <c r="T17" s="6"/>
       <c r="V17" s="5"/>
       <c r="AL17" s="6"/>
     </row>
-    <row r="18" spans="4:38">
+    <row r="18" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D18" s="5"/>
       <c r="T18" s="6"/>
       <c r="V18" s="5"/>
       <c r="AL18" s="6"/>
     </row>
-    <row r="19" spans="4:38">
+    <row r="19" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D19" s="5"/>
       <c r="T19" s="6"/>
       <c r="V19" s="5"/>
       <c r="AL19" s="6"/>
     </row>
-    <row r="20" spans="4:38">
+    <row r="20" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D20" s="5"/>
       <c r="T20" s="6"/>
       <c r="V20" s="5"/>
       <c r="AL20" s="6"/>
     </row>
-    <row r="21" spans="4:38">
+    <row r="21" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D21" s="5"/>
       <c r="T21" s="6"/>
       <c r="V21" s="5"/>
       <c r="AL21" s="6"/>
     </row>
-    <row r="22" spans="4:38">
+    <row r="22" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D22" s="5"/>
       <c r="T22" s="6"/>
       <c r="V22" s="5"/>
       <c r="AL22" s="6"/>
     </row>
-    <row r="23" spans="4:38">
+    <row r="23" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D23" s="5"/>
       <c r="T23" s="6"/>
       <c r="V23" s="5"/>
       <c r="AL23" s="6"/>
     </row>
-    <row r="24" spans="4:38">
+    <row r="24" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D24" s="5"/>
       <c r="T24" s="6"/>
       <c r="V24" s="5"/>
       <c r="AL24" s="6"/>
     </row>
-    <row r="25" spans="4:38">
+    <row r="25" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D25" s="5"/>
       <c r="T25" s="6"/>
       <c r="V25" s="5"/>
       <c r="AL25" s="6"/>
     </row>
-    <row r="26" spans="4:38">
+    <row r="26" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D26" s="5"/>
       <c r="T26" s="6"/>
       <c r="V26" s="5"/>
       <c r="AL26" s="6"/>
     </row>
-    <row r="27" spans="4:38">
+    <row r="27" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D27" s="5"/>
       <c r="T27" s="6"/>
       <c r="V27" s="5"/>
       <c r="AL27" s="6"/>
     </row>
-    <row r="28" spans="4:38">
+    <row r="28" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D28" s="5"/>
       <c r="T28" s="6"/>
       <c r="V28" s="5"/>
       <c r="AL28" s="6"/>
     </row>
-    <row r="29" spans="4:38">
+    <row r="29" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D29" s="5"/>
       <c r="T29" s="6"/>
       <c r="V29" s="5"/>
       <c r="AL29" s="6"/>
     </row>
-    <row r="30" spans="4:38">
+    <row r="30" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D30" s="5"/>
       <c r="T30" s="6"/>
       <c r="V30" s="5"/>
       <c r="AL30" s="6"/>
     </row>
-    <row r="31" spans="4:38">
+    <row r="31" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D31" s="5"/>
       <c r="T31" s="6"/>
       <c r="V31" s="5"/>
       <c r="AL31" s="6"/>
     </row>
-    <row r="32" spans="4:38">
+    <row r="32" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D32" s="5"/>
       <c r="T32" s="6"/>
       <c r="V32" s="5"/>
       <c r="AL32" s="6"/>
     </row>
-    <row r="33" spans="4:38">
+    <row r="33" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D33" s="5"/>
       <c r="T33" s="6"/>
       <c r="V33" s="5"/>
       <c r="AL33" s="6"/>
     </row>
-    <row r="34" spans="4:38">
+    <row r="34" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D34" s="5"/>
       <c r="T34" s="6"/>
       <c r="V34" s="5"/>
       <c r="AL34" s="6"/>
     </row>
-    <row r="35" spans="4:38">
+    <row r="35" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D35" s="5"/>
       <c r="T35" s="6"/>
       <c r="V35" s="5"/>
       <c r="AL35" s="6"/>
     </row>
-    <row r="36" spans="4:38">
+    <row r="36" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D36" s="5"/>
       <c r="T36" s="6"/>
       <c r="V36" s="5"/>
       <c r="AL36" s="6"/>
     </row>
-    <row r="37" spans="4:38">
+    <row r="37" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D37" s="5"/>
       <c r="T37" s="6"/>
       <c r="V37" s="5"/>
       <c r="AL37" s="6"/>
     </row>
-    <row r="38" spans="4:38">
+    <row r="38" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D38" s="5"/>
       <c r="T38" s="6"/>
       <c r="V38" s="5"/>
       <c r="AL38" s="6"/>
     </row>
-    <row r="39" spans="4:38">
+    <row r="39" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D39" s="5"/>
       <c r="T39" s="6"/>
       <c r="V39" s="5"/>
       <c r="AL39" s="6"/>
     </row>
-    <row r="40" spans="4:38">
+    <row r="40" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D40" s="5"/>
       <c r="T40" s="6"/>
       <c r="V40" s="5"/>
       <c r="AL40" s="6"/>
     </row>
-    <row r="41" spans="4:38">
+    <row r="41" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D41" s="5"/>
       <c r="T41" s="6"/>
       <c r="V41" s="5"/>
       <c r="AL41" s="6"/>
     </row>
-    <row r="42" spans="4:38">
+    <row r="42" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D42" s="5"/>
       <c r="T42" s="6"/>
       <c r="V42" s="5"/>
       <c r="AL42" s="6"/>
     </row>
-    <row r="43" spans="4:38">
+    <row r="43" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D43" s="7"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
@@ -3943,7 +3996,7 @@
       <c r="AK43" s="8"/>
       <c r="AL43" s="9"/>
     </row>
-    <row r="46" spans="4:38">
+    <row r="46" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D46" s="2"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -3962,18 +4015,18 @@
       <c r="S46" s="3"/>
       <c r="T46" s="4"/>
     </row>
-    <row r="47" spans="4:38">
+    <row r="47" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D47" s="5"/>
       <c r="E47" s="20" t="s">
         <v>8</v>
       </c>
       <c r="T47" s="6"/>
     </row>
-    <row r="48" spans="4:38">
+    <row r="48" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D48" s="5"/>
       <c r="T48" s="6"/>
     </row>
-    <row r="49" spans="4:20">
+    <row r="49" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D49" s="5"/>
       <c r="R49" s="31" t="s">
         <v>1</v>
@@ -3981,7 +4034,7 @@
       <c r="S49" s="31"/>
       <c r="T49" s="6"/>
     </row>
-    <row r="50" spans="4:20">
+    <row r="50" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D50" s="5"/>
       <c r="R50" s="32" t="s">
         <v>6</v>
@@ -3989,13 +4042,13 @@
       <c r="S50" s="32"/>
       <c r="T50" s="6"/>
     </row>
-    <row r="51" spans="4:20">
+    <row r="51" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D51" s="5"/>
       <c r="R51" s="32"/>
       <c r="S51" s="32"/>
       <c r="T51" s="6"/>
     </row>
-    <row r="52" spans="4:20" ht="18.75">
+    <row r="52" spans="4:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D52" s="5"/>
       <c r="R52" s="33" t="s">
         <v>2</v>
@@ -4003,67 +4056,67 @@
       <c r="S52" s="33"/>
       <c r="T52" s="6"/>
     </row>
-    <row r="53" spans="4:20">
+    <row r="53" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D53" s="5"/>
       <c r="T53" s="6"/>
     </row>
-    <row r="54" spans="4:20">
+    <row r="54" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D54" s="5"/>
       <c r="T54" s="6"/>
     </row>
-    <row r="55" spans="4:20">
+    <row r="55" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D55" s="5"/>
       <c r="T55" s="6"/>
     </row>
-    <row r="56" spans="4:20">
+    <row r="56" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D56" s="5"/>
       <c r="T56" s="6"/>
     </row>
-    <row r="57" spans="4:20">
+    <row r="57" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D57" s="5"/>
       <c r="T57" s="6"/>
     </row>
-    <row r="58" spans="4:20">
+    <row r="58" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D58" s="5"/>
       <c r="T58" s="6"/>
     </row>
-    <row r="59" spans="4:20">
+    <row r="59" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D59" s="5"/>
       <c r="T59" s="6"/>
     </row>
-    <row r="60" spans="4:20">
+    <row r="60" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D60" s="5"/>
       <c r="T60" s="6"/>
     </row>
-    <row r="61" spans="4:20">
+    <row r="61" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D61" s="5"/>
       <c r="T61" s="6"/>
     </row>
-    <row r="62" spans="4:20">
+    <row r="62" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D62" s="5"/>
       <c r="T62" s="6"/>
     </row>
-    <row r="63" spans="4:20">
+    <row r="63" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D63" s="5"/>
       <c r="T63" s="6"/>
     </row>
-    <row r="64" spans="4:20">
+    <row r="64" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D64" s="5"/>
       <c r="T64" s="6"/>
     </row>
-    <row r="65" spans="4:20">
+    <row r="65" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D65" s="5"/>
       <c r="T65" s="6"/>
     </row>
-    <row r="66" spans="4:20">
+    <row r="66" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D66" s="5"/>
       <c r="T66" s="6"/>
     </row>
-    <row r="67" spans="4:20">
+    <row r="67" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D67" s="5"/>
       <c r="T67" s="6"/>
     </row>
-    <row r="68" spans="4:20">
+    <row r="68" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D68" s="21"/>
       <c r="E68" s="22"/>
       <c r="F68" s="22"/>
@@ -4079,63 +4132,63 @@
       <c r="P68" s="22"/>
       <c r="T68" s="6"/>
     </row>
-    <row r="69" spans="4:20">
+    <row r="69" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D69" s="5"/>
       <c r="T69" s="6"/>
     </row>
-    <row r="70" spans="4:20">
+    <row r="70" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D70" s="5"/>
       <c r="T70" s="6"/>
     </row>
-    <row r="71" spans="4:20">
+    <row r="71" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D71" s="5"/>
       <c r="T71" s="6"/>
     </row>
-    <row r="72" spans="4:20">
+    <row r="72" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D72" s="5"/>
       <c r="T72" s="6"/>
     </row>
-    <row r="73" spans="4:20">
+    <row r="73" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D73" s="5"/>
       <c r="T73" s="6"/>
     </row>
-    <row r="74" spans="4:20">
+    <row r="74" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D74" s="5"/>
       <c r="T74" s="6"/>
     </row>
-    <row r="75" spans="4:20">
+    <row r="75" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D75" s="5"/>
       <c r="T75" s="6"/>
     </row>
-    <row r="76" spans="4:20">
+    <row r="76" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D76" s="5"/>
       <c r="T76" s="6"/>
     </row>
-    <row r="77" spans="4:20">
+    <row r="77" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D77" s="5"/>
       <c r="T77" s="6"/>
     </row>
-    <row r="78" spans="4:20">
+    <row r="78" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D78" s="5"/>
       <c r="T78" s="6"/>
     </row>
-    <row r="79" spans="4:20">
+    <row r="79" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D79" s="5"/>
       <c r="T79" s="6"/>
     </row>
-    <row r="80" spans="4:20">
+    <row r="80" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D80" s="5"/>
       <c r="T80" s="6"/>
     </row>
-    <row r="81" spans="4:20">
+    <row r="81" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D81" s="5"/>
       <c r="T81" s="6"/>
     </row>
-    <row r="82" spans="4:20">
+    <row r="82" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D82" s="5"/>
       <c r="T82" s="6"/>
     </row>
-    <row r="83" spans="4:20">
+    <row r="83" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D83" s="7"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
@@ -4176,13 +4229,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3265C1DE-771B-466D-AFE8-2C836A595B59}">
   <dimension ref="B4:AJ81"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView showGridLines="0" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA73" sqref="AA73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:36">
+    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B4" s="26" t="s">
         <v>17</v>
       </c>
@@ -4222,7 +4275,7 @@
       <c r="AI4" s="12"/>
       <c r="AJ4" s="13"/>
     </row>
-    <row r="5" spans="2:36">
+    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -4258,7 +4311,7 @@
       <c r="AI5" s="10"/>
       <c r="AJ5" s="15"/>
     </row>
-    <row r="6" spans="2:36">
+    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B6" s="14"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -4293,7 +4346,7 @@
       <c r="AI6" s="10"/>
       <c r="AJ6" s="15"/>
     </row>
-    <row r="7" spans="2:36">
+    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -4333,7 +4386,7 @@
       <c r="AI7" s="35"/>
       <c r="AJ7" s="15"/>
     </row>
-    <row r="8" spans="2:36">
+    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B8" s="14"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -4373,7 +4426,7 @@
       <c r="AI8" s="36"/>
       <c r="AJ8" s="15"/>
     </row>
-    <row r="9" spans="2:36">
+    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B9" s="14"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -4409,7 +4462,7 @@
       <c r="AI9" s="36"/>
       <c r="AJ9" s="15"/>
     </row>
-    <row r="10" spans="2:36" ht="18.75">
+    <row r="10" spans="2:36" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="14"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -4449,7 +4502,7 @@
       <c r="AI10" s="34"/>
       <c r="AJ10" s="15"/>
     </row>
-    <row r="11" spans="2:36">
+    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B11" s="14"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -4485,7 +4538,7 @@
       <c r="AI11" s="10"/>
       <c r="AJ11" s="15"/>
     </row>
-    <row r="12" spans="2:36">
+    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B12" s="14"/>
       <c r="C12" s="10"/>
       <c r="E12" s="10"/>
@@ -4520,7 +4573,7 @@
       <c r="AI12" s="10"/>
       <c r="AJ12" s="15"/>
     </row>
-    <row r="13" spans="2:36">
+    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B13" s="14"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -4556,7 +4609,7 @@
       <c r="AI13" s="10"/>
       <c r="AJ13" s="15"/>
     </row>
-    <row r="14" spans="2:36">
+    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -4592,7 +4645,7 @@
       <c r="AI14" s="10"/>
       <c r="AJ14" s="15"/>
     </row>
-    <row r="15" spans="2:36">
+    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B15" s="14"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -4628,7 +4681,7 @@
       <c r="AI15" s="10"/>
       <c r="AJ15" s="15"/>
     </row>
-    <row r="16" spans="2:36">
+    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B16" s="14"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -4664,7 +4717,7 @@
       <c r="AI16" s="10"/>
       <c r="AJ16" s="15"/>
     </row>
-    <row r="17" spans="2:36">
+    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B17" s="14"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -4700,7 +4753,7 @@
       <c r="AI17" s="10"/>
       <c r="AJ17" s="15"/>
     </row>
-    <row r="18" spans="2:36">
+    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B18" s="14"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -4736,7 +4789,7 @@
       <c r="AI18" s="10"/>
       <c r="AJ18" s="15"/>
     </row>
-    <row r="19" spans="2:36">
+    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B19" s="14"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -4772,7 +4825,7 @@
       <c r="AI19" s="10"/>
       <c r="AJ19" s="15"/>
     </row>
-    <row r="20" spans="2:36">
+    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B20" s="14"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -4808,7 +4861,7 @@
       <c r="AI20" s="10"/>
       <c r="AJ20" s="15"/>
     </row>
-    <row r="21" spans="2:36">
+    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B21" s="14"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -4844,7 +4897,7 @@
       <c r="AI21" s="10"/>
       <c r="AJ21" s="15"/>
     </row>
-    <row r="22" spans="2:36">
+    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B22" s="14"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -4880,7 +4933,7 @@
       <c r="AI22" s="10"/>
       <c r="AJ22" s="15"/>
     </row>
-    <row r="23" spans="2:36">
+    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -4915,7 +4968,7 @@
       <c r="AI23" s="10"/>
       <c r="AJ23" s="15"/>
     </row>
-    <row r="24" spans="2:36">
+    <row r="24" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B24" s="14"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -4951,7 +5004,7 @@
       <c r="AI24" s="10"/>
       <c r="AJ24" s="15"/>
     </row>
-    <row r="25" spans="2:36">
+    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B25" s="14"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -4986,7 +5039,7 @@
       <c r="AI25" s="10"/>
       <c r="AJ25" s="15"/>
     </row>
-    <row r="26" spans="2:36">
+    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B26" s="14"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -5022,7 +5075,7 @@
       <c r="AI26" s="10"/>
       <c r="AJ26" s="15"/>
     </row>
-    <row r="27" spans="2:36">
+    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B27" s="14"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -5058,7 +5111,7 @@
       <c r="AI27" s="10"/>
       <c r="AJ27" s="15"/>
     </row>
-    <row r="28" spans="2:36">
+    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B28" s="14"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -5094,7 +5147,7 @@
       <c r="AI28" s="10"/>
       <c r="AJ28" s="15"/>
     </row>
-    <row r="29" spans="2:36">
+    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B29" s="14"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -5130,7 +5183,7 @@
       <c r="AI29" s="10"/>
       <c r="AJ29" s="15"/>
     </row>
-    <row r="30" spans="2:36">
+    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B30" s="14"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -5166,7 +5219,7 @@
       <c r="AI30" s="10"/>
       <c r="AJ30" s="15"/>
     </row>
-    <row r="31" spans="2:36">
+    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B31" s="14"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -5202,7 +5255,7 @@
       <c r="AI31" s="10"/>
       <c r="AJ31" s="15"/>
     </row>
-    <row r="32" spans="2:36">
+    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B32" s="14"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -5238,7 +5291,7 @@
       <c r="AI32" s="10"/>
       <c r="AJ32" s="15"/>
     </row>
-    <row r="33" spans="2:36">
+    <row r="33" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B33" s="14"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -5274,7 +5327,7 @@
       <c r="AI33" s="10"/>
       <c r="AJ33" s="15"/>
     </row>
-    <row r="34" spans="2:36">
+    <row r="34" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B34" s="14"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -5310,7 +5363,7 @@
       <c r="AI34" s="10"/>
       <c r="AJ34" s="15"/>
     </row>
-    <row r="35" spans="2:36">
+    <row r="35" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B35" s="14"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -5346,7 +5399,7 @@
       <c r="AI35" s="10"/>
       <c r="AJ35" s="15"/>
     </row>
-    <row r="36" spans="2:36">
+    <row r="36" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B36" s="14"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -5382,7 +5435,7 @@
       <c r="AI36" s="10"/>
       <c r="AJ36" s="15"/>
     </row>
-    <row r="37" spans="2:36">
+    <row r="37" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B37" s="14"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -5418,7 +5471,7 @@
       <c r="AI37" s="10"/>
       <c r="AJ37" s="15"/>
     </row>
-    <row r="38" spans="2:36">
+    <row r="38" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B38" s="14"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -5454,7 +5507,7 @@
       <c r="AI38" s="10"/>
       <c r="AJ38" s="15"/>
     </row>
-    <row r="39" spans="2:36">
+    <row r="39" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B39" s="14"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -5490,7 +5543,7 @@
       <c r="AI39" s="10"/>
       <c r="AJ39" s="15"/>
     </row>
-    <row r="40" spans="2:36">
+    <row r="40" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B40" s="14"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
@@ -5526,7 +5579,7 @@
       <c r="AI40" s="10"/>
       <c r="AJ40" s="15"/>
     </row>
-    <row r="41" spans="2:36">
+    <row r="41" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B41" s="16"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
@@ -5562,7 +5615,7 @@
       <c r="AI41" s="17"/>
       <c r="AJ41" s="18"/>
     </row>
-    <row r="44" spans="2:36">
+    <row r="44" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B44" s="26" t="s">
         <v>14</v>
       </c>
@@ -5583,7 +5636,7 @@
       <c r="Q44" s="12"/>
       <c r="R44" s="13"/>
     </row>
-    <row r="45" spans="2:36">
+    <row r="45" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B45" s="14"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -5602,7 +5655,7 @@
       <c r="Q45" s="10"/>
       <c r="R45" s="15"/>
     </row>
-    <row r="46" spans="2:36">
+    <row r="46" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B46" s="14"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -5621,7 +5674,7 @@
       <c r="Q46" s="10"/>
       <c r="R46" s="15"/>
     </row>
-    <row r="47" spans="2:36">
+    <row r="47" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B47" s="14"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
@@ -5642,7 +5695,7 @@
       <c r="Q47" s="35"/>
       <c r="R47" s="15"/>
     </row>
-    <row r="48" spans="2:36">
+    <row r="48" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B48" s="14"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -5663,7 +5716,7 @@
       <c r="Q48" s="36"/>
       <c r="R48" s="15"/>
     </row>
-    <row r="49" spans="2:18">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B49" s="14"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
@@ -5682,7 +5735,7 @@
       <c r="Q49" s="36"/>
       <c r="R49" s="15"/>
     </row>
-    <row r="50" spans="2:18" ht="18.75">
+    <row r="50" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B50" s="14"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -5702,7 +5755,7 @@
       <c r="Q50" s="34"/>
       <c r="R50" s="15"/>
     </row>
-    <row r="51" spans="2:18">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="14"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -5721,7 +5774,7 @@
       <c r="Q51" s="10"/>
       <c r="R51" s="15"/>
     </row>
-    <row r="52" spans="2:18">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="14"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
@@ -5740,7 +5793,7 @@
       <c r="Q52" s="10"/>
       <c r="R52" s="15"/>
     </row>
-    <row r="53" spans="2:18">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53" s="14"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
@@ -5759,7 +5812,7 @@
       <c r="Q53" s="10"/>
       <c r="R53" s="15"/>
     </row>
-    <row r="54" spans="2:18">
+    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B54" s="14"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -5778,7 +5831,7 @@
       <c r="Q54" s="10"/>
       <c r="R54" s="15"/>
     </row>
-    <row r="55" spans="2:18">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B55" s="14"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -5797,7 +5850,7 @@
       <c r="Q55" s="10"/>
       <c r="R55" s="15"/>
     </row>
-    <row r="56" spans="2:18">
+    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B56" s="14"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
@@ -5816,7 +5869,7 @@
       <c r="Q56" s="10"/>
       <c r="R56" s="15"/>
     </row>
-    <row r="57" spans="2:18">
+    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B57" s="14"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -5835,7 +5888,7 @@
       <c r="Q57" s="10"/>
       <c r="R57" s="15"/>
     </row>
-    <row r="58" spans="2:18">
+    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B58" s="14"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
@@ -5854,7 +5907,7 @@
       <c r="Q58" s="10"/>
       <c r="R58" s="15"/>
     </row>
-    <row r="59" spans="2:18">
+    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B59" s="14"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
@@ -5873,7 +5926,7 @@
       <c r="Q59" s="10"/>
       <c r="R59" s="15"/>
     </row>
-    <row r="60" spans="2:18">
+    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B60" s="14"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
@@ -5892,7 +5945,7 @@
       <c r="Q60" s="10"/>
       <c r="R60" s="15"/>
     </row>
-    <row r="61" spans="2:18">
+    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B61" s="14"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
@@ -5911,7 +5964,7 @@
       <c r="Q61" s="10"/>
       <c r="R61" s="15"/>
     </row>
-    <row r="62" spans="2:18">
+    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B62" s="14"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
@@ -5930,7 +5983,7 @@
       <c r="Q62" s="10"/>
       <c r="R62" s="15"/>
     </row>
-    <row r="63" spans="2:18">
+    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B63" s="14"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
@@ -5949,7 +6002,7 @@
       <c r="Q63" s="10"/>
       <c r="R63" s="15"/>
     </row>
-    <row r="64" spans="2:18">
+    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B64" s="14"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
@@ -5967,7 +6020,7 @@
       <c r="Q64" s="10"/>
       <c r="R64" s="15"/>
     </row>
-    <row r="65" spans="2:18">
+    <row r="65" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B65" s="14"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -5986,7 +6039,7 @@
       <c r="Q65" s="10"/>
       <c r="R65" s="15"/>
     </row>
-    <row r="66" spans="2:18">
+    <row r="66" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B66" s="14"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -6005,7 +6058,7 @@
       <c r="Q66" s="10"/>
       <c r="R66" s="15"/>
     </row>
-    <row r="67" spans="2:18">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B67" s="14"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -6024,7 +6077,7 @@
       <c r="Q67" s="10"/>
       <c r="R67" s="15"/>
     </row>
-    <row r="68" spans="2:18">
+    <row r="68" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B68" s="14"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
@@ -6043,7 +6096,7 @@
       <c r="Q68" s="10"/>
       <c r="R68" s="15"/>
     </row>
-    <row r="69" spans="2:18">
+    <row r="69" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B69" s="14"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
@@ -6062,7 +6115,7 @@
       <c r="Q69" s="10"/>
       <c r="R69" s="15"/>
     </row>
-    <row r="70" spans="2:18">
+    <row r="70" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B70" s="14"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
@@ -6081,7 +6134,7 @@
       <c r="Q70" s="10"/>
       <c r="R70" s="15"/>
     </row>
-    <row r="71" spans="2:18">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B71" s="14"/>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
@@ -6100,7 +6153,7 @@
       <c r="Q71" s="10"/>
       <c r="R71" s="15"/>
     </row>
-    <row r="72" spans="2:18">
+    <row r="72" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B72" s="14"/>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
@@ -6119,7 +6172,7 @@
       <c r="Q72" s="10"/>
       <c r="R72" s="15"/>
     </row>
-    <row r="73" spans="2:18">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B73" s="14"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
@@ -6138,7 +6191,7 @@
       <c r="Q73" s="10"/>
       <c r="R73" s="15"/>
     </row>
-    <row r="74" spans="2:18">
+    <row r="74" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B74" s="14"/>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
@@ -6157,7 +6210,7 @@
       <c r="Q74" s="10"/>
       <c r="R74" s="15"/>
     </row>
-    <row r="75" spans="2:18">
+    <row r="75" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B75" s="14"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
@@ -6176,7 +6229,7 @@
       <c r="Q75" s="10"/>
       <c r="R75" s="15"/>
     </row>
-    <row r="76" spans="2:18">
+    <row r="76" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B76" s="14"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
@@ -6195,7 +6248,7 @@
       <c r="Q76" s="10"/>
       <c r="R76" s="15"/>
     </row>
-    <row r="77" spans="2:18">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B77" s="14"/>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
@@ -6214,7 +6267,7 @@
       <c r="Q77" s="10"/>
       <c r="R77" s="15"/>
     </row>
-    <row r="78" spans="2:18">
+    <row r="78" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B78" s="14"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
@@ -6233,7 +6286,7 @@
       <c r="Q78" s="10"/>
       <c r="R78" s="15"/>
     </row>
-    <row r="79" spans="2:18">
+    <row r="79" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B79" s="14"/>
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
@@ -6252,7 +6305,7 @@
       <c r="Q79" s="10"/>
       <c r="R79" s="15"/>
     </row>
-    <row r="80" spans="2:18">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B80" s="14"/>
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
@@ -6271,7 +6324,7 @@
       <c r="Q80" s="10"/>
       <c r="R80" s="15"/>
     </row>
-    <row r="81" spans="2:18">
+    <row r="81" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B81" s="16"/>
       <c r="C81" s="17"/>
       <c r="D81" s="17"/>
@@ -6311,16 +6364,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800CFA05-9B27-4650-A169-A5D3EBB0D79D}">
   <dimension ref="B2:AJ79"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AJ17" sqref="AJ17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:36">
+    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B2" s="26" t="s">
         <v>18</v>
       </c>
@@ -6361,7 +6414,7 @@
       <c r="AI2" s="12"/>
       <c r="AJ2" s="13"/>
     </row>
-    <row r="3" spans="2:36">
+    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -6398,7 +6451,7 @@
       <c r="AI3" s="10"/>
       <c r="AJ3" s="15"/>
     </row>
-    <row r="4" spans="2:36">
+    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B4" s="14"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -6435,7 +6488,7 @@
       <c r="AI4" s="10"/>
       <c r="AJ4" s="15"/>
     </row>
-    <row r="5" spans="2:36">
+    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -6476,7 +6529,7 @@
       <c r="AI5" s="35"/>
       <c r="AJ5" s="15"/>
     </row>
-    <row r="6" spans="2:36">
+    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B6" s="14"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -6517,7 +6570,7 @@
       <c r="AI6" s="36"/>
       <c r="AJ6" s="15"/>
     </row>
-    <row r="7" spans="2:36">
+    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -6554,7 +6607,7 @@
       <c r="AI7" s="36"/>
       <c r="AJ7" s="15"/>
     </row>
-    <row r="8" spans="2:36" ht="18.75">
+    <row r="8" spans="2:36" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B8" s="14"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -6595,7 +6648,7 @@
       <c r="AI8" s="34"/>
       <c r="AJ8" s="15"/>
     </row>
-    <row r="9" spans="2:36">
+    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B9" s="14"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -6632,7 +6685,7 @@
       <c r="AI9" s="10"/>
       <c r="AJ9" s="15"/>
     </row>
-    <row r="10" spans="2:36">
+    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B10" s="14"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -6669,7 +6722,7 @@
       <c r="AI10" s="10"/>
       <c r="AJ10" s="15"/>
     </row>
-    <row r="11" spans="2:36">
+    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B11" s="14"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -6706,7 +6759,7 @@
       <c r="AI11" s="10"/>
       <c r="AJ11" s="15"/>
     </row>
-    <row r="12" spans="2:36">
+    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B12" s="14"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -6743,7 +6796,7 @@
       <c r="AI12" s="10"/>
       <c r="AJ12" s="15"/>
     </row>
-    <row r="13" spans="2:36">
+    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B13" s="14"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -6780,7 +6833,7 @@
       <c r="AI13" s="10"/>
       <c r="AJ13" s="15"/>
     </row>
-    <row r="14" spans="2:36">
+    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -6817,7 +6870,7 @@
       <c r="AI14" s="10"/>
       <c r="AJ14" s="15"/>
     </row>
-    <row r="15" spans="2:36">
+    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B15" s="14"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -6854,7 +6907,7 @@
       <c r="AI15" s="10"/>
       <c r="AJ15" s="15"/>
     </row>
-    <row r="16" spans="2:36">
+    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B16" s="14"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -6891,7 +6944,7 @@
       <c r="AI16" s="10"/>
       <c r="AJ16" s="15"/>
     </row>
-    <row r="17" spans="2:36">
+    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B17" s="14"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -6930,7 +6983,7 @@
       <c r="AI17" s="10"/>
       <c r="AJ17" s="15"/>
     </row>
-    <row r="18" spans="2:36">
+    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B18" s="14"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -6967,7 +7020,7 @@
       <c r="AI18" s="10"/>
       <c r="AJ18" s="15"/>
     </row>
-    <row r="19" spans="2:36">
+    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B19" s="14"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -7004,7 +7057,7 @@
       <c r="AI19" s="10"/>
       <c r="AJ19" s="15"/>
     </row>
-    <row r="20" spans="2:36">
+    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B20" s="14"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -7041,7 +7094,7 @@
       <c r="AI20" s="10"/>
       <c r="AJ20" s="15"/>
     </row>
-    <row r="21" spans="2:36">
+    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B21" s="14"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -7078,7 +7131,7 @@
       <c r="AI21" s="10"/>
       <c r="AJ21" s="15"/>
     </row>
-    <row r="22" spans="2:36">
+    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B22" s="14"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -7115,7 +7168,7 @@
       <c r="AI22" s="10"/>
       <c r="AJ22" s="15"/>
     </row>
-    <row r="23" spans="2:36">
+    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -7152,7 +7205,7 @@
       <c r="AI23" s="10"/>
       <c r="AJ23" s="15"/>
     </row>
-    <row r="24" spans="2:36">
+    <row r="24" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B24" s="14"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -7189,7 +7242,7 @@
       <c r="AI24" s="10"/>
       <c r="AJ24" s="15"/>
     </row>
-    <row r="25" spans="2:36">
+    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B25" s="14"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -7226,7 +7279,7 @@
       <c r="AI25" s="10"/>
       <c r="AJ25" s="15"/>
     </row>
-    <row r="26" spans="2:36">
+    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B26" s="14"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -7263,7 +7316,7 @@
       <c r="AI26" s="10"/>
       <c r="AJ26" s="15"/>
     </row>
-    <row r="27" spans="2:36">
+    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B27" s="14"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -7300,7 +7353,7 @@
       <c r="AI27" s="10"/>
       <c r="AJ27" s="15"/>
     </row>
-    <row r="28" spans="2:36">
+    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B28" s="14"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -7337,7 +7390,7 @@
       <c r="AI28" s="10"/>
       <c r="AJ28" s="15"/>
     </row>
-    <row r="29" spans="2:36">
+    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B29" s="14"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -7374,7 +7427,7 @@
       <c r="AI29" s="10"/>
       <c r="AJ29" s="15"/>
     </row>
-    <row r="30" spans="2:36">
+    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B30" s="14"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -7411,7 +7464,7 @@
       <c r="AI30" s="10"/>
       <c r="AJ30" s="15"/>
     </row>
-    <row r="31" spans="2:36">
+    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B31" s="14"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -7448,7 +7501,7 @@
       <c r="AI31" s="10"/>
       <c r="AJ31" s="15"/>
     </row>
-    <row r="32" spans="2:36">
+    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B32" s="14"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -7485,7 +7538,7 @@
       <c r="AI32" s="10"/>
       <c r="AJ32" s="15"/>
     </row>
-    <row r="33" spans="2:36">
+    <row r="33" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B33" s="14"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -7522,7 +7575,7 @@
       <c r="AI33" s="10"/>
       <c r="AJ33" s="15"/>
     </row>
-    <row r="34" spans="2:36">
+    <row r="34" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B34" s="14"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -7559,7 +7612,7 @@
       <c r="AI34" s="10"/>
       <c r="AJ34" s="15"/>
     </row>
-    <row r="35" spans="2:36">
+    <row r="35" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B35" s="14"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -7596,7 +7649,7 @@
       <c r="AI35" s="10"/>
       <c r="AJ35" s="15"/>
     </row>
-    <row r="36" spans="2:36">
+    <row r="36" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B36" s="14"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -7633,7 +7686,7 @@
       <c r="AI36" s="10"/>
       <c r="AJ36" s="15"/>
     </row>
-    <row r="37" spans="2:36">
+    <row r="37" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B37" s="14"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -7670,7 +7723,7 @@
       <c r="AI37" s="10"/>
       <c r="AJ37" s="15"/>
     </row>
-    <row r="38" spans="2:36">
+    <row r="38" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B38" s="14"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -7707,7 +7760,7 @@
       <c r="AI38" s="10"/>
       <c r="AJ38" s="15"/>
     </row>
-    <row r="39" spans="2:36">
+    <row r="39" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B39" s="16"/>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
@@ -7744,7 +7797,7 @@
       <c r="AI39" s="17"/>
       <c r="AJ39" s="18"/>
     </row>
-    <row r="40" spans="2:36">
+    <row r="40" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
@@ -7781,7 +7834,7 @@
       <c r="AI40"/>
       <c r="AJ40"/>
     </row>
-    <row r="41" spans="2:36">
+    <row r="41" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
@@ -7818,7 +7871,7 @@
       <c r="AI41"/>
       <c r="AJ41"/>
     </row>
-    <row r="42" spans="2:36">
+    <row r="42" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B42" s="11"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
@@ -7855,7 +7908,7 @@
       <c r="AI42"/>
       <c r="AJ42"/>
     </row>
-    <row r="43" spans="2:36">
+    <row r="43" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B43" s="14"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
@@ -7892,7 +7945,7 @@
       <c r="AI43"/>
       <c r="AJ43"/>
     </row>
-    <row r="44" spans="2:36">
+    <row r="44" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B44" s="14"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -7929,7 +7982,7 @@
       <c r="AI44"/>
       <c r="AJ44"/>
     </row>
-    <row r="45" spans="2:36">
+    <row r="45" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B45" s="14"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -7968,7 +8021,7 @@
       <c r="AI45"/>
       <c r="AJ45"/>
     </row>
-    <row r="46" spans="2:36">
+    <row r="46" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B46" s="14"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -8007,7 +8060,7 @@
       <c r="AI46"/>
       <c r="AJ46"/>
     </row>
-    <row r="47" spans="2:36">
+    <row r="47" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B47" s="14"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
@@ -8044,7 +8097,7 @@
       <c r="AI47"/>
       <c r="AJ47"/>
     </row>
-    <row r="48" spans="2:36" ht="18.75">
+    <row r="48" spans="2:36" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B48" s="14"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -8083,7 +8136,7 @@
       <c r="AI48"/>
       <c r="AJ48"/>
     </row>
-    <row r="49" spans="2:36">
+    <row r="49" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B49" s="14"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
@@ -8120,7 +8173,7 @@
       <c r="AI49"/>
       <c r="AJ49"/>
     </row>
-    <row r="50" spans="2:36">
+    <row r="50" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B50" s="14"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -8157,7 +8210,7 @@
       <c r="AI50"/>
       <c r="AJ50"/>
     </row>
-    <row r="51" spans="2:36">
+    <row r="51" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B51" s="14"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -8194,7 +8247,7 @@
       <c r="AI51"/>
       <c r="AJ51"/>
     </row>
-    <row r="52" spans="2:36">
+    <row r="52" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B52" s="14"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
@@ -8231,7 +8284,7 @@
       <c r="AI52"/>
       <c r="AJ52"/>
     </row>
-    <row r="53" spans="2:36">
+    <row r="53" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B53" s="14"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
@@ -8268,7 +8321,7 @@
       <c r="AI53"/>
       <c r="AJ53"/>
     </row>
-    <row r="54" spans="2:36">
+    <row r="54" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B54" s="14"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -8305,7 +8358,7 @@
       <c r="AI54"/>
       <c r="AJ54"/>
     </row>
-    <row r="55" spans="2:36">
+    <row r="55" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B55" s="14"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -8342,7 +8395,7 @@
       <c r="AI55"/>
       <c r="AJ55"/>
     </row>
-    <row r="56" spans="2:36">
+    <row r="56" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B56" s="14"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
@@ -8379,7 +8432,7 @@
       <c r="AI56"/>
       <c r="AJ56"/>
     </row>
-    <row r="57" spans="2:36">
+    <row r="57" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B57" s="14"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -8416,7 +8469,7 @@
       <c r="AI57"/>
       <c r="AJ57"/>
     </row>
-    <row r="58" spans="2:36">
+    <row r="58" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B58" s="14"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
@@ -8455,7 +8508,7 @@
       <c r="AI58"/>
       <c r="AJ58"/>
     </row>
-    <row r="59" spans="2:36">
+    <row r="59" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B59" s="14"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
@@ -8492,7 +8545,7 @@
       <c r="AI59"/>
       <c r="AJ59"/>
     </row>
-    <row r="60" spans="2:36">
+    <row r="60" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B60" s="14"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
@@ -8529,7 +8582,7 @@
       <c r="AI60"/>
       <c r="AJ60"/>
     </row>
-    <row r="61" spans="2:36">
+    <row r="61" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B61" s="14"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
@@ -8566,7 +8619,7 @@
       <c r="AI61"/>
       <c r="AJ61"/>
     </row>
-    <row r="62" spans="2:36">
+    <row r="62" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B62" s="14"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
@@ -8603,7 +8656,7 @@
       <c r="AI62"/>
       <c r="AJ62"/>
     </row>
-    <row r="63" spans="2:36">
+    <row r="63" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B63" s="14"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
@@ -8640,7 +8693,7 @@
       <c r="AI63"/>
       <c r="AJ63"/>
     </row>
-    <row r="64" spans="2:36">
+    <row r="64" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B64" s="14"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
@@ -8677,7 +8730,7 @@
       <c r="AI64"/>
       <c r="AJ64"/>
     </row>
-    <row r="65" spans="2:36">
+    <row r="65" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B65" s="14"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -8714,7 +8767,7 @@
       <c r="AI65"/>
       <c r="AJ65"/>
     </row>
-    <row r="66" spans="2:36">
+    <row r="66" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B66" s="14"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -8751,7 +8804,7 @@
       <c r="AI66"/>
       <c r="AJ66"/>
     </row>
-    <row r="67" spans="2:36">
+    <row r="67" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B67" s="14"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -8788,7 +8841,7 @@
       <c r="AI67"/>
       <c r="AJ67"/>
     </row>
-    <row r="68" spans="2:36">
+    <row r="68" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B68" s="14"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
@@ -8825,7 +8878,7 @@
       <c r="AI68"/>
       <c r="AJ68"/>
     </row>
-    <row r="69" spans="2:36">
+    <row r="69" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B69" s="14"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
@@ -8862,7 +8915,7 @@
       <c r="AI69"/>
       <c r="AJ69"/>
     </row>
-    <row r="70" spans="2:36">
+    <row r="70" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B70" s="14"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
@@ -8899,7 +8952,7 @@
       <c r="AI70"/>
       <c r="AJ70"/>
     </row>
-    <row r="71" spans="2:36">
+    <row r="71" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B71" s="14"/>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
@@ -8936,7 +8989,7 @@
       <c r="AI71"/>
       <c r="AJ71"/>
     </row>
-    <row r="72" spans="2:36">
+    <row r="72" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B72" s="14"/>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
@@ -8973,7 +9026,7 @@
       <c r="AI72"/>
       <c r="AJ72"/>
     </row>
-    <row r="73" spans="2:36">
+    <row r="73" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B73" s="14"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
@@ -9010,7 +9063,7 @@
       <c r="AI73"/>
       <c r="AJ73"/>
     </row>
-    <row r="74" spans="2:36">
+    <row r="74" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B74" s="14"/>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
@@ -9047,7 +9100,7 @@
       <c r="AI74"/>
       <c r="AJ74"/>
     </row>
-    <row r="75" spans="2:36">
+    <row r="75" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B75" s="14"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
@@ -9084,7 +9137,7 @@
       <c r="AI75"/>
       <c r="AJ75"/>
     </row>
-    <row r="76" spans="2:36">
+    <row r="76" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B76" s="14"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
@@ -9121,7 +9174,7 @@
       <c r="AI76"/>
       <c r="AJ76"/>
     </row>
-    <row r="77" spans="2:36">
+    <row r="77" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B77" s="14"/>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
@@ -9158,7 +9211,7 @@
       <c r="AI77"/>
       <c r="AJ77"/>
     </row>
-    <row r="78" spans="2:36">
+    <row r="78" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B78" s="14"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
@@ -9195,7 +9248,7 @@
       <c r="AI78"/>
       <c r="AJ78"/>
     </row>
-    <row r="79" spans="2:36">
+    <row r="79" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B79" s="16"/>
       <c r="C79" s="17"/>
       <c r="D79" s="17"/>
@@ -9258,7 +9311,7 @@
       <selection activeCell="AN34" sqref="AN34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9269,13 +9322,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7155BC64-C482-45D1-904B-A1912B1B7F57}">
   <dimension ref="B3:AJ89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF43" sqref="AF43"/>
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AG15" sqref="AG15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:36" ht="15.75">
+    <row r="3" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -9313,7 +9366,7 @@
       <c r="AI3" s="12"/>
       <c r="AJ3" s="13"/>
     </row>
-    <row r="4" spans="2:36">
+    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B4" s="14"/>
       <c r="C4" s="10"/>
       <c r="D4" s="24" t="s">
@@ -9351,7 +9404,7 @@
       <c r="AI4" s="10"/>
       <c r="AJ4" s="15"/>
     </row>
-    <row r="5" spans="2:36">
+    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
       <c r="C5" s="10"/>
       <c r="E5" s="10"/>
@@ -9386,7 +9439,7 @@
       <c r="AI5" s="10"/>
       <c r="AJ5" s="15"/>
     </row>
-    <row r="6" spans="2:36">
+    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B6" s="14"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -9401,10 +9454,10 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
-      <c r="P6" s="37" t="s">
+      <c r="P6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="37"/>
+      <c r="Q6" s="38"/>
       <c r="R6" s="15"/>
       <c r="T6" s="14"/>
       <c r="U6" s="10"/>
@@ -9419,13 +9472,13 @@
       <c r="AE6" s="10"/>
       <c r="AF6" s="10"/>
       <c r="AG6" s="10"/>
-      <c r="AH6" s="37" t="s">
+      <c r="AH6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="AI6" s="37"/>
+      <c r="AI6" s="38"/>
       <c r="AJ6" s="15"/>
     </row>
-    <row r="7" spans="2:36">
+    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -9465,7 +9518,7 @@
       <c r="AI7" s="36"/>
       <c r="AJ7" s="15"/>
     </row>
-    <row r="8" spans="2:36">
+    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B8" s="14"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -9501,7 +9554,7 @@
       <c r="AI8" s="36"/>
       <c r="AJ8" s="15"/>
     </row>
-    <row r="9" spans="2:36" ht="18.75">
+    <row r="9" spans="2:36" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="14"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -9541,7 +9594,7 @@
       <c r="AI9" s="34"/>
       <c r="AJ9" s="15"/>
     </row>
-    <row r="10" spans="2:36">
+    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B10" s="14"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -9577,7 +9630,7 @@
       <c r="AI10" s="10"/>
       <c r="AJ10" s="15"/>
     </row>
-    <row r="11" spans="2:36">
+    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B11" s="14"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -9613,7 +9666,7 @@
       <c r="AI11" s="10"/>
       <c r="AJ11" s="15"/>
     </row>
-    <row r="12" spans="2:36">
+    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B12" s="14"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -9649,7 +9702,7 @@
       <c r="AI12" s="10"/>
       <c r="AJ12" s="15"/>
     </row>
-    <row r="13" spans="2:36">
+    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B13" s="14"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -9684,7 +9737,7 @@
       <c r="AI13" s="10"/>
       <c r="AJ13" s="15"/>
     </row>
-    <row r="14" spans="2:36">
+    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -9720,7 +9773,7 @@
       <c r="AI14" s="10"/>
       <c r="AJ14" s="15"/>
     </row>
-    <row r="15" spans="2:36">
+    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B15" s="14"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -9756,7 +9809,7 @@
       <c r="AI15" s="10"/>
       <c r="AJ15" s="15"/>
     </row>
-    <row r="16" spans="2:36">
+    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B16" s="14"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -9792,7 +9845,7 @@
       <c r="AI16" s="10"/>
       <c r="AJ16" s="15"/>
     </row>
-    <row r="17" spans="2:36">
+    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B17" s="14"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -9828,7 +9881,7 @@
       <c r="AI17" s="10"/>
       <c r="AJ17" s="15"/>
     </row>
-    <row r="18" spans="2:36">
+    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B18" s="14"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -9864,7 +9917,7 @@
       <c r="AI18" s="10"/>
       <c r="AJ18" s="15"/>
     </row>
-    <row r="19" spans="2:36">
+    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B19" s="14"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -9900,7 +9953,7 @@
       <c r="AI19" s="10"/>
       <c r="AJ19" s="15"/>
     </row>
-    <row r="20" spans="2:36">
+    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B20" s="14"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -9936,7 +9989,7 @@
       <c r="AI20" s="10"/>
       <c r="AJ20" s="15"/>
     </row>
-    <row r="21" spans="2:36">
+    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B21" s="14"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -9972,7 +10025,7 @@
       <c r="AI21" s="10"/>
       <c r="AJ21" s="15"/>
     </row>
-    <row r="22" spans="2:36">
+    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B22" s="14"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -10008,7 +10061,7 @@
       <c r="AI22" s="10"/>
       <c r="AJ22" s="15"/>
     </row>
-    <row r="23" spans="2:36">
+    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -10044,7 +10097,7 @@
       <c r="AI23" s="10"/>
       <c r="AJ23" s="15"/>
     </row>
-    <row r="24" spans="2:36">
+    <row r="24" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B24" s="14"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -10080,7 +10133,7 @@
       <c r="AI24" s="10"/>
       <c r="AJ24" s="15"/>
     </row>
-    <row r="25" spans="2:36">
+    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B25" s="14"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -10116,7 +10169,7 @@
       <c r="AI25" s="10"/>
       <c r="AJ25" s="15"/>
     </row>
-    <row r="26" spans="2:36">
+    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B26" s="14"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -10152,7 +10205,7 @@
       <c r="AI26" s="10"/>
       <c r="AJ26" s="15"/>
     </row>
-    <row r="27" spans="2:36">
+    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B27" s="14"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -10188,7 +10241,7 @@
       <c r="AI27" s="10"/>
       <c r="AJ27" s="15"/>
     </row>
-    <row r="28" spans="2:36">
+    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B28" s="14"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -10223,7 +10276,7 @@
       <c r="AI28" s="10"/>
       <c r="AJ28" s="15"/>
     </row>
-    <row r="29" spans="2:36">
+    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B29" s="14"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -10258,7 +10311,7 @@
       <c r="AI29" s="10"/>
       <c r="AJ29" s="15"/>
     </row>
-    <row r="30" spans="2:36">
+    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B30" s="14"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -10294,7 +10347,7 @@
       <c r="AI30" s="10"/>
       <c r="AJ30" s="15"/>
     </row>
-    <row r="31" spans="2:36">
+    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B31" s="14"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -10330,7 +10383,7 @@
       <c r="AI31" s="10"/>
       <c r="AJ31" s="15"/>
     </row>
-    <row r="32" spans="2:36">
+    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B32" s="14"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -10366,7 +10419,7 @@
       <c r="AI32" s="10"/>
       <c r="AJ32" s="15"/>
     </row>
-    <row r="33" spans="2:36">
+    <row r="33" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B33" s="14"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -10402,7 +10455,7 @@
       <c r="AI33" s="10"/>
       <c r="AJ33" s="15"/>
     </row>
-    <row r="34" spans="2:36">
+    <row r="34" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B34" s="14"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -10438,7 +10491,7 @@
       <c r="AI34" s="10"/>
       <c r="AJ34" s="15"/>
     </row>
-    <row r="35" spans="2:36">
+    <row r="35" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B35" s="14"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -10474,7 +10527,7 @@
       <c r="AI35" s="10"/>
       <c r="AJ35" s="15"/>
     </row>
-    <row r="36" spans="2:36">
+    <row r="36" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B36" s="14"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -10510,7 +10563,7 @@
       <c r="AI36" s="10"/>
       <c r="AJ36" s="15"/>
     </row>
-    <row r="37" spans="2:36">
+    <row r="37" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B37" s="14"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -10546,7 +10599,7 @@
       <c r="AI37" s="10"/>
       <c r="AJ37" s="15"/>
     </row>
-    <row r="38" spans="2:36">
+    <row r="38" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B38" s="14"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -10582,7 +10635,7 @@
       <c r="AI38" s="10"/>
       <c r="AJ38" s="15"/>
     </row>
-    <row r="39" spans="2:36">
+    <row r="39" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B39" s="14"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -10618,7 +10671,7 @@
       <c r="AI39" s="10"/>
       <c r="AJ39" s="15"/>
     </row>
-    <row r="40" spans="2:36">
+    <row r="40" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B40" s="16"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
@@ -10654,7 +10707,7 @@
       <c r="AI40" s="17"/>
       <c r="AJ40" s="18"/>
     </row>
-    <row r="43" spans="2:36">
+    <row r="43" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="30" t="s">
         <v>21</v>
@@ -10675,7 +10728,7 @@
       <c r="Q43" s="3"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="2:36">
+    <row r="44" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
       <c r="C44" s="19"/>
       <c r="D44" s="1"/>
@@ -10694,7 +10747,7 @@
       <c r="Q44" s="1"/>
       <c r="R44" s="6"/>
     </row>
-    <row r="45" spans="2:36">
+    <row r="45" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -10713,7 +10766,7 @@
       <c r="Q45" s="1"/>
       <c r="R45" s="6"/>
     </row>
-    <row r="46" spans="2:36">
+    <row r="46" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -10728,13 +10781,13 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
-      <c r="P46" s="37" t="s">
+      <c r="P46" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="Q46" s="37"/>
+      <c r="Q46" s="38"/>
       <c r="R46" s="6"/>
     </row>
-    <row r="47" spans="2:36" ht="15" customHeight="1">
+    <row r="47" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -10755,7 +10808,7 @@
       <c r="Q47" s="32"/>
       <c r="R47" s="6"/>
     </row>
-    <row r="48" spans="2:36" ht="15" customHeight="1">
+    <row r="48" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -10774,7 +10827,7 @@
       <c r="Q48" s="32"/>
       <c r="R48" s="6"/>
     </row>
-    <row r="49" spans="2:18" ht="18.75">
+    <row r="49" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B49" s="5"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -10795,7 +10848,7 @@
       <c r="Q49" s="33"/>
       <c r="R49" s="6"/>
     </row>
-    <row r="50" spans="2:18">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="5"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -10814,7 +10867,7 @@
       <c r="Q50" s="1"/>
       <c r="R50" s="6"/>
     </row>
-    <row r="51" spans="2:18">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -10833,7 +10886,7 @@
       <c r="Q51" s="1"/>
       <c r="R51" s="6"/>
     </row>
-    <row r="52" spans="2:18">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="5"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -10852,7 +10905,7 @@
       <c r="Q52" s="1"/>
       <c r="R52" s="6"/>
     </row>
-    <row r="53" spans="2:18">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -10871,7 +10924,7 @@
       <c r="Q53" s="1"/>
       <c r="R53" s="6"/>
     </row>
-    <row r="54" spans="2:18">
+    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B54" s="5"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -10890,7 +10943,7 @@
       <c r="Q54" s="1"/>
       <c r="R54" s="6"/>
     </row>
-    <row r="55" spans="2:18">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B55" s="5"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -10909,7 +10962,7 @@
       <c r="Q55" s="1"/>
       <c r="R55" s="6"/>
     </row>
-    <row r="56" spans="2:18">
+    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B56" s="5"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -10928,7 +10981,7 @@
       <c r="Q56" s="1"/>
       <c r="R56" s="6"/>
     </row>
-    <row r="57" spans="2:18">
+    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B57" s="5"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -10947,7 +11000,7 @@
       <c r="Q57" s="1"/>
       <c r="R57" s="6"/>
     </row>
-    <row r="58" spans="2:18">
+    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B58" s="5"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -10966,7 +11019,7 @@
       <c r="Q58" s="1"/>
       <c r="R58" s="6"/>
     </row>
-    <row r="59" spans="2:18">
+    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B59" s="5"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -10985,7 +11038,7 @@
       <c r="Q59" s="1"/>
       <c r="R59" s="6"/>
     </row>
-    <row r="60" spans="2:18">
+    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B60" s="5"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -11004,7 +11057,7 @@
       <c r="Q60" s="1"/>
       <c r="R60" s="6"/>
     </row>
-    <row r="61" spans="2:18">
+    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B61" s="5"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -11023,7 +11076,7 @@
       <c r="Q61" s="1"/>
       <c r="R61" s="6"/>
     </row>
-    <row r="62" spans="2:18">
+    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B62" s="5"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -11042,7 +11095,7 @@
       <c r="Q62" s="1"/>
       <c r="R62" s="6"/>
     </row>
-    <row r="63" spans="2:18">
+    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B63" s="5"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -11061,7 +11114,7 @@
       <c r="Q63" s="1"/>
       <c r="R63" s="6"/>
     </row>
-    <row r="64" spans="2:18">
+    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B64" s="5"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -11080,7 +11133,7 @@
       <c r="Q64" s="1"/>
       <c r="R64" s="6"/>
     </row>
-    <row r="65" spans="2:18">
+    <row r="65" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B65" s="5"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -11099,7 +11152,7 @@
       <c r="Q65" s="1"/>
       <c r="R65" s="6"/>
     </row>
-    <row r="66" spans="2:18">
+    <row r="66" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B66" s="5"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -11118,7 +11171,7 @@
       <c r="Q66" s="1"/>
       <c r="R66" s="6"/>
     </row>
-    <row r="67" spans="2:18">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B67" s="5"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -11137,7 +11190,7 @@
       <c r="Q67" s="1"/>
       <c r="R67" s="6"/>
     </row>
-    <row r="68" spans="2:18">
+    <row r="68" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B68" s="5"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -11156,7 +11209,7 @@
       <c r="Q68" s="1"/>
       <c r="R68" s="6"/>
     </row>
-    <row r="69" spans="2:18">
+    <row r="69" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B69" s="5"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -11175,7 +11228,7 @@
       <c r="Q69" s="1"/>
       <c r="R69" s="6"/>
     </row>
-    <row r="70" spans="2:18">
+    <row r="70" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B70" s="5"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -11194,7 +11247,7 @@
       <c r="Q70" s="1"/>
       <c r="R70" s="6"/>
     </row>
-    <row r="71" spans="2:18">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B71" s="5"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -11213,7 +11266,7 @@
       <c r="Q71" s="1"/>
       <c r="R71" s="6"/>
     </row>
-    <row r="72" spans="2:18">
+    <row r="72" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B72" s="5"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -11232,7 +11285,7 @@
       <c r="Q72" s="1"/>
       <c r="R72" s="6"/>
     </row>
-    <row r="73" spans="2:18">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B73" s="5"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -11251,7 +11304,7 @@
       <c r="Q73" s="1"/>
       <c r="R73" s="6"/>
     </row>
-    <row r="74" spans="2:18">
+    <row r="74" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B74" s="5"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -11270,7 +11323,7 @@
       <c r="Q74" s="1"/>
       <c r="R74" s="6"/>
     </row>
-    <row r="75" spans="2:18">
+    <row r="75" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B75" s="5"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -11289,7 +11342,7 @@
       <c r="Q75" s="1"/>
       <c r="R75" s="6"/>
     </row>
-    <row r="76" spans="2:18">
+    <row r="76" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B76" s="5"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -11308,7 +11361,7 @@
       <c r="Q76" s="1"/>
       <c r="R76" s="6"/>
     </row>
-    <row r="77" spans="2:18">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B77" s="5"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -11327,7 +11380,7 @@
       <c r="Q77" s="1"/>
       <c r="R77" s="6"/>
     </row>
-    <row r="78" spans="2:18">
+    <row r="78" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B78" s="5"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -11346,7 +11399,7 @@
       <c r="Q78" s="1"/>
       <c r="R78" s="6"/>
     </row>
-    <row r="79" spans="2:18">
+    <row r="79" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B79" s="5"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -11365,7 +11418,7 @@
       <c r="Q79" s="1"/>
       <c r="R79" s="6"/>
     </row>
-    <row r="80" spans="2:18">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B80" s="7"/>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
@@ -11384,63 +11437,63 @@
       <c r="Q80" s="8"/>
       <c r="R80" s="9"/>
     </row>
-    <row r="85" spans="2:18">
-      <c r="B85" s="38" t="s">
+    <row r="85" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B85" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C85" s="38"/>
-      <c r="D85" s="38"/>
-      <c r="E85" s="38"/>
-      <c r="F85" s="38"/>
-      <c r="G85" s="38"/>
-      <c r="H85" s="38"/>
-      <c r="I85" s="38"/>
-      <c r="J85" s="38"/>
-      <c r="K85" s="38"/>
-      <c r="L85" s="38"/>
-      <c r="M85" s="38"/>
-      <c r="N85" s="38"/>
-      <c r="O85" s="38"/>
-      <c r="P85" s="38"/>
-      <c r="Q85" s="38"/>
-      <c r="R85" s="38"/>
-    </row>
-    <row r="86" spans="2:18">
-      <c r="B86" s="38"/>
-      <c r="C86" s="38"/>
-      <c r="D86" s="38"/>
-      <c r="E86" s="38"/>
-      <c r="F86" s="38"/>
-      <c r="G86" s="38"/>
-      <c r="H86" s="38"/>
-      <c r="I86" s="38"/>
-      <c r="J86" s="38"/>
-      <c r="K86" s="38"/>
-      <c r="L86" s="38"/>
-      <c r="M86" s="38"/>
-      <c r="N86" s="38"/>
-      <c r="O86" s="38"/>
-      <c r="P86" s="38"/>
-      <c r="Q86" s="38"/>
-      <c r="R86" s="38"/>
-    </row>
-    <row r="89" spans="2:18">
+      <c r="C85" s="37"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="37"/>
+      <c r="K85" s="37"/>
+      <c r="L85" s="37"/>
+      <c r="M85" s="37"/>
+      <c r="N85" s="37"/>
+      <c r="O85" s="37"/>
+      <c r="P85" s="37"/>
+      <c r="Q85" s="37"/>
+      <c r="R85" s="37"/>
+    </row>
+    <row r="86" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B86" s="37"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="37"/>
+      <c r="F86" s="37"/>
+      <c r="G86" s="37"/>
+      <c r="H86" s="37"/>
+      <c r="I86" s="37"/>
+      <c r="J86" s="37"/>
+      <c r="K86" s="37"/>
+      <c r="L86" s="37"/>
+      <c r="M86" s="37"/>
+      <c r="N86" s="37"/>
+      <c r="O86" s="37"/>
+      <c r="P86" s="37"/>
+      <c r="Q86" s="37"/>
+      <c r="R86" s="37"/>
+    </row>
+    <row r="89" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E89" s="23" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="P7:Q8"/>
+    <mergeCell ref="AH7:AI8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="AH9:AI9"/>
     <mergeCell ref="B85:R86"/>
     <mergeCell ref="P46:Q46"/>
     <mergeCell ref="P47:Q48"/>
     <mergeCell ref="P49:Q49"/>
     <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="AH6:AI6"/>
-    <mergeCell ref="P7:Q8"/>
-    <mergeCell ref="AH7:AI8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="AH9:AI9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11452,13 +11505,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF690D20-3AF0-4911-A815-03050030AE1D}">
   <dimension ref="B2:AJ79"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AH59" sqref="AH59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AR27" sqref="AR27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:36">
+    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B2" s="11"/>
       <c r="C2" s="30" t="s">
         <v>22</v>
@@ -11498,7 +11551,7 @@
       <c r="AI2" s="12"/>
       <c r="AJ2" s="13"/>
     </row>
-    <row r="3" spans="2:36">
+    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -11534,7 +11587,7 @@
       <c r="AI3" s="10"/>
       <c r="AJ3" s="15"/>
     </row>
-    <row r="4" spans="2:36">
+    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B4" s="14"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -11570,7 +11623,7 @@
       <c r="AI4" s="10"/>
       <c r="AJ4" s="15"/>
     </row>
-    <row r="5" spans="2:36">
+    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -11585,10 +11638,10 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
-      <c r="P5" s="37" t="s">
+      <c r="P5" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="37"/>
+      <c r="Q5" s="38"/>
       <c r="R5" s="15"/>
       <c r="T5" s="14"/>
       <c r="U5" s="10"/>
@@ -11604,13 +11657,13 @@
       <c r="AE5" s="10"/>
       <c r="AF5" s="10"/>
       <c r="AG5" s="10"/>
-      <c r="AH5" s="37" t="s">
+      <c r="AH5" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="AI5" s="37"/>
+      <c r="AI5" s="38"/>
       <c r="AJ5" s="15"/>
     </row>
-    <row r="6" spans="2:36">
+    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B6" s="14"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -11650,7 +11703,7 @@
       <c r="AI6" s="36"/>
       <c r="AJ6" s="15"/>
     </row>
-    <row r="7" spans="2:36">
+    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -11686,7 +11739,7 @@
       <c r="AI7" s="36"/>
       <c r="AJ7" s="15"/>
     </row>
-    <row r="8" spans="2:36" ht="18.75">
+    <row r="8" spans="2:36" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B8" s="14"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -11726,7 +11779,7 @@
       <c r="AI8" s="34"/>
       <c r="AJ8" s="15"/>
     </row>
-    <row r="9" spans="2:36">
+    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B9" s="14"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -11762,7 +11815,7 @@
       <c r="AI9" s="10"/>
       <c r="AJ9" s="15"/>
     </row>
-    <row r="10" spans="2:36">
+    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B10" s="14"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -11797,7 +11850,7 @@
       <c r="AI10" s="10"/>
       <c r="AJ10" s="15"/>
     </row>
-    <row r="11" spans="2:36">
+    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B11" s="14"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -11833,7 +11886,7 @@
       <c r="AI11" s="10"/>
       <c r="AJ11" s="15"/>
     </row>
-    <row r="12" spans="2:36">
+    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B12" s="14"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -11869,7 +11922,7 @@
       <c r="AI12" s="10"/>
       <c r="AJ12" s="15"/>
     </row>
-    <row r="13" spans="2:36">
+    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B13" s="14"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -11904,7 +11957,7 @@
       <c r="AI13" s="10"/>
       <c r="AJ13" s="15"/>
     </row>
-    <row r="14" spans="2:36">
+    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -11940,7 +11993,7 @@
       <c r="AI14" s="10"/>
       <c r="AJ14" s="15"/>
     </row>
-    <row r="15" spans="2:36">
+    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B15" s="14"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -11976,7 +12029,7 @@
       <c r="AI15" s="10"/>
       <c r="AJ15" s="15"/>
     </row>
-    <row r="16" spans="2:36">
+    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B16" s="14"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -12012,7 +12065,7 @@
       <c r="AI16" s="10"/>
       <c r="AJ16" s="15"/>
     </row>
-    <row r="17" spans="2:36">
+    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B17" s="14"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -12048,7 +12101,7 @@
       <c r="AI17" s="10"/>
       <c r="AJ17" s="15"/>
     </row>
-    <row r="18" spans="2:36">
+    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B18" s="14"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -12084,7 +12137,7 @@
       <c r="AI18" s="10"/>
       <c r="AJ18" s="15"/>
     </row>
-    <row r="19" spans="2:36">
+    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B19" s="14"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -12120,7 +12173,7 @@
       <c r="AI19" s="10"/>
       <c r="AJ19" s="15"/>
     </row>
-    <row r="20" spans="2:36">
+    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B20" s="14"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -12156,7 +12209,7 @@
       <c r="AI20" s="10"/>
       <c r="AJ20" s="15"/>
     </row>
-    <row r="21" spans="2:36">
+    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B21" s="14"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -12192,7 +12245,7 @@
       <c r="AI21" s="10"/>
       <c r="AJ21" s="15"/>
     </row>
-    <row r="22" spans="2:36">
+    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B22" s="14"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -12227,7 +12280,7 @@
       <c r="AI22" s="10"/>
       <c r="AJ22" s="15"/>
     </row>
-    <row r="23" spans="2:36">
+    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -12262,7 +12315,7 @@
       <c r="AI23" s="10"/>
       <c r="AJ23" s="15"/>
     </row>
-    <row r="24" spans="2:36">
+    <row r="24" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B24" s="14"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -12298,7 +12351,7 @@
       <c r="AI24" s="10"/>
       <c r="AJ24" s="15"/>
     </row>
-    <row r="25" spans="2:36">
+    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B25" s="14"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -12334,7 +12387,7 @@
       <c r="AI25" s="10"/>
       <c r="AJ25" s="15"/>
     </row>
-    <row r="26" spans="2:36">
+    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B26" s="14"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -12370,7 +12423,7 @@
       <c r="AI26" s="10"/>
       <c r="AJ26" s="15"/>
     </row>
-    <row r="27" spans="2:36">
+    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B27" s="14"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -12406,7 +12459,7 @@
       <c r="AI27" s="10"/>
       <c r="AJ27" s="15"/>
     </row>
-    <row r="28" spans="2:36">
+    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B28" s="14"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -12442,7 +12495,7 @@
       <c r="AI28" s="10"/>
       <c r="AJ28" s="15"/>
     </row>
-    <row r="29" spans="2:36">
+    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B29" s="14"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -12478,7 +12531,7 @@
       <c r="AI29" s="10"/>
       <c r="AJ29" s="15"/>
     </row>
-    <row r="30" spans="2:36">
+    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B30" s="14"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -12514,7 +12567,7 @@
       <c r="AI30" s="10"/>
       <c r="AJ30" s="15"/>
     </row>
-    <row r="31" spans="2:36">
+    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B31" s="14"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -12550,7 +12603,7 @@
       <c r="AI31" s="10"/>
       <c r="AJ31" s="15"/>
     </row>
-    <row r="32" spans="2:36">
+    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B32" s="14"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -12586,7 +12639,7 @@
       <c r="AI32" s="10"/>
       <c r="AJ32" s="15"/>
     </row>
-    <row r="33" spans="2:36">
+    <row r="33" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B33" s="14"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -12622,7 +12675,7 @@
       <c r="AI33" s="10"/>
       <c r="AJ33" s="15"/>
     </row>
-    <row r="34" spans="2:36">
+    <row r="34" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B34" s="14"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -12658,7 +12711,7 @@
       <c r="AI34" s="10"/>
       <c r="AJ34" s="15"/>
     </row>
-    <row r="35" spans="2:36">
+    <row r="35" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B35" s="14"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -12694,7 +12747,7 @@
       <c r="AI35" s="10"/>
       <c r="AJ35" s="15"/>
     </row>
-    <row r="36" spans="2:36">
+    <row r="36" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B36" s="14"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -12730,7 +12783,7 @@
       <c r="AI36" s="10"/>
       <c r="AJ36" s="15"/>
     </row>
-    <row r="37" spans="2:36">
+    <row r="37" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B37" s="14"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -12766,7 +12819,7 @@
       <c r="AI37" s="10"/>
       <c r="AJ37" s="15"/>
     </row>
-    <row r="38" spans="2:36">
+    <row r="38" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B38" s="14"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -12802,7 +12855,7 @@
       <c r="AI38" s="10"/>
       <c r="AJ38" s="15"/>
     </row>
-    <row r="39" spans="2:36">
+    <row r="39" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B39" s="16"/>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
@@ -12838,7 +12891,7 @@
       <c r="AI39" s="17"/>
       <c r="AJ39" s="18"/>
     </row>
-    <row r="42" spans="2:36">
+    <row r="42" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -12857,7 +12910,7 @@
       <c r="Q42" s="3"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="2:36">
+    <row r="43" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
       <c r="C43" s="19"/>
       <c r="D43" s="23" t="s">
@@ -12878,7 +12931,7 @@
       <c r="Q43" s="1"/>
       <c r="R43" s="6"/>
     </row>
-    <row r="44" spans="2:36">
+    <row r="44" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -12897,7 +12950,7 @@
       <c r="Q44" s="1"/>
       <c r="R44" s="6"/>
     </row>
-    <row r="45" spans="2:36">
+    <row r="45" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -12912,13 +12965,13 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
-      <c r="P45" s="37" t="s">
+      <c r="P45" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="Q45" s="37"/>
+      <c r="Q45" s="38"/>
       <c r="R45" s="6"/>
     </row>
-    <row r="46" spans="2:36">
+    <row r="46" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -12939,7 +12992,7 @@
       <c r="Q46" s="32"/>
       <c r="R46" s="6"/>
     </row>
-    <row r="47" spans="2:36">
+    <row r="47" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -12958,7 +13011,7 @@
       <c r="Q47" s="32"/>
       <c r="R47" s="6"/>
     </row>
-    <row r="48" spans="2:36" ht="18.75">
+    <row r="48" spans="2:36" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B48" s="5"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -12979,7 +13032,7 @@
       <c r="Q48" s="33"/>
       <c r="R48" s="6"/>
     </row>
-    <row r="49" spans="2:18">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B49" s="5"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -12998,7 +13051,7 @@
       <c r="Q49" s="1"/>
       <c r="R49" s="6"/>
     </row>
-    <row r="50" spans="2:18">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="5"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -13017,7 +13070,7 @@
       <c r="Q50" s="1"/>
       <c r="R50" s="6"/>
     </row>
-    <row r="51" spans="2:18">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -13036,7 +13089,7 @@
       <c r="Q51" s="1"/>
       <c r="R51" s="6"/>
     </row>
-    <row r="52" spans="2:18">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="5"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -13055,7 +13108,7 @@
       <c r="Q52" s="1"/>
       <c r="R52" s="6"/>
     </row>
-    <row r="53" spans="2:18">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -13074,7 +13127,7 @@
       <c r="Q53" s="1"/>
       <c r="R53" s="6"/>
     </row>
-    <row r="54" spans="2:18">
+    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B54" s="5"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -13093,7 +13146,7 @@
       <c r="Q54" s="1"/>
       <c r="R54" s="6"/>
     </row>
-    <row r="55" spans="2:18">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B55" s="5"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -13112,7 +13165,7 @@
       <c r="Q55" s="1"/>
       <c r="R55" s="6"/>
     </row>
-    <row r="56" spans="2:18">
+    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B56" s="5"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -13131,7 +13184,7 @@
       <c r="Q56" s="1"/>
       <c r="R56" s="6"/>
     </row>
-    <row r="57" spans="2:18">
+    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B57" s="5"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -13150,7 +13203,7 @@
       <c r="Q57" s="1"/>
       <c r="R57" s="6"/>
     </row>
-    <row r="58" spans="2:18">
+    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B58" s="5"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -13169,7 +13222,7 @@
       <c r="Q58" s="1"/>
       <c r="R58" s="6"/>
     </row>
-    <row r="59" spans="2:18">
+    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B59" s="5"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -13188,7 +13241,7 @@
       <c r="Q59" s="1"/>
       <c r="R59" s="6"/>
     </row>
-    <row r="60" spans="2:18">
+    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B60" s="5"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -13207,7 +13260,7 @@
       <c r="Q60" s="1"/>
       <c r="R60" s="6"/>
     </row>
-    <row r="61" spans="2:18">
+    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B61" s="5"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -13225,7 +13278,7 @@
       <c r="Q61" s="1"/>
       <c r="R61" s="6"/>
     </row>
-    <row r="62" spans="2:18">
+    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B62" s="5"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -13244,7 +13297,7 @@
       <c r="Q62" s="1"/>
       <c r="R62" s="6"/>
     </row>
-    <row r="63" spans="2:18">
+    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B63" s="5"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -13263,7 +13316,7 @@
       <c r="Q63" s="1"/>
       <c r="R63" s="6"/>
     </row>
-    <row r="64" spans="2:18">
+    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B64" s="5"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -13282,7 +13335,7 @@
       <c r="Q64" s="1"/>
       <c r="R64" s="6"/>
     </row>
-    <row r="65" spans="2:18">
+    <row r="65" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B65" s="5"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -13301,7 +13354,7 @@
       <c r="Q65" s="1"/>
       <c r="R65" s="6"/>
     </row>
-    <row r="66" spans="2:18">
+    <row r="66" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B66" s="5"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -13320,7 +13373,7 @@
       <c r="Q66" s="1"/>
       <c r="R66" s="6"/>
     </row>
-    <row r="67" spans="2:18">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B67" s="5"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -13339,7 +13392,7 @@
       <c r="Q67" s="1"/>
       <c r="R67" s="6"/>
     </row>
-    <row r="68" spans="2:18">
+    <row r="68" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B68" s="5"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -13358,7 +13411,7 @@
       <c r="Q68" s="1"/>
       <c r="R68" s="6"/>
     </row>
-    <row r="69" spans="2:18">
+    <row r="69" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B69" s="5"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -13377,7 +13430,7 @@
       <c r="Q69" s="1"/>
       <c r="R69" s="6"/>
     </row>
-    <row r="70" spans="2:18">
+    <row r="70" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B70" s="5"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -13396,7 +13449,7 @@
       <c r="Q70" s="1"/>
       <c r="R70" s="6"/>
     </row>
-    <row r="71" spans="2:18">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B71" s="5"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -13415,7 +13468,7 @@
       <c r="Q71" s="1"/>
       <c r="R71" s="6"/>
     </row>
-    <row r="72" spans="2:18">
+    <row r="72" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B72" s="5"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -13434,7 +13487,7 @@
       <c r="Q72" s="1"/>
       <c r="R72" s="6"/>
     </row>
-    <row r="73" spans="2:18">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B73" s="5"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -13453,7 +13506,7 @@
       <c r="Q73" s="1"/>
       <c r="R73" s="6"/>
     </row>
-    <row r="74" spans="2:18">
+    <row r="74" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B74" s="5"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -13472,7 +13525,7 @@
       <c r="Q74" s="1"/>
       <c r="R74" s="6"/>
     </row>
-    <row r="75" spans="2:18">
+    <row r="75" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B75" s="5"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -13491,7 +13544,7 @@
       <c r="Q75" s="1"/>
       <c r="R75" s="6"/>
     </row>
-    <row r="76" spans="2:18">
+    <row r="76" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B76" s="5"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -13510,7 +13563,7 @@
       <c r="Q76" s="1"/>
       <c r="R76" s="6"/>
     </row>
-    <row r="77" spans="2:18">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B77" s="5"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -13529,7 +13582,7 @@
       <c r="Q77" s="1"/>
       <c r="R77" s="6"/>
     </row>
-    <row r="78" spans="2:18">
+    <row r="78" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B78" s="5"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -13548,7 +13601,7 @@
       <c r="Q78" s="1"/>
       <c r="R78" s="6"/>
     </row>
-    <row r="79" spans="2:18">
+    <row r="79" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B79" s="7"/>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
@@ -13589,13 +13642,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F21EAB9-BF43-48C4-8C18-F2ACFC45CB60}">
   <dimension ref="B2:AJ79"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AJ40" sqref="AJ40"/>
+    <sheetView showGridLines="0" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AL27" sqref="AL27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:36">
+    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B2" s="11"/>
       <c r="C2" s="12"/>
       <c r="D2" s="23" t="s">
@@ -13633,7 +13686,7 @@
       <c r="AI2" s="12"/>
       <c r="AJ2" s="13"/>
     </row>
-    <row r="3" spans="2:36">
+    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -13671,7 +13724,7 @@
       <c r="AI3" s="10"/>
       <c r="AJ3" s="15"/>
     </row>
-    <row r="4" spans="2:36">
+    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B4" s="14"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -13707,7 +13760,7 @@
       <c r="AI4" s="10"/>
       <c r="AJ4" s="15"/>
     </row>
-    <row r="5" spans="2:36">
+    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -13722,10 +13775,10 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
-      <c r="P5" s="37" t="s">
+      <c r="P5" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="37"/>
+      <c r="Q5" s="38"/>
       <c r="R5" s="15"/>
       <c r="T5" s="14"/>
       <c r="U5" s="10"/>
@@ -13741,13 +13794,13 @@
       <c r="AE5" s="10"/>
       <c r="AF5" s="10"/>
       <c r="AG5" s="10"/>
-      <c r="AH5" s="37" t="s">
+      <c r="AH5" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="AI5" s="37"/>
+      <c r="AI5" s="38"/>
       <c r="AJ5" s="15"/>
     </row>
-    <row r="6" spans="2:36">
+    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B6" s="14"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -13787,7 +13840,7 @@
       <c r="AI6" s="36"/>
       <c r="AJ6" s="15"/>
     </row>
-    <row r="7" spans="2:36">
+    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -13823,7 +13876,7 @@
       <c r="AI7" s="36"/>
       <c r="AJ7" s="15"/>
     </row>
-    <row r="8" spans="2:36" ht="18.75">
+    <row r="8" spans="2:36" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B8" s="14"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -13863,7 +13916,7 @@
       <c r="AI8" s="34"/>
       <c r="AJ8" s="15"/>
     </row>
-    <row r="9" spans="2:36">
+    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B9" s="14"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -13899,7 +13952,7 @@
       <c r="AI9" s="10"/>
       <c r="AJ9" s="15"/>
     </row>
-    <row r="10" spans="2:36">
+    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B10" s="14"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -13934,7 +13987,7 @@
       <c r="AI10" s="10"/>
       <c r="AJ10" s="15"/>
     </row>
-    <row r="11" spans="2:36">
+    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B11" s="14"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -13970,7 +14023,7 @@
       <c r="AI11" s="10"/>
       <c r="AJ11" s="15"/>
     </row>
-    <row r="12" spans="2:36">
+    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B12" s="14"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -14006,7 +14059,7 @@
       <c r="AI12" s="10"/>
       <c r="AJ12" s="15"/>
     </row>
-    <row r="13" spans="2:36">
+    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B13" s="14"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -14042,7 +14095,7 @@
       <c r="AI13" s="10"/>
       <c r="AJ13" s="15"/>
     </row>
-    <row r="14" spans="2:36">
+    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -14078,7 +14131,7 @@
       <c r="AI14" s="10"/>
       <c r="AJ14" s="15"/>
     </row>
-    <row r="15" spans="2:36">
+    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B15" s="14"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -14113,7 +14166,7 @@
       <c r="AI15" s="10"/>
       <c r="AJ15" s="15"/>
     </row>
-    <row r="16" spans="2:36">
+    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B16" s="14"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -14149,7 +14202,7 @@
       <c r="AI16" s="10"/>
       <c r="AJ16" s="15"/>
     </row>
-    <row r="17" spans="2:36">
+    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B17" s="14"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -14185,7 +14238,7 @@
       <c r="AI17" s="10"/>
       <c r="AJ17" s="15"/>
     </row>
-    <row r="18" spans="2:36">
+    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B18" s="14"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -14221,7 +14274,7 @@
       <c r="AI18" s="10"/>
       <c r="AJ18" s="15"/>
     </row>
-    <row r="19" spans="2:36">
+    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B19" s="14"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -14257,7 +14310,7 @@
       <c r="AI19" s="10"/>
       <c r="AJ19" s="15"/>
     </row>
-    <row r="20" spans="2:36">
+    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B20" s="14"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -14293,7 +14346,7 @@
       <c r="AI20" s="10"/>
       <c r="AJ20" s="15"/>
     </row>
-    <row r="21" spans="2:36">
+    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B21" s="14"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -14329,7 +14382,7 @@
       <c r="AI21" s="10"/>
       <c r="AJ21" s="15"/>
     </row>
-    <row r="22" spans="2:36">
+    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B22" s="14"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -14365,7 +14418,7 @@
       <c r="AI22" s="10"/>
       <c r="AJ22" s="15"/>
     </row>
-    <row r="23" spans="2:36">
+    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -14401,7 +14454,7 @@
       <c r="AI23" s="10"/>
       <c r="AJ23" s="15"/>
     </row>
-    <row r="24" spans="2:36">
+    <row r="24" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B24" s="14"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -14436,7 +14489,7 @@
       <c r="AI24" s="10"/>
       <c r="AJ24" s="15"/>
     </row>
-    <row r="25" spans="2:36">
+    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B25" s="14"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -14472,7 +14525,7 @@
       <c r="AI25" s="10"/>
       <c r="AJ25" s="15"/>
     </row>
-    <row r="26" spans="2:36">
+    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B26" s="14"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -14508,7 +14561,7 @@
       <c r="AI26" s="10"/>
       <c r="AJ26" s="15"/>
     </row>
-    <row r="27" spans="2:36">
+    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B27" s="14"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -14544,7 +14597,7 @@
       <c r="AI27" s="10"/>
       <c r="AJ27" s="15"/>
     </row>
-    <row r="28" spans="2:36">
+    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B28" s="14"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -14580,7 +14633,7 @@
       <c r="AI28" s="10"/>
       <c r="AJ28" s="15"/>
     </row>
-    <row r="29" spans="2:36">
+    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B29" s="14"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -14616,7 +14669,7 @@
       <c r="AI29" s="10"/>
       <c r="AJ29" s="15"/>
     </row>
-    <row r="30" spans="2:36">
+    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B30" s="14"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -14652,7 +14705,7 @@
       <c r="AI30" s="10"/>
       <c r="AJ30" s="15"/>
     </row>
-    <row r="31" spans="2:36">
+    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B31" s="14"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -14688,7 +14741,7 @@
       <c r="AI31" s="10"/>
       <c r="AJ31" s="15"/>
     </row>
-    <row r="32" spans="2:36">
+    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B32" s="14"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -14724,7 +14777,7 @@
       <c r="AI32" s="10"/>
       <c r="AJ32" s="15"/>
     </row>
-    <row r="33" spans="2:36">
+    <row r="33" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B33" s="14"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -14760,7 +14813,7 @@
       <c r="AI33" s="10"/>
       <c r="AJ33" s="15"/>
     </row>
-    <row r="34" spans="2:36">
+    <row r="34" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B34" s="14"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -14796,7 +14849,7 @@
       <c r="AI34" s="10"/>
       <c r="AJ34" s="15"/>
     </row>
-    <row r="35" spans="2:36">
+    <row r="35" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B35" s="14"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -14832,7 +14885,7 @@
       <c r="AI35" s="10"/>
       <c r="AJ35" s="15"/>
     </row>
-    <row r="36" spans="2:36">
+    <row r="36" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B36" s="14"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -14867,7 +14920,7 @@
       <c r="AI36" s="10"/>
       <c r="AJ36" s="15"/>
     </row>
-    <row r="37" spans="2:36">
+    <row r="37" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B37" s="14"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -14903,7 +14956,7 @@
       <c r="AI37" s="10"/>
       <c r="AJ37" s="15"/>
     </row>
-    <row r="38" spans="2:36">
+    <row r="38" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B38" s="14"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -14939,7 +14992,7 @@
       <c r="AI38" s="10"/>
       <c r="AJ38" s="15"/>
     </row>
-    <row r="39" spans="2:36">
+    <row r="39" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B39" s="16"/>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
@@ -14975,7 +15028,7 @@
       <c r="AI39" s="17"/>
       <c r="AJ39" s="18"/>
     </row>
-    <row r="42" spans="2:36">
+    <row r="42" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -14994,7 +15047,7 @@
       <c r="Q42" s="3"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="2:36">
+    <row r="43" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
       <c r="C43" s="19"/>
       <c r="D43" s="23" t="s">
@@ -15015,7 +15068,7 @@
       <c r="Q43" s="1"/>
       <c r="R43" s="6"/>
     </row>
-    <row r="44" spans="2:36">
+    <row r="44" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -15034,7 +15087,7 @@
       <c r="Q44" s="1"/>
       <c r="R44" s="6"/>
     </row>
-    <row r="45" spans="2:36">
+    <row r="45" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -15049,13 +15102,13 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
-      <c r="P45" s="37" t="s">
+      <c r="P45" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="Q45" s="37"/>
+      <c r="Q45" s="38"/>
       <c r="R45" s="6"/>
     </row>
-    <row r="46" spans="2:36">
+    <row r="46" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -15075,7 +15128,7 @@
       <c r="Q46" s="32"/>
       <c r="R46" s="6"/>
     </row>
-    <row r="47" spans="2:36">
+    <row r="47" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -15094,7 +15147,7 @@
       <c r="Q47" s="32"/>
       <c r="R47" s="6"/>
     </row>
-    <row r="48" spans="2:36" ht="18.75">
+    <row r="48" spans="2:36" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B48" s="5"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -15115,7 +15168,7 @@
       <c r="Q48" s="33"/>
       <c r="R48" s="6"/>
     </row>
-    <row r="49" spans="2:18">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B49" s="5"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -15134,7 +15187,7 @@
       <c r="Q49" s="1"/>
       <c r="R49" s="6"/>
     </row>
-    <row r="50" spans="2:18">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="5"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -15153,7 +15206,7 @@
       <c r="Q50" s="1"/>
       <c r="R50" s="6"/>
     </row>
-    <row r="51" spans="2:18">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -15172,7 +15225,7 @@
       <c r="Q51" s="1"/>
       <c r="R51" s="6"/>
     </row>
-    <row r="52" spans="2:18">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="5"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -15191,7 +15244,7 @@
       <c r="Q52" s="1"/>
       <c r="R52" s="6"/>
     </row>
-    <row r="53" spans="2:18">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -15210,7 +15263,7 @@
       <c r="Q53" s="1"/>
       <c r="R53" s="6"/>
     </row>
-    <row r="54" spans="2:18">
+    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B54" s="5"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -15229,7 +15282,7 @@
       <c r="Q54" s="1"/>
       <c r="R54" s="6"/>
     </row>
-    <row r="55" spans="2:18">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B55" s="5"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -15248,7 +15301,7 @@
       <c r="Q55" s="1"/>
       <c r="R55" s="6"/>
     </row>
-    <row r="56" spans="2:18">
+    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B56" s="5"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -15267,7 +15320,7 @@
       <c r="Q56" s="1"/>
       <c r="R56" s="6"/>
     </row>
-    <row r="57" spans="2:18">
+    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B57" s="5"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -15286,7 +15339,7 @@
       <c r="Q57" s="1"/>
       <c r="R57" s="6"/>
     </row>
-    <row r="58" spans="2:18">
+    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B58" s="5"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -15305,7 +15358,7 @@
       <c r="Q58" s="1"/>
       <c r="R58" s="6"/>
     </row>
-    <row r="59" spans="2:18">
+    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B59" s="5"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -15324,7 +15377,7 @@
       <c r="Q59" s="1"/>
       <c r="R59" s="6"/>
     </row>
-    <row r="60" spans="2:18">
+    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B60" s="5"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -15343,7 +15396,7 @@
       <c r="Q60" s="1"/>
       <c r="R60" s="6"/>
     </row>
-    <row r="61" spans="2:18">
+    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B61" s="5"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -15362,7 +15415,7 @@
       <c r="Q61" s="1"/>
       <c r="R61" s="6"/>
     </row>
-    <row r="62" spans="2:18">
+    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B62" s="5"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -15380,7 +15433,7 @@
       <c r="Q62" s="1"/>
       <c r="R62" s="6"/>
     </row>
-    <row r="63" spans="2:18">
+    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B63" s="5"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -15399,7 +15452,7 @@
       <c r="Q63" s="1"/>
       <c r="R63" s="6"/>
     </row>
-    <row r="64" spans="2:18">
+    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B64" s="5"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -15418,7 +15471,7 @@
       <c r="Q64" s="1"/>
       <c r="R64" s="6"/>
     </row>
-    <row r="65" spans="2:18">
+    <row r="65" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B65" s="5"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -15437,7 +15490,7 @@
       <c r="Q65" s="1"/>
       <c r="R65" s="6"/>
     </row>
-    <row r="66" spans="2:18">
+    <row r="66" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B66" s="5"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -15456,7 +15509,7 @@
       <c r="Q66" s="1"/>
       <c r="R66" s="6"/>
     </row>
-    <row r="67" spans="2:18">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B67" s="5"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -15475,7 +15528,7 @@
       <c r="Q67" s="1"/>
       <c r="R67" s="6"/>
     </row>
-    <row r="68" spans="2:18">
+    <row r="68" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B68" s="5"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -15494,7 +15547,7 @@
       <c r="Q68" s="1"/>
       <c r="R68" s="6"/>
     </row>
-    <row r="69" spans="2:18">
+    <row r="69" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B69" s="5"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -15513,7 +15566,7 @@
       <c r="Q69" s="1"/>
       <c r="R69" s="6"/>
     </row>
-    <row r="70" spans="2:18">
+    <row r="70" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B70" s="5"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -15532,7 +15585,7 @@
       <c r="Q70" s="1"/>
       <c r="R70" s="6"/>
     </row>
-    <row r="71" spans="2:18">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B71" s="5"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -15551,7 +15604,7 @@
       <c r="Q71" s="1"/>
       <c r="R71" s="6"/>
     </row>
-    <row r="72" spans="2:18">
+    <row r="72" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B72" s="5"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -15570,7 +15623,7 @@
       <c r="Q72" s="1"/>
       <c r="R72" s="6"/>
     </row>
-    <row r="73" spans="2:18">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B73" s="5"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -15589,7 +15642,7 @@
       <c r="Q73" s="1"/>
       <c r="R73" s="6"/>
     </row>
-    <row r="74" spans="2:18">
+    <row r="74" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B74" s="5"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -15608,7 +15661,7 @@
       <c r="Q74" s="1"/>
       <c r="R74" s="6"/>
     </row>
-    <row r="75" spans="2:18">
+    <row r="75" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B75" s="5"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -15627,7 +15680,7 @@
       <c r="Q75" s="1"/>
       <c r="R75" s="6"/>
     </row>
-    <row r="76" spans="2:18">
+    <row r="76" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B76" s="5"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -15646,7 +15699,7 @@
       <c r="Q76" s="1"/>
       <c r="R76" s="6"/>
     </row>
-    <row r="77" spans="2:18">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B77" s="5"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -15665,7 +15718,7 @@
       <c r="Q77" s="1"/>
       <c r="R77" s="6"/>
     </row>
-    <row r="78" spans="2:18">
+    <row r="78" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B78" s="5"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -15684,7 +15737,7 @@
       <c r="Q78" s="1"/>
       <c r="R78" s="6"/>
     </row>
-    <row r="79" spans="2:18">
+    <row r="79" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B79" s="7"/>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
@@ -15718,4 +15771,88 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB37B1D-1558-41D3-9521-7BA857188B96}">
+  <dimension ref="D7:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.140625" style="39"/>
+    <col min="5" max="5" width="15.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="9.140625" style="39"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D7" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D8" s="40">
+        <v>1</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="41"/>
+    </row>
+    <row r="9" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D9" s="40">
+        <v>2</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="41"/>
+    </row>
+    <row r="10" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D10" s="42">
+        <v>3</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="44"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/HASIL PENGUJIAN 100 EPOCHS.xlsx
+++ b/HASIL PENGUJIAN 100 EPOCHS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SKRIPSI\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06F3461-43FB-4871-A55D-8E6D37DD32FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF3B96B-2535-4EBA-9D2F-D2199DDDCAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADAM FULL" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="50">
   <si>
     <t>80/20</t>
   </si>
@@ -115,32 +115,80 @@
     <t>806.36 seconds.</t>
   </si>
   <si>
-    <t>No.</t>
+    <t>No</t>
   </si>
   <si>
-    <t>Pembagian Data</t>
+    <t>Split Data</t>
   </si>
   <si>
-    <t>Akurasi</t>
+    <t>Optimizer</t>
   </si>
   <si>
-    <t>f1-score</t>
+    <t>Adam</t>
   </si>
   <si>
-    <t>Precision</t>
+    <t>RMSProp</t>
   </si>
   <si>
-    <t>Recall</t>
+    <t>SGD</t>
   </si>
   <si>
-    <t>Durasi Training</t>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>0.90</t>
+  </si>
+  <si>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>Full Dataset</t>
+  </si>
+  <si>
+    <t>Half Dataset</t>
+  </si>
+  <si>
+    <t>Dengan Data Augmentasi</t>
+  </si>
+  <si>
+    <t>Tanpa Data Augmentasi</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>0.53</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,13 +278,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,8 +340,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -374,22 +435,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -425,6 +475,21 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -443,26 +508,30 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1710,6 +1779,172 @@
         <a:xfrm>
           <a:off x="16818428" y="4544786"/>
           <a:ext cx="4610743" cy="1629002"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>382259</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>336178</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0A32876-B56C-C89B-5967-C6E709953004}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="998583" y="8446435"/>
+          <a:ext cx="7966124" cy="2851336"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>171427</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>62754</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>15688</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C85AD23-619D-FA56-97A2-E70D6839D0A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1064559" y="11629442"/>
+          <a:ext cx="3928783" cy="3570217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>420219</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>14007</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>351358</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>126066</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0400320-B98C-187F-1455-3D2D6D166D62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5350807" y="12452536"/>
+          <a:ext cx="5478051" cy="2073089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3661,16 +3896,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D4:AL83"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V43" sqref="V43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:38">
       <c r="X4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3678,7 +3913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:38">
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -3716,251 +3951,251 @@
       <c r="AK6" s="3"/>
       <c r="AL6" s="4"/>
     </row>
-    <row r="7" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:38">
       <c r="D7" s="5"/>
       <c r="T7" s="6"/>
       <c r="V7" s="5"/>
       <c r="AL7" s="6"/>
     </row>
-    <row r="8" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:38">
       <c r="D8" s="5"/>
       <c r="T8" s="6"/>
       <c r="V8" s="5"/>
       <c r="AL8" s="6"/>
     </row>
-    <row r="9" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:38">
       <c r="D9" s="5"/>
-      <c r="R9" s="31" t="s">
+      <c r="R9" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="S9" s="31"/>
+      <c r="S9" s="36"/>
       <c r="T9" s="6"/>
       <c r="V9" s="5"/>
-      <c r="AJ9" s="31" t="s">
+      <c r="AJ9" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="AK9" s="31"/>
+      <c r="AK9" s="36"/>
       <c r="AL9" s="6"/>
     </row>
-    <row r="10" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:38">
       <c r="D10" s="5"/>
-      <c r="R10" s="32" t="s">
+      <c r="R10" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="S10" s="32"/>
+      <c r="S10" s="37"/>
       <c r="T10" s="6"/>
       <c r="V10" s="5"/>
-      <c r="AJ10" s="32" t="s">
+      <c r="AJ10" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="AK10" s="32"/>
+      <c r="AK10" s="37"/>
       <c r="AL10" s="6"/>
     </row>
-    <row r="11" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:38">
       <c r="D11" s="5"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
       <c r="T11" s="6"/>
       <c r="V11" s="5"/>
-      <c r="AJ11" s="32"/>
-      <c r="AK11" s="32"/>
+      <c r="AJ11" s="37"/>
+      <c r="AK11" s="37"/>
       <c r="AL11" s="6"/>
     </row>
-    <row r="12" spans="4:38" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:38" ht="18.75">
       <c r="D12" s="5"/>
-      <c r="R12" s="33" t="s">
+      <c r="R12" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="S12" s="33"/>
+      <c r="S12" s="38"/>
       <c r="T12" s="6"/>
       <c r="V12" s="5"/>
-      <c r="AJ12" s="33" t="s">
+      <c r="AJ12" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="AK12" s="33"/>
+      <c r="AK12" s="38"/>
       <c r="AL12" s="6"/>
     </row>
-    <row r="13" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:38">
       <c r="D13" s="5"/>
       <c r="T13" s="6"/>
       <c r="V13" s="5"/>
       <c r="AL13" s="6"/>
     </row>
-    <row r="14" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:38">
       <c r="D14" s="5"/>
       <c r="T14" s="6"/>
       <c r="V14" s="5"/>
       <c r="AL14" s="6"/>
     </row>
-    <row r="15" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:38">
       <c r="D15" s="5"/>
       <c r="T15" s="6"/>
       <c r="V15" s="5"/>
       <c r="AL15" s="6"/>
     </row>
-    <row r="16" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:38">
       <c r="D16" s="5"/>
       <c r="T16" s="6"/>
       <c r="V16" s="5"/>
       <c r="AL16" s="6"/>
     </row>
-    <row r="17" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:38">
       <c r="D17" s="5"/>
       <c r="T17" s="6"/>
       <c r="V17" s="5"/>
       <c r="AL17" s="6"/>
     </row>
-    <row r="18" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:38">
       <c r="D18" s="5"/>
       <c r="T18" s="6"/>
       <c r="V18" s="5"/>
       <c r="AL18" s="6"/>
     </row>
-    <row r="19" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:38">
       <c r="D19" s="5"/>
       <c r="T19" s="6"/>
       <c r="V19" s="5"/>
       <c r="AL19" s="6"/>
     </row>
-    <row r="20" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:38">
       <c r="D20" s="5"/>
       <c r="T20" s="6"/>
       <c r="V20" s="5"/>
       <c r="AL20" s="6"/>
     </row>
-    <row r="21" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:38">
       <c r="D21" s="5"/>
       <c r="T21" s="6"/>
       <c r="V21" s="5"/>
       <c r="AL21" s="6"/>
     </row>
-    <row r="22" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:38">
       <c r="D22" s="5"/>
       <c r="T22" s="6"/>
       <c r="V22" s="5"/>
       <c r="AL22" s="6"/>
     </row>
-    <row r="23" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:38">
       <c r="D23" s="5"/>
       <c r="T23" s="6"/>
       <c r="V23" s="5"/>
       <c r="AL23" s="6"/>
     </row>
-    <row r="24" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:38">
       <c r="D24" s="5"/>
       <c r="T24" s="6"/>
       <c r="V24" s="5"/>
       <c r="AL24" s="6"/>
     </row>
-    <row r="25" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:38">
       <c r="D25" s="5"/>
       <c r="T25" s="6"/>
       <c r="V25" s="5"/>
       <c r="AL25" s="6"/>
     </row>
-    <row r="26" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:38">
       <c r="D26" s="5"/>
       <c r="T26" s="6"/>
       <c r="V26" s="5"/>
       <c r="AL26" s="6"/>
     </row>
-    <row r="27" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:38">
       <c r="D27" s="5"/>
       <c r="T27" s="6"/>
       <c r="V27" s="5"/>
       <c r="AL27" s="6"/>
     </row>
-    <row r="28" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:38">
       <c r="D28" s="5"/>
       <c r="T28" s="6"/>
       <c r="V28" s="5"/>
       <c r="AL28" s="6"/>
     </row>
-    <row r="29" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:38">
       <c r="D29" s="5"/>
       <c r="T29" s="6"/>
       <c r="V29" s="5"/>
       <c r="AL29" s="6"/>
     </row>
-    <row r="30" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:38">
       <c r="D30" s="5"/>
       <c r="T30" s="6"/>
       <c r="V30" s="5"/>
       <c r="AL30" s="6"/>
     </row>
-    <row r="31" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:38">
       <c r="D31" s="5"/>
       <c r="T31" s="6"/>
       <c r="V31" s="5"/>
       <c r="AL31" s="6"/>
     </row>
-    <row r="32" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:38">
       <c r="D32" s="5"/>
       <c r="T32" s="6"/>
       <c r="V32" s="5"/>
       <c r="AL32" s="6"/>
     </row>
-    <row r="33" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:38">
       <c r="D33" s="5"/>
       <c r="T33" s="6"/>
       <c r="V33" s="5"/>
       <c r="AL33" s="6"/>
     </row>
-    <row r="34" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:38">
       <c r="D34" s="5"/>
       <c r="T34" s="6"/>
       <c r="V34" s="5"/>
       <c r="AL34" s="6"/>
     </row>
-    <row r="35" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:38">
       <c r="D35" s="5"/>
       <c r="T35" s="6"/>
       <c r="V35" s="5"/>
       <c r="AL35" s="6"/>
     </row>
-    <row r="36" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:38">
       <c r="D36" s="5"/>
       <c r="T36" s="6"/>
       <c r="V36" s="5"/>
       <c r="AL36" s="6"/>
     </row>
-    <row r="37" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:38">
       <c r="D37" s="5"/>
       <c r="T37" s="6"/>
       <c r="V37" s="5"/>
       <c r="AL37" s="6"/>
     </row>
-    <row r="38" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:38">
       <c r="D38" s="5"/>
       <c r="T38" s="6"/>
       <c r="V38" s="5"/>
       <c r="AL38" s="6"/>
     </row>
-    <row r="39" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:38">
       <c r="D39" s="5"/>
       <c r="T39" s="6"/>
       <c r="V39" s="5"/>
       <c r="AL39" s="6"/>
     </row>
-    <row r="40" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:38">
       <c r="D40" s="5"/>
       <c r="T40" s="6"/>
       <c r="V40" s="5"/>
       <c r="AL40" s="6"/>
     </row>
-    <row r="41" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:38">
       <c r="D41" s="5"/>
       <c r="T41" s="6"/>
       <c r="V41" s="5"/>
       <c r="AL41" s="6"/>
     </row>
-    <row r="42" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:38">
       <c r="D42" s="5"/>
       <c r="T42" s="6"/>
       <c r="V42" s="5"/>
       <c r="AL42" s="6"/>
     </row>
-    <row r="43" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:38">
       <c r="D43" s="7"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
@@ -3996,7 +4231,7 @@
       <c r="AK43" s="8"/>
       <c r="AL43" s="9"/>
     </row>
-    <row r="46" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:38">
       <c r="D46" s="2"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -4015,108 +4250,108 @@
       <c r="S46" s="3"/>
       <c r="T46" s="4"/>
     </row>
-    <row r="47" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:38">
       <c r="D47" s="5"/>
       <c r="E47" s="20" t="s">
         <v>8</v>
       </c>
       <c r="T47" s="6"/>
     </row>
-    <row r="48" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:38">
       <c r="D48" s="5"/>
       <c r="T48" s="6"/>
     </row>
-    <row r="49" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:20">
       <c r="D49" s="5"/>
-      <c r="R49" s="31" t="s">
+      <c r="R49" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="S49" s="31"/>
+      <c r="S49" s="36"/>
       <c r="T49" s="6"/>
     </row>
-    <row r="50" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:20">
       <c r="D50" s="5"/>
-      <c r="R50" s="32" t="s">
+      <c r="R50" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="S50" s="32"/>
+      <c r="S50" s="37"/>
       <c r="T50" s="6"/>
     </row>
-    <row r="51" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:20">
       <c r="D51" s="5"/>
-      <c r="R51" s="32"/>
-      <c r="S51" s="32"/>
+      <c r="R51" s="37"/>
+      <c r="S51" s="37"/>
       <c r="T51" s="6"/>
     </row>
-    <row r="52" spans="4:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:20" ht="18.75">
       <c r="D52" s="5"/>
-      <c r="R52" s="33" t="s">
+      <c r="R52" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="S52" s="33"/>
+      <c r="S52" s="38"/>
       <c r="T52" s="6"/>
     </row>
-    <row r="53" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:20">
       <c r="D53" s="5"/>
       <c r="T53" s="6"/>
     </row>
-    <row r="54" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:20">
       <c r="D54" s="5"/>
       <c r="T54" s="6"/>
     </row>
-    <row r="55" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:20">
       <c r="D55" s="5"/>
       <c r="T55" s="6"/>
     </row>
-    <row r="56" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:20">
       <c r="D56" s="5"/>
       <c r="T56" s="6"/>
     </row>
-    <row r="57" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:20">
       <c r="D57" s="5"/>
       <c r="T57" s="6"/>
     </row>
-    <row r="58" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:20">
       <c r="D58" s="5"/>
       <c r="T58" s="6"/>
     </row>
-    <row r="59" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:20">
       <c r="D59" s="5"/>
       <c r="T59" s="6"/>
     </row>
-    <row r="60" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:20">
       <c r="D60" s="5"/>
       <c r="T60" s="6"/>
     </row>
-    <row r="61" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:20">
       <c r="D61" s="5"/>
       <c r="T61" s="6"/>
     </row>
-    <row r="62" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:20">
       <c r="D62" s="5"/>
       <c r="T62" s="6"/>
     </row>
-    <row r="63" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:20">
       <c r="D63" s="5"/>
       <c r="T63" s="6"/>
     </row>
-    <row r="64" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:20">
       <c r="D64" s="5"/>
       <c r="T64" s="6"/>
     </row>
-    <row r="65" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:20">
       <c r="D65" s="5"/>
       <c r="T65" s="6"/>
     </row>
-    <row r="66" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:20">
       <c r="D66" s="5"/>
       <c r="T66" s="6"/>
     </row>
-    <row r="67" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:20">
       <c r="D67" s="5"/>
       <c r="T67" s="6"/>
     </row>
-    <row r="68" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:20">
       <c r="D68" s="21"/>
       <c r="E68" s="22"/>
       <c r="F68" s="22"/>
@@ -4132,63 +4367,63 @@
       <c r="P68" s="22"/>
       <c r="T68" s="6"/>
     </row>
-    <row r="69" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:20">
       <c r="D69" s="5"/>
       <c r="T69" s="6"/>
     </row>
-    <row r="70" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:20">
       <c r="D70" s="5"/>
       <c r="T70" s="6"/>
     </row>
-    <row r="71" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:20">
       <c r="D71" s="5"/>
       <c r="T71" s="6"/>
     </row>
-    <row r="72" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:20">
       <c r="D72" s="5"/>
       <c r="T72" s="6"/>
     </row>
-    <row r="73" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:20">
       <c r="D73" s="5"/>
       <c r="T73" s="6"/>
     </row>
-    <row r="74" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:20">
       <c r="D74" s="5"/>
       <c r="T74" s="6"/>
     </row>
-    <row r="75" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:20">
       <c r="D75" s="5"/>
       <c r="T75" s="6"/>
     </row>
-    <row r="76" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:20">
       <c r="D76" s="5"/>
       <c r="T76" s="6"/>
     </row>
-    <row r="77" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:20">
       <c r="D77" s="5"/>
       <c r="T77" s="6"/>
     </row>
-    <row r="78" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:20">
       <c r="D78" s="5"/>
       <c r="T78" s="6"/>
     </row>
-    <row r="79" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:20">
       <c r="D79" s="5"/>
       <c r="T79" s="6"/>
     </row>
-    <row r="80" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:20">
       <c r="D80" s="5"/>
       <c r="T80" s="6"/>
     </row>
-    <row r="81" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:20">
       <c r="D81" s="5"/>
       <c r="T81" s="6"/>
     </row>
-    <row r="82" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:20">
       <c r="D82" s="5"/>
       <c r="T82" s="6"/>
     </row>
-    <row r="83" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:20">
       <c r="D83" s="7"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
@@ -4229,13 +4464,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3265C1DE-771B-466D-AFE8-2C836A595B59}">
   <dimension ref="B4:AJ81"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA73" sqref="AA73"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:36">
       <c r="B4" s="26" t="s">
         <v>17</v>
       </c>
@@ -4275,7 +4510,7 @@
       <c r="AI4" s="12"/>
       <c r="AJ4" s="13"/>
     </row>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:36">
       <c r="B5" s="14"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -4311,7 +4546,7 @@
       <c r="AI5" s="10"/>
       <c r="AJ5" s="15"/>
     </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:36">
       <c r="B6" s="14"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -4346,7 +4581,7 @@
       <c r="AI6" s="10"/>
       <c r="AJ6" s="15"/>
     </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:36">
       <c r="B7" s="14"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -4361,10 +4596,10 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="35" t="s">
+      <c r="P7" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="Q7" s="35"/>
+      <c r="Q7" s="40"/>
       <c r="R7" s="15"/>
       <c r="T7" s="14"/>
       <c r="U7" s="10"/>
@@ -4380,13 +4615,13 @@
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
       <c r="AG7" s="10"/>
-      <c r="AH7" s="35" t="s">
+      <c r="AH7" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="AI7" s="35"/>
+      <c r="AI7" s="40"/>
       <c r="AJ7" s="15"/>
     </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:36">
       <c r="B8" s="14"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -4401,10 +4636,10 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
-      <c r="P8" s="36" t="s">
+      <c r="P8" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="Q8" s="36"/>
+      <c r="Q8" s="41"/>
       <c r="R8" s="15"/>
       <c r="T8" s="14"/>
       <c r="U8" s="10"/>
@@ -4420,13 +4655,13 @@
       <c r="AE8" s="10"/>
       <c r="AF8" s="10"/>
       <c r="AG8" s="10"/>
-      <c r="AH8" s="36" t="s">
+      <c r="AH8" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="AI8" s="36"/>
+      <c r="AI8" s="41"/>
       <c r="AJ8" s="15"/>
     </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:36">
       <c r="B9" s="14"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -4441,8 +4676,8 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
       <c r="R9" s="15"/>
       <c r="T9" s="14"/>
       <c r="U9" s="10"/>
@@ -4458,11 +4693,11 @@
       <c r="AE9" s="10"/>
       <c r="AF9" s="10"/>
       <c r="AG9" s="10"/>
-      <c r="AH9" s="36"/>
-      <c r="AI9" s="36"/>
+      <c r="AH9" s="41"/>
+      <c r="AI9" s="41"/>
       <c r="AJ9" s="15"/>
     </row>
-    <row r="10" spans="2:36" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:36" ht="18.75">
       <c r="B10" s="14"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -4477,10 +4712,10 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
-      <c r="P10" s="34" t="s">
+      <c r="P10" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="Q10" s="34"/>
+      <c r="Q10" s="39"/>
       <c r="R10" s="15"/>
       <c r="T10" s="14"/>
       <c r="U10" s="10"/>
@@ -4496,13 +4731,13 @@
       <c r="AE10" s="10"/>
       <c r="AF10" s="10"/>
       <c r="AG10" s="10"/>
-      <c r="AH10" s="34" t="s">
+      <c r="AH10" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="AI10" s="34"/>
+      <c r="AI10" s="39"/>
       <c r="AJ10" s="15"/>
     </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:36">
       <c r="B11" s="14"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -4538,7 +4773,7 @@
       <c r="AI11" s="10"/>
       <c r="AJ11" s="15"/>
     </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:36">
       <c r="B12" s="14"/>
       <c r="C12" s="10"/>
       <c r="E12" s="10"/>
@@ -4573,7 +4808,7 @@
       <c r="AI12" s="10"/>
       <c r="AJ12" s="15"/>
     </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:36">
       <c r="B13" s="14"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -4609,7 +4844,7 @@
       <c r="AI13" s="10"/>
       <c r="AJ13" s="15"/>
     </row>
-    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:36">
       <c r="B14" s="14"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -4645,7 +4880,7 @@
       <c r="AI14" s="10"/>
       <c r="AJ14" s="15"/>
     </row>
-    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:36">
       <c r="B15" s="14"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -4681,7 +4916,7 @@
       <c r="AI15" s="10"/>
       <c r="AJ15" s="15"/>
     </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:36">
       <c r="B16" s="14"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -4717,7 +4952,7 @@
       <c r="AI16" s="10"/>
       <c r="AJ16" s="15"/>
     </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:36">
       <c r="B17" s="14"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -4753,7 +4988,7 @@
       <c r="AI17" s="10"/>
       <c r="AJ17" s="15"/>
     </row>
-    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:36">
       <c r="B18" s="14"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -4789,7 +5024,7 @@
       <c r="AI18" s="10"/>
       <c r="AJ18" s="15"/>
     </row>
-    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:36">
       <c r="B19" s="14"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -4825,7 +5060,7 @@
       <c r="AI19" s="10"/>
       <c r="AJ19" s="15"/>
     </row>
-    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:36">
       <c r="B20" s="14"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -4861,7 +5096,7 @@
       <c r="AI20" s="10"/>
       <c r="AJ20" s="15"/>
     </row>
-    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:36">
       <c r="B21" s="14"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -4897,7 +5132,7 @@
       <c r="AI21" s="10"/>
       <c r="AJ21" s="15"/>
     </row>
-    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:36">
       <c r="B22" s="14"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -4933,7 +5168,7 @@
       <c r="AI22" s="10"/>
       <c r="AJ22" s="15"/>
     </row>
-    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:36">
       <c r="B23" s="14"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -4968,7 +5203,7 @@
       <c r="AI23" s="10"/>
       <c r="AJ23" s="15"/>
     </row>
-    <row r="24" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:36">
       <c r="B24" s="14"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -5004,7 +5239,7 @@
       <c r="AI24" s="10"/>
       <c r="AJ24" s="15"/>
     </row>
-    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:36">
       <c r="B25" s="14"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -5039,7 +5274,7 @@
       <c r="AI25" s="10"/>
       <c r="AJ25" s="15"/>
     </row>
-    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:36">
       <c r="B26" s="14"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -5075,7 +5310,7 @@
       <c r="AI26" s="10"/>
       <c r="AJ26" s="15"/>
     </row>
-    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:36">
       <c r="B27" s="14"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -5111,7 +5346,7 @@
       <c r="AI27" s="10"/>
       <c r="AJ27" s="15"/>
     </row>
-    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:36">
       <c r="B28" s="14"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -5147,7 +5382,7 @@
       <c r="AI28" s="10"/>
       <c r="AJ28" s="15"/>
     </row>
-    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:36">
       <c r="B29" s="14"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -5183,7 +5418,7 @@
       <c r="AI29" s="10"/>
       <c r="AJ29" s="15"/>
     </row>
-    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:36">
       <c r="B30" s="14"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -5219,7 +5454,7 @@
       <c r="AI30" s="10"/>
       <c r="AJ30" s="15"/>
     </row>
-    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:36">
       <c r="B31" s="14"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -5255,7 +5490,7 @@
       <c r="AI31" s="10"/>
       <c r="AJ31" s="15"/>
     </row>
-    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:36">
       <c r="B32" s="14"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -5291,7 +5526,7 @@
       <c r="AI32" s="10"/>
       <c r="AJ32" s="15"/>
     </row>
-    <row r="33" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:36">
       <c r="B33" s="14"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -5327,7 +5562,7 @@
       <c r="AI33" s="10"/>
       <c r="AJ33" s="15"/>
     </row>
-    <row r="34" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:36">
       <c r="B34" s="14"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -5363,7 +5598,7 @@
       <c r="AI34" s="10"/>
       <c r="AJ34" s="15"/>
     </row>
-    <row r="35" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:36">
       <c r="B35" s="14"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -5399,7 +5634,7 @@
       <c r="AI35" s="10"/>
       <c r="AJ35" s="15"/>
     </row>
-    <row r="36" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:36">
       <c r="B36" s="14"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -5435,7 +5670,7 @@
       <c r="AI36" s="10"/>
       <c r="AJ36" s="15"/>
     </row>
-    <row r="37" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:36">
       <c r="B37" s="14"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -5471,7 +5706,7 @@
       <c r="AI37" s="10"/>
       <c r="AJ37" s="15"/>
     </row>
-    <row r="38" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:36">
       <c r="B38" s="14"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -5507,7 +5742,7 @@
       <c r="AI38" s="10"/>
       <c r="AJ38" s="15"/>
     </row>
-    <row r="39" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:36">
       <c r="B39" s="14"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -5543,7 +5778,7 @@
       <c r="AI39" s="10"/>
       <c r="AJ39" s="15"/>
     </row>
-    <row r="40" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:36">
       <c r="B40" s="14"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
@@ -5579,7 +5814,7 @@
       <c r="AI40" s="10"/>
       <c r="AJ40" s="15"/>
     </row>
-    <row r="41" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:36">
       <c r="B41" s="16"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
@@ -5615,7 +5850,7 @@
       <c r="AI41" s="17"/>
       <c r="AJ41" s="18"/>
     </row>
-    <row r="44" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:36">
       <c r="B44" s="26" t="s">
         <v>14</v>
       </c>
@@ -5636,7 +5871,7 @@
       <c r="Q44" s="12"/>
       <c r="R44" s="13"/>
     </row>
-    <row r="45" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:36">
       <c r="B45" s="14"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -5655,7 +5890,7 @@
       <c r="Q45" s="10"/>
       <c r="R45" s="15"/>
     </row>
-    <row r="46" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:36">
       <c r="B46" s="14"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -5674,7 +5909,7 @@
       <c r="Q46" s="10"/>
       <c r="R46" s="15"/>
     </row>
-    <row r="47" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:36">
       <c r="B47" s="14"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
@@ -5689,13 +5924,13 @@
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
-      <c r="P47" s="35" t="s">
+      <c r="P47" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="Q47" s="35"/>
+      <c r="Q47" s="40"/>
       <c r="R47" s="15"/>
     </row>
-    <row r="48" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:36">
       <c r="B48" s="14"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -5710,13 +5945,13 @@
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
-      <c r="P48" s="36" t="s">
+      <c r="P48" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="Q48" s="36"/>
+      <c r="Q48" s="41"/>
       <c r="R48" s="15"/>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:18">
       <c r="B49" s="14"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
@@ -5731,11 +5966,11 @@
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
-      <c r="P49" s="36"/>
-      <c r="Q49" s="36"/>
+      <c r="P49" s="41"/>
+      <c r="Q49" s="41"/>
       <c r="R49" s="15"/>
     </row>
-    <row r="50" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:18" ht="18.75">
       <c r="B50" s="14"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -5749,13 +5984,13 @@
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
-      <c r="P50" s="34" t="s">
+      <c r="P50" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="Q50" s="34"/>
+      <c r="Q50" s="39"/>
       <c r="R50" s="15"/>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:18">
       <c r="B51" s="14"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -5774,7 +6009,7 @@
       <c r="Q51" s="10"/>
       <c r="R51" s="15"/>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:18">
       <c r="B52" s="14"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
@@ -5793,7 +6028,7 @@
       <c r="Q52" s="10"/>
       <c r="R52" s="15"/>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:18">
       <c r="B53" s="14"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
@@ -5812,7 +6047,7 @@
       <c r="Q53" s="10"/>
       <c r="R53" s="15"/>
     </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:18">
       <c r="B54" s="14"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -5831,7 +6066,7 @@
       <c r="Q54" s="10"/>
       <c r="R54" s="15"/>
     </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:18">
       <c r="B55" s="14"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -5850,7 +6085,7 @@
       <c r="Q55" s="10"/>
       <c r="R55" s="15"/>
     </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:18">
       <c r="B56" s="14"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
@@ -5869,7 +6104,7 @@
       <c r="Q56" s="10"/>
       <c r="R56" s="15"/>
     </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:18">
       <c r="B57" s="14"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -5888,7 +6123,7 @@
       <c r="Q57" s="10"/>
       <c r="R57" s="15"/>
     </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:18">
       <c r="B58" s="14"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
@@ -5907,7 +6142,7 @@
       <c r="Q58" s="10"/>
       <c r="R58" s="15"/>
     </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:18">
       <c r="B59" s="14"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
@@ -5926,7 +6161,7 @@
       <c r="Q59" s="10"/>
       <c r="R59" s="15"/>
     </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:18">
       <c r="B60" s="14"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
@@ -5945,7 +6180,7 @@
       <c r="Q60" s="10"/>
       <c r="R60" s="15"/>
     </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:18">
       <c r="B61" s="14"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
@@ -5964,7 +6199,7 @@
       <c r="Q61" s="10"/>
       <c r="R61" s="15"/>
     </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:18">
       <c r="B62" s="14"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
@@ -5983,7 +6218,7 @@
       <c r="Q62" s="10"/>
       <c r="R62" s="15"/>
     </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:18">
       <c r="B63" s="14"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
@@ -6002,7 +6237,7 @@
       <c r="Q63" s="10"/>
       <c r="R63" s="15"/>
     </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:18">
       <c r="B64" s="14"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
@@ -6020,7 +6255,7 @@
       <c r="Q64" s="10"/>
       <c r="R64" s="15"/>
     </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:18">
       <c r="B65" s="14"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -6039,7 +6274,7 @@
       <c r="Q65" s="10"/>
       <c r="R65" s="15"/>
     </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:18">
       <c r="B66" s="14"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -6058,7 +6293,7 @@
       <c r="Q66" s="10"/>
       <c r="R66" s="15"/>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:18">
       <c r="B67" s="14"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -6077,7 +6312,7 @@
       <c r="Q67" s="10"/>
       <c r="R67" s="15"/>
     </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:18">
       <c r="B68" s="14"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
@@ -6096,7 +6331,7 @@
       <c r="Q68" s="10"/>
       <c r="R68" s="15"/>
     </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:18">
       <c r="B69" s="14"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
@@ -6115,7 +6350,7 @@
       <c r="Q69" s="10"/>
       <c r="R69" s="15"/>
     </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:18">
       <c r="B70" s="14"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
@@ -6134,7 +6369,7 @@
       <c r="Q70" s="10"/>
       <c r="R70" s="15"/>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:18">
       <c r="B71" s="14"/>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
@@ -6153,7 +6388,7 @@
       <c r="Q71" s="10"/>
       <c r="R71" s="15"/>
     </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:18">
       <c r="B72" s="14"/>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
@@ -6172,7 +6407,7 @@
       <c r="Q72" s="10"/>
       <c r="R72" s="15"/>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:18">
       <c r="B73" s="14"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
@@ -6191,7 +6426,7 @@
       <c r="Q73" s="10"/>
       <c r="R73" s="15"/>
     </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:18">
       <c r="B74" s="14"/>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
@@ -6210,7 +6445,7 @@
       <c r="Q74" s="10"/>
       <c r="R74" s="15"/>
     </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:18">
       <c r="B75" s="14"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
@@ -6229,7 +6464,7 @@
       <c r="Q75" s="10"/>
       <c r="R75" s="15"/>
     </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:18">
       <c r="B76" s="14"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
@@ -6248,7 +6483,7 @@
       <c r="Q76" s="10"/>
       <c r="R76" s="15"/>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:18">
       <c r="B77" s="14"/>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
@@ -6267,7 +6502,7 @@
       <c r="Q77" s="10"/>
       <c r="R77" s="15"/>
     </row>
-    <row r="78" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:18">
       <c r="B78" s="14"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
@@ -6286,7 +6521,7 @@
       <c r="Q78" s="10"/>
       <c r="R78" s="15"/>
     </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:18">
       <c r="B79" s="14"/>
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
@@ -6305,7 +6540,7 @@
       <c r="Q79" s="10"/>
       <c r="R79" s="15"/>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:18">
       <c r="B80" s="14"/>
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
@@ -6324,7 +6559,7 @@
       <c r="Q80" s="10"/>
       <c r="R80" s="15"/>
     </row>
-    <row r="81" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:18">
       <c r="B81" s="16"/>
       <c r="C81" s="17"/>
       <c r="D81" s="17"/>
@@ -6364,16 +6599,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800CFA05-9B27-4650-A169-A5D3EBB0D79D}">
   <dimension ref="B2:AJ79"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AJ17" sqref="AJ17"/>
+    <sheetView showGridLines="0" topLeftCell="A34" zoomScale="68" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z70" sqref="Z70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:36">
       <c r="B2" s="26" t="s">
         <v>18</v>
       </c>
@@ -6414,7 +6649,7 @@
       <c r="AI2" s="12"/>
       <c r="AJ2" s="13"/>
     </row>
-    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:36">
       <c r="B3" s="14"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -6451,7 +6686,7 @@
       <c r="AI3" s="10"/>
       <c r="AJ3" s="15"/>
     </row>
-    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:36">
       <c r="B4" s="14"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -6488,7 +6723,7 @@
       <c r="AI4" s="10"/>
       <c r="AJ4" s="15"/>
     </row>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:36">
       <c r="B5" s="14"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -6503,10 +6738,10 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
-      <c r="P5" s="35" t="s">
+      <c r="P5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="35"/>
+      <c r="Q5" s="40"/>
       <c r="R5" s="15"/>
       <c r="S5"/>
       <c r="T5" s="14"/>
@@ -6523,13 +6758,13 @@
       <c r="AE5" s="10"/>
       <c r="AF5" s="10"/>
       <c r="AG5" s="10"/>
-      <c r="AH5" s="35" t="s">
+      <c r="AH5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="AI5" s="35"/>
+      <c r="AI5" s="40"/>
       <c r="AJ5" s="15"/>
     </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:36">
       <c r="B6" s="14"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -6544,10 +6779,10 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
-      <c r="P6" s="36" t="s">
+      <c r="P6" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="36"/>
+      <c r="Q6" s="41"/>
       <c r="R6" s="15"/>
       <c r="S6"/>
       <c r="T6" s="14"/>
@@ -6564,13 +6799,13 @@
       <c r="AE6" s="10"/>
       <c r="AF6" s="10"/>
       <c r="AG6" s="10"/>
-      <c r="AH6" s="36" t="s">
+      <c r="AH6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="AI6" s="36"/>
+      <c r="AI6" s="41"/>
       <c r="AJ6" s="15"/>
     </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:36">
       <c r="B7" s="14"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -6585,8 +6820,8 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
       <c r="R7" s="15"/>
       <c r="S7"/>
       <c r="T7" s="14"/>
@@ -6603,11 +6838,11 @@
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
       <c r="AG7" s="10"/>
-      <c r="AH7" s="36"/>
-      <c r="AI7" s="36"/>
+      <c r="AH7" s="41"/>
+      <c r="AI7" s="41"/>
       <c r="AJ7" s="15"/>
     </row>
-    <row r="8" spans="2:36" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:36" ht="18.75">
       <c r="B8" s="14"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -6622,10 +6857,10 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
-      <c r="P8" s="34" t="s">
+      <c r="P8" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="Q8" s="34"/>
+      <c r="Q8" s="39"/>
       <c r="R8" s="15"/>
       <c r="S8"/>
       <c r="T8" s="14"/>
@@ -6642,13 +6877,13 @@
       <c r="AE8" s="10"/>
       <c r="AF8" s="10"/>
       <c r="AG8" s="10"/>
-      <c r="AH8" s="34" t="s">
+      <c r="AH8" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="AI8" s="34"/>
+      <c r="AI8" s="39"/>
       <c r="AJ8" s="15"/>
     </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:36">
       <c r="B9" s="14"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -6685,7 +6920,7 @@
       <c r="AI9" s="10"/>
       <c r="AJ9" s="15"/>
     </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:36">
       <c r="B10" s="14"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -6722,7 +6957,7 @@
       <c r="AI10" s="10"/>
       <c r="AJ10" s="15"/>
     </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:36">
       <c r="B11" s="14"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -6759,7 +6994,7 @@
       <c r="AI11" s="10"/>
       <c r="AJ11" s="15"/>
     </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:36">
       <c r="B12" s="14"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -6796,7 +7031,7 @@
       <c r="AI12" s="10"/>
       <c r="AJ12" s="15"/>
     </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:36">
       <c r="B13" s="14"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -6833,7 +7068,7 @@
       <c r="AI13" s="10"/>
       <c r="AJ13" s="15"/>
     </row>
-    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:36">
       <c r="B14" s="14"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -6870,7 +7105,7 @@
       <c r="AI14" s="10"/>
       <c r="AJ14" s="15"/>
     </row>
-    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:36">
       <c r="B15" s="14"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -6907,7 +7142,7 @@
       <c r="AI15" s="10"/>
       <c r="AJ15" s="15"/>
     </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:36">
       <c r="B16" s="14"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -6944,7 +7179,7 @@
       <c r="AI16" s="10"/>
       <c r="AJ16" s="15"/>
     </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:36">
       <c r="B17" s="14"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -6983,7 +7218,7 @@
       <c r="AI17" s="10"/>
       <c r="AJ17" s="15"/>
     </row>
-    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:36">
       <c r="B18" s="14"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -7020,7 +7255,7 @@
       <c r="AI18" s="10"/>
       <c r="AJ18" s="15"/>
     </row>
-    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:36">
       <c r="B19" s="14"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -7057,7 +7292,7 @@
       <c r="AI19" s="10"/>
       <c r="AJ19" s="15"/>
     </row>
-    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:36">
       <c r="B20" s="14"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -7094,7 +7329,7 @@
       <c r="AI20" s="10"/>
       <c r="AJ20" s="15"/>
     </row>
-    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:36">
       <c r="B21" s="14"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -7131,7 +7366,7 @@
       <c r="AI21" s="10"/>
       <c r="AJ21" s="15"/>
     </row>
-    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:36">
       <c r="B22" s="14"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -7168,7 +7403,7 @@
       <c r="AI22" s="10"/>
       <c r="AJ22" s="15"/>
     </row>
-    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:36">
       <c r="B23" s="14"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -7205,7 +7440,7 @@
       <c r="AI23" s="10"/>
       <c r="AJ23" s="15"/>
     </row>
-    <row r="24" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:36">
       <c r="B24" s="14"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -7242,7 +7477,7 @@
       <c r="AI24" s="10"/>
       <c r="AJ24" s="15"/>
     </row>
-    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:36">
       <c r="B25" s="14"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -7279,7 +7514,7 @@
       <c r="AI25" s="10"/>
       <c r="AJ25" s="15"/>
     </row>
-    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:36">
       <c r="B26" s="14"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -7316,7 +7551,7 @@
       <c r="AI26" s="10"/>
       <c r="AJ26" s="15"/>
     </row>
-    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:36">
       <c r="B27" s="14"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -7353,7 +7588,7 @@
       <c r="AI27" s="10"/>
       <c r="AJ27" s="15"/>
     </row>
-    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:36">
       <c r="B28" s="14"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -7390,7 +7625,7 @@
       <c r="AI28" s="10"/>
       <c r="AJ28" s="15"/>
     </row>
-    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:36">
       <c r="B29" s="14"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -7427,7 +7662,7 @@
       <c r="AI29" s="10"/>
       <c r="AJ29" s="15"/>
     </row>
-    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:36">
       <c r="B30" s="14"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -7464,7 +7699,7 @@
       <c r="AI30" s="10"/>
       <c r="AJ30" s="15"/>
     </row>
-    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:36">
       <c r="B31" s="14"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -7501,7 +7736,7 @@
       <c r="AI31" s="10"/>
       <c r="AJ31" s="15"/>
     </row>
-    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:36">
       <c r="B32" s="14"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -7538,7 +7773,7 @@
       <c r="AI32" s="10"/>
       <c r="AJ32" s="15"/>
     </row>
-    <row r="33" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:36">
       <c r="B33" s="14"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -7575,7 +7810,7 @@
       <c r="AI33" s="10"/>
       <c r="AJ33" s="15"/>
     </row>
-    <row r="34" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:36">
       <c r="B34" s="14"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -7612,7 +7847,7 @@
       <c r="AI34" s="10"/>
       <c r="AJ34" s="15"/>
     </row>
-    <row r="35" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:36">
       <c r="B35" s="14"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -7649,7 +7884,7 @@
       <c r="AI35" s="10"/>
       <c r="AJ35" s="15"/>
     </row>
-    <row r="36" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:36">
       <c r="B36" s="14"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -7686,7 +7921,7 @@
       <c r="AI36" s="10"/>
       <c r="AJ36" s="15"/>
     </row>
-    <row r="37" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:36">
       <c r="B37" s="14"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -7723,7 +7958,7 @@
       <c r="AI37" s="10"/>
       <c r="AJ37" s="15"/>
     </row>
-    <row r="38" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:36">
       <c r="B38" s="14"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -7760,7 +7995,7 @@
       <c r="AI38" s="10"/>
       <c r="AJ38" s="15"/>
     </row>
-    <row r="39" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:36">
       <c r="B39" s="16"/>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
@@ -7797,7 +8032,7 @@
       <c r="AI39" s="17"/>
       <c r="AJ39" s="18"/>
     </row>
-    <row r="40" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:36">
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
@@ -7834,7 +8069,7 @@
       <c r="AI40"/>
       <c r="AJ40"/>
     </row>
-    <row r="41" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:36">
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
@@ -7871,7 +8106,7 @@
       <c r="AI41"/>
       <c r="AJ41"/>
     </row>
-    <row r="42" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:36">
       <c r="B42" s="11"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
@@ -7908,7 +8143,7 @@
       <c r="AI42"/>
       <c r="AJ42"/>
     </row>
-    <row r="43" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:36">
       <c r="B43" s="14"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
@@ -7945,7 +8180,7 @@
       <c r="AI43"/>
       <c r="AJ43"/>
     </row>
-    <row r="44" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:36">
       <c r="B44" s="14"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -7982,7 +8217,7 @@
       <c r="AI44"/>
       <c r="AJ44"/>
     </row>
-    <row r="45" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:36">
       <c r="B45" s="14"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -7997,10 +8232,10 @@
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
-      <c r="P45" s="35" t="s">
+      <c r="P45" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="Q45" s="35"/>
+      <c r="Q45" s="40"/>
       <c r="R45" s="15"/>
       <c r="S45"/>
       <c r="T45"/>
@@ -8021,7 +8256,7 @@
       <c r="AI45"/>
       <c r="AJ45"/>
     </row>
-    <row r="46" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:36">
       <c r="B46" s="14"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -8036,10 +8271,10 @@
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
-      <c r="P46" s="36" t="s">
+      <c r="P46" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="Q46" s="36"/>
+      <c r="Q46" s="41"/>
       <c r="R46" s="15"/>
       <c r="S46"/>
       <c r="T46"/>
@@ -8060,7 +8295,7 @@
       <c r="AI46"/>
       <c r="AJ46"/>
     </row>
-    <row r="47" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:36">
       <c r="B47" s="14"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
@@ -8075,8 +8310,8 @@
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
-      <c r="P47" s="36"/>
-      <c r="Q47" s="36"/>
+      <c r="P47" s="41"/>
+      <c r="Q47" s="41"/>
       <c r="R47" s="15"/>
       <c r="S47"/>
       <c r="T47"/>
@@ -8097,7 +8332,7 @@
       <c r="AI47"/>
       <c r="AJ47"/>
     </row>
-    <row r="48" spans="2:36" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:36" ht="18.75">
       <c r="B48" s="14"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -8112,10 +8347,10 @@
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
-      <c r="P48" s="34" t="s">
+      <c r="P48" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="Q48" s="34"/>
+      <c r="Q48" s="39"/>
       <c r="R48" s="15"/>
       <c r="S48"/>
       <c r="T48"/>
@@ -8136,13 +8371,13 @@
       <c r="AI48"/>
       <c r="AJ48"/>
     </row>
-    <row r="49" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:36">
       <c r="B49" s="14"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
+      <c r="G49"/>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
@@ -8173,7 +8408,7 @@
       <c r="AI49"/>
       <c r="AJ49"/>
     </row>
-    <row r="50" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:36">
       <c r="B50" s="14"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -8210,7 +8445,7 @@
       <c r="AI50"/>
       <c r="AJ50"/>
     </row>
-    <row r="51" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:36">
       <c r="B51" s="14"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -8247,7 +8482,7 @@
       <c r="AI51"/>
       <c r="AJ51"/>
     </row>
-    <row r="52" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:36">
       <c r="B52" s="14"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
@@ -8284,7 +8519,7 @@
       <c r="AI52"/>
       <c r="AJ52"/>
     </row>
-    <row r="53" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:36">
       <c r="B53" s="14"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
@@ -8321,7 +8556,7 @@
       <c r="AI53"/>
       <c r="AJ53"/>
     </row>
-    <row r="54" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:36">
       <c r="B54" s="14"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -8358,7 +8593,7 @@
       <c r="AI54"/>
       <c r="AJ54"/>
     </row>
-    <row r="55" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:36">
       <c r="B55" s="14"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -8395,7 +8630,7 @@
       <c r="AI55"/>
       <c r="AJ55"/>
     </row>
-    <row r="56" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:36">
       <c r="B56" s="14"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
@@ -8432,7 +8667,7 @@
       <c r="AI56"/>
       <c r="AJ56"/>
     </row>
-    <row r="57" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:36">
       <c r="B57" s="14"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -8469,7 +8704,7 @@
       <c r="AI57"/>
       <c r="AJ57"/>
     </row>
-    <row r="58" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:36">
       <c r="B58" s="14"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
@@ -8478,9 +8713,7 @@
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
-      <c r="J58" s="27" t="s">
-        <v>16</v>
-      </c>
+      <c r="J58" s="27"/>
       <c r="K58" s="10"/>
       <c r="L58" s="10"/>
       <c r="M58" s="10"/>
@@ -8508,7 +8741,7 @@
       <c r="AI58"/>
       <c r="AJ58"/>
     </row>
-    <row r="59" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:36">
       <c r="B59" s="14"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
@@ -8545,7 +8778,7 @@
       <c r="AI59"/>
       <c r="AJ59"/>
     </row>
-    <row r="60" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:36">
       <c r="B60" s="14"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
@@ -8582,7 +8815,7 @@
       <c r="AI60"/>
       <c r="AJ60"/>
     </row>
-    <row r="61" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:36">
       <c r="B61" s="14"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
@@ -8619,7 +8852,7 @@
       <c r="AI61"/>
       <c r="AJ61"/>
     </row>
-    <row r="62" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:36">
       <c r="B62" s="14"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
@@ -8656,7 +8889,7 @@
       <c r="AI62"/>
       <c r="AJ62"/>
     </row>
-    <row r="63" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:36">
       <c r="B63" s="14"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
@@ -8693,7 +8926,7 @@
       <c r="AI63"/>
       <c r="AJ63"/>
     </row>
-    <row r="64" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:36">
       <c r="B64" s="14"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
@@ -8730,7 +8963,7 @@
       <c r="AI64"/>
       <c r="AJ64"/>
     </row>
-    <row r="65" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:36">
       <c r="B65" s="14"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -8767,7 +9000,7 @@
       <c r="AI65"/>
       <c r="AJ65"/>
     </row>
-    <row r="66" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:36">
       <c r="B66" s="14"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -8804,7 +9037,7 @@
       <c r="AI66"/>
       <c r="AJ66"/>
     </row>
-    <row r="67" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:36">
       <c r="B67" s="14"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -8841,7 +9074,7 @@
       <c r="AI67"/>
       <c r="AJ67"/>
     </row>
-    <row r="68" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:36">
       <c r="B68" s="14"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
@@ -8851,7 +9084,7 @@
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
       <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
+      <c r="K68"/>
       <c r="L68" s="10"/>
       <c r="M68" s="10"/>
       <c r="N68" s="10"/>
@@ -8878,7 +9111,7 @@
       <c r="AI68"/>
       <c r="AJ68"/>
     </row>
-    <row r="69" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:36">
       <c r="B69" s="14"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
@@ -8915,7 +9148,7 @@
       <c r="AI69"/>
       <c r="AJ69"/>
     </row>
-    <row r="70" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:36">
       <c r="B70" s="14"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
@@ -8952,7 +9185,7 @@
       <c r="AI70"/>
       <c r="AJ70"/>
     </row>
-    <row r="71" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:36">
       <c r="B71" s="14"/>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
@@ -8989,7 +9222,7 @@
       <c r="AI71"/>
       <c r="AJ71"/>
     </row>
-    <row r="72" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:36">
       <c r="B72" s="14"/>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
@@ -9026,7 +9259,7 @@
       <c r="AI72"/>
       <c r="AJ72"/>
     </row>
-    <row r="73" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:36">
       <c r="B73" s="14"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
@@ -9063,7 +9296,7 @@
       <c r="AI73"/>
       <c r="AJ73"/>
     </row>
-    <row r="74" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:36">
       <c r="B74" s="14"/>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
@@ -9100,7 +9333,7 @@
       <c r="AI74"/>
       <c r="AJ74"/>
     </row>
-    <row r="75" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:36">
       <c r="B75" s="14"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
@@ -9137,7 +9370,7 @@
       <c r="AI75"/>
       <c r="AJ75"/>
     </row>
-    <row r="76" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:36">
       <c r="B76" s="14"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
@@ -9174,7 +9407,7 @@
       <c r="AI76"/>
       <c r="AJ76"/>
     </row>
-    <row r="77" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:36">
       <c r="B77" s="14"/>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
@@ -9211,7 +9444,7 @@
       <c r="AI77"/>
       <c r="AJ77"/>
     </row>
-    <row r="78" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:36">
       <c r="B78" s="14"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
@@ -9248,7 +9481,7 @@
       <c r="AI78"/>
       <c r="AJ78"/>
     </row>
-    <row r="79" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:36">
       <c r="B79" s="16"/>
       <c r="C79" s="17"/>
       <c r="D79" s="17"/>
@@ -9307,11 +9540,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10C1A33-E43A-4B15-A284-75C8667B9E2F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="102" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AN34" sqref="AN34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9322,13 +9555,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7155BC64-C482-45D1-904B-A1912B1B7F57}">
   <dimension ref="B3:AJ89"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AG15" sqref="AG15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:36" ht="15.75">
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -9366,7 +9599,7 @@
       <c r="AI3" s="12"/>
       <c r="AJ3" s="13"/>
     </row>
-    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:36">
       <c r="B4" s="14"/>
       <c r="C4" s="10"/>
       <c r="D4" s="24" t="s">
@@ -9404,7 +9637,7 @@
       <c r="AI4" s="10"/>
       <c r="AJ4" s="15"/>
     </row>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:36">
       <c r="B5" s="14"/>
       <c r="C5" s="10"/>
       <c r="E5" s="10"/>
@@ -9439,7 +9672,7 @@
       <c r="AI5" s="10"/>
       <c r="AJ5" s="15"/>
     </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:36">
       <c r="B6" s="14"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -9454,10 +9687,10 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
-      <c r="P6" s="38" t="s">
+      <c r="P6" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="38"/>
+      <c r="Q6" s="42"/>
       <c r="R6" s="15"/>
       <c r="T6" s="14"/>
       <c r="U6" s="10"/>
@@ -9472,13 +9705,13 @@
       <c r="AE6" s="10"/>
       <c r="AF6" s="10"/>
       <c r="AG6" s="10"/>
-      <c r="AH6" s="38" t="s">
+      <c r="AH6" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="AI6" s="38"/>
+      <c r="AI6" s="42"/>
       <c r="AJ6" s="15"/>
     </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:36">
       <c r="B7" s="14"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -9493,10 +9726,10 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="36" t="s">
+      <c r="P7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="Q7" s="36"/>
+      <c r="Q7" s="41"/>
       <c r="R7" s="15"/>
       <c r="T7" s="14"/>
       <c r="U7" s="10"/>
@@ -9512,13 +9745,13 @@
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
       <c r="AG7" s="10"/>
-      <c r="AH7" s="36" t="s">
+      <c r="AH7" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="AI7" s="36"/>
+      <c r="AI7" s="41"/>
       <c r="AJ7" s="15"/>
     </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:36">
       <c r="B8" s="14"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -9533,8 +9766,8 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
       <c r="R8" s="15"/>
       <c r="T8" s="14"/>
       <c r="U8" s="10"/>
@@ -9550,11 +9783,11 @@
       <c r="AE8" s="10"/>
       <c r="AF8" s="10"/>
       <c r="AG8" s="10"/>
-      <c r="AH8" s="36"/>
-      <c r="AI8" s="36"/>
+      <c r="AH8" s="41"/>
+      <c r="AI8" s="41"/>
       <c r="AJ8" s="15"/>
     </row>
-    <row r="9" spans="2:36" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:36" ht="18.75">
       <c r="B9" s="14"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -9569,10 +9802,10 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
-      <c r="P9" s="34" t="s">
+      <c r="P9" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="Q9" s="34"/>
+      <c r="Q9" s="39"/>
       <c r="R9" s="15"/>
       <c r="T9" s="14"/>
       <c r="U9" s="10"/>
@@ -9588,13 +9821,13 @@
       <c r="AE9" s="10"/>
       <c r="AF9" s="10"/>
       <c r="AG9" s="10"/>
-      <c r="AH9" s="34" t="s">
+      <c r="AH9" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="AI9" s="34"/>
+      <c r="AI9" s="39"/>
       <c r="AJ9" s="15"/>
     </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:36">
       <c r="B10" s="14"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -9630,7 +9863,7 @@
       <c r="AI10" s="10"/>
       <c r="AJ10" s="15"/>
     </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:36">
       <c r="B11" s="14"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -9666,7 +9899,7 @@
       <c r="AI11" s="10"/>
       <c r="AJ11" s="15"/>
     </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:36">
       <c r="B12" s="14"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -9702,7 +9935,7 @@
       <c r="AI12" s="10"/>
       <c r="AJ12" s="15"/>
     </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:36">
       <c r="B13" s="14"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -9737,7 +9970,7 @@
       <c r="AI13" s="10"/>
       <c r="AJ13" s="15"/>
     </row>
-    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:36">
       <c r="B14" s="14"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -9773,7 +10006,7 @@
       <c r="AI14" s="10"/>
       <c r="AJ14" s="15"/>
     </row>
-    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:36">
       <c r="B15" s="14"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -9809,7 +10042,7 @@
       <c r="AI15" s="10"/>
       <c r="AJ15" s="15"/>
     </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:36">
       <c r="B16" s="14"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -9845,7 +10078,7 @@
       <c r="AI16" s="10"/>
       <c r="AJ16" s="15"/>
     </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:36">
       <c r="B17" s="14"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -9881,7 +10114,7 @@
       <c r="AI17" s="10"/>
       <c r="AJ17" s="15"/>
     </row>
-    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:36">
       <c r="B18" s="14"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -9917,7 +10150,7 @@
       <c r="AI18" s="10"/>
       <c r="AJ18" s="15"/>
     </row>
-    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:36">
       <c r="B19" s="14"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -9953,7 +10186,7 @@
       <c r="AI19" s="10"/>
       <c r="AJ19" s="15"/>
     </row>
-    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:36">
       <c r="B20" s="14"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -9989,7 +10222,7 @@
       <c r="AI20" s="10"/>
       <c r="AJ20" s="15"/>
     </row>
-    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:36">
       <c r="B21" s="14"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -10025,7 +10258,7 @@
       <c r="AI21" s="10"/>
       <c r="AJ21" s="15"/>
     </row>
-    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:36">
       <c r="B22" s="14"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -10061,7 +10294,7 @@
       <c r="AI22" s="10"/>
       <c r="AJ22" s="15"/>
     </row>
-    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:36">
       <c r="B23" s="14"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -10097,7 +10330,7 @@
       <c r="AI23" s="10"/>
       <c r="AJ23" s="15"/>
     </row>
-    <row r="24" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:36">
       <c r="B24" s="14"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -10133,7 +10366,7 @@
       <c r="AI24" s="10"/>
       <c r="AJ24" s="15"/>
     </row>
-    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:36">
       <c r="B25" s="14"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -10169,7 +10402,7 @@
       <c r="AI25" s="10"/>
       <c r="AJ25" s="15"/>
     </row>
-    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:36">
       <c r="B26" s="14"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -10205,7 +10438,7 @@
       <c r="AI26" s="10"/>
       <c r="AJ26" s="15"/>
     </row>
-    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:36">
       <c r="B27" s="14"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -10241,7 +10474,7 @@
       <c r="AI27" s="10"/>
       <c r="AJ27" s="15"/>
     </row>
-    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:36">
       <c r="B28" s="14"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -10276,7 +10509,7 @@
       <c r="AI28" s="10"/>
       <c r="AJ28" s="15"/>
     </row>
-    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:36">
       <c r="B29" s="14"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -10311,7 +10544,7 @@
       <c r="AI29" s="10"/>
       <c r="AJ29" s="15"/>
     </row>
-    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:36">
       <c r="B30" s="14"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -10347,7 +10580,7 @@
       <c r="AI30" s="10"/>
       <c r="AJ30" s="15"/>
     </row>
-    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:36">
       <c r="B31" s="14"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -10383,7 +10616,7 @@
       <c r="AI31" s="10"/>
       <c r="AJ31" s="15"/>
     </row>
-    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:36">
       <c r="B32" s="14"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -10419,7 +10652,7 @@
       <c r="AI32" s="10"/>
       <c r="AJ32" s="15"/>
     </row>
-    <row r="33" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:36">
       <c r="B33" s="14"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -10455,7 +10688,7 @@
       <c r="AI33" s="10"/>
       <c r="AJ33" s="15"/>
     </row>
-    <row r="34" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:36">
       <c r="B34" s="14"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -10491,7 +10724,7 @@
       <c r="AI34" s="10"/>
       <c r="AJ34" s="15"/>
     </row>
-    <row r="35" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:36">
       <c r="B35" s="14"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -10527,7 +10760,7 @@
       <c r="AI35" s="10"/>
       <c r="AJ35" s="15"/>
     </row>
-    <row r="36" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:36">
       <c r="B36" s="14"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -10563,7 +10796,7 @@
       <c r="AI36" s="10"/>
       <c r="AJ36" s="15"/>
     </row>
-    <row r="37" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:36">
       <c r="B37" s="14"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -10599,7 +10832,7 @@
       <c r="AI37" s="10"/>
       <c r="AJ37" s="15"/>
     </row>
-    <row r="38" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:36">
       <c r="B38" s="14"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -10635,7 +10868,7 @@
       <c r="AI38" s="10"/>
       <c r="AJ38" s="15"/>
     </row>
-    <row r="39" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:36">
       <c r="B39" s="14"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -10671,7 +10904,7 @@
       <c r="AI39" s="10"/>
       <c r="AJ39" s="15"/>
     </row>
-    <row r="40" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:36">
       <c r="B40" s="16"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
@@ -10707,7 +10940,7 @@
       <c r="AI40" s="17"/>
       <c r="AJ40" s="18"/>
     </row>
-    <row r="43" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:36">
       <c r="B43" s="2"/>
       <c r="C43" s="30" t="s">
         <v>21</v>
@@ -10728,7 +10961,7 @@
       <c r="Q43" s="3"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:36">
       <c r="B44" s="5"/>
       <c r="C44" s="19"/>
       <c r="D44" s="1"/>
@@ -10747,7 +10980,7 @@
       <c r="Q44" s="1"/>
       <c r="R44" s="6"/>
     </row>
-    <row r="45" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:36">
       <c r="B45" s="5"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -10766,7 +10999,7 @@
       <c r="Q45" s="1"/>
       <c r="R45" s="6"/>
     </row>
-    <row r="46" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:36">
       <c r="B46" s="5"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -10781,13 +11014,13 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
-      <c r="P46" s="38" t="s">
+      <c r="P46" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="Q46" s="38"/>
+      <c r="Q46" s="42"/>
       <c r="R46" s="6"/>
     </row>
-    <row r="47" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:36" ht="15" customHeight="1">
       <c r="B47" s="5"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -10802,13 +11035,13 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
-      <c r="P47" s="32" t="s">
+      <c r="P47" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="Q47" s="32"/>
+      <c r="Q47" s="37"/>
       <c r="R47" s="6"/>
     </row>
-    <row r="48" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:36" ht="15" customHeight="1">
       <c r="B48" s="5"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -10823,11 +11056,11 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
-      <c r="P48" s="32"/>
-      <c r="Q48" s="32"/>
+      <c r="P48" s="37"/>
+      <c r="Q48" s="37"/>
       <c r="R48" s="6"/>
     </row>
-    <row r="49" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:18" ht="18.75">
       <c r="B49" s="5"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -10842,13 +11075,13 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
-      <c r="P49" s="33" t="s">
+      <c r="P49" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="Q49" s="33"/>
+      <c r="Q49" s="38"/>
       <c r="R49" s="6"/>
     </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:18">
       <c r="B50" s="5"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -10867,7 +11100,7 @@
       <c r="Q50" s="1"/>
       <c r="R50" s="6"/>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:18">
       <c r="B51" s="5"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -10886,7 +11119,7 @@
       <c r="Q51" s="1"/>
       <c r="R51" s="6"/>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:18">
       <c r="B52" s="5"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -10905,7 +11138,7 @@
       <c r="Q52" s="1"/>
       <c r="R52" s="6"/>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:18">
       <c r="B53" s="5"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -10924,7 +11157,7 @@
       <c r="Q53" s="1"/>
       <c r="R53" s="6"/>
     </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:18">
       <c r="B54" s="5"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -10943,7 +11176,7 @@
       <c r="Q54" s="1"/>
       <c r="R54" s="6"/>
     </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:18">
       <c r="B55" s="5"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -10962,7 +11195,7 @@
       <c r="Q55" s="1"/>
       <c r="R55" s="6"/>
     </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:18">
       <c r="B56" s="5"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -10981,7 +11214,7 @@
       <c r="Q56" s="1"/>
       <c r="R56" s="6"/>
     </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:18">
       <c r="B57" s="5"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -11000,7 +11233,7 @@
       <c r="Q57" s="1"/>
       <c r="R57" s="6"/>
     </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:18">
       <c r="B58" s="5"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -11019,7 +11252,7 @@
       <c r="Q58" s="1"/>
       <c r="R58" s="6"/>
     </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:18">
       <c r="B59" s="5"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -11038,7 +11271,7 @@
       <c r="Q59" s="1"/>
       <c r="R59" s="6"/>
     </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:18">
       <c r="B60" s="5"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -11057,7 +11290,7 @@
       <c r="Q60" s="1"/>
       <c r="R60" s="6"/>
     </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:18">
       <c r="B61" s="5"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -11076,7 +11309,7 @@
       <c r="Q61" s="1"/>
       <c r="R61" s="6"/>
     </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:18">
       <c r="B62" s="5"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -11095,7 +11328,7 @@
       <c r="Q62" s="1"/>
       <c r="R62" s="6"/>
     </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:18">
       <c r="B63" s="5"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -11114,7 +11347,7 @@
       <c r="Q63" s="1"/>
       <c r="R63" s="6"/>
     </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:18">
       <c r="B64" s="5"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -11133,7 +11366,7 @@
       <c r="Q64" s="1"/>
       <c r="R64" s="6"/>
     </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:18">
       <c r="B65" s="5"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -11152,7 +11385,7 @@
       <c r="Q65" s="1"/>
       <c r="R65" s="6"/>
     </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:18">
       <c r="B66" s="5"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -11171,7 +11404,7 @@
       <c r="Q66" s="1"/>
       <c r="R66" s="6"/>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:18">
       <c r="B67" s="5"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -11190,7 +11423,7 @@
       <c r="Q67" s="1"/>
       <c r="R67" s="6"/>
     </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:18">
       <c r="B68" s="5"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -11209,7 +11442,7 @@
       <c r="Q68" s="1"/>
       <c r="R68" s="6"/>
     </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:18">
       <c r="B69" s="5"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -11228,7 +11461,7 @@
       <c r="Q69" s="1"/>
       <c r="R69" s="6"/>
     </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:18">
       <c r="B70" s="5"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -11247,7 +11480,7 @@
       <c r="Q70" s="1"/>
       <c r="R70" s="6"/>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:18">
       <c r="B71" s="5"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -11266,7 +11499,7 @@
       <c r="Q71" s="1"/>
       <c r="R71" s="6"/>
     </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:18">
       <c r="B72" s="5"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -11285,7 +11518,7 @@
       <c r="Q72" s="1"/>
       <c r="R72" s="6"/>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:18">
       <c r="B73" s="5"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -11304,7 +11537,7 @@
       <c r="Q73" s="1"/>
       <c r="R73" s="6"/>
     </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:18">
       <c r="B74" s="5"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -11323,7 +11556,7 @@
       <c r="Q74" s="1"/>
       <c r="R74" s="6"/>
     </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:18">
       <c r="B75" s="5"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -11342,7 +11575,7 @@
       <c r="Q75" s="1"/>
       <c r="R75" s="6"/>
     </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:18">
       <c r="B76" s="5"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -11361,7 +11594,7 @@
       <c r="Q76" s="1"/>
       <c r="R76" s="6"/>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:18">
       <c r="B77" s="5"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -11380,7 +11613,7 @@
       <c r="Q77" s="1"/>
       <c r="R77" s="6"/>
     </row>
-    <row r="78" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:18">
       <c r="B78" s="5"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -11399,7 +11632,7 @@
       <c r="Q78" s="1"/>
       <c r="R78" s="6"/>
     </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:18">
       <c r="B79" s="5"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -11418,7 +11651,7 @@
       <c r="Q79" s="1"/>
       <c r="R79" s="6"/>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:18">
       <c r="B80" s="7"/>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
@@ -11437,63 +11670,63 @@
       <c r="Q80" s="8"/>
       <c r="R80" s="9"/>
     </row>
-    <row r="85" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B85" s="37" t="s">
+    <row r="85" spans="2:18">
+      <c r="B85" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C85" s="37"/>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="37"/>
-      <c r="K85" s="37"/>
-      <c r="L85" s="37"/>
-      <c r="M85" s="37"/>
-      <c r="N85" s="37"/>
-      <c r="O85" s="37"/>
-      <c r="P85" s="37"/>
-      <c r="Q85" s="37"/>
-      <c r="R85" s="37"/>
-    </row>
-    <row r="86" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B86" s="37"/>
-      <c r="C86" s="37"/>
-      <c r="D86" s="37"/>
-      <c r="E86" s="37"/>
-      <c r="F86" s="37"/>
-      <c r="G86" s="37"/>
-      <c r="H86" s="37"/>
-      <c r="I86" s="37"/>
-      <c r="J86" s="37"/>
-      <c r="K86" s="37"/>
-      <c r="L86" s="37"/>
-      <c r="M86" s="37"/>
-      <c r="N86" s="37"/>
-      <c r="O86" s="37"/>
-      <c r="P86" s="37"/>
-      <c r="Q86" s="37"/>
-      <c r="R86" s="37"/>
-    </row>
-    <row r="89" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C85" s="43"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="43"/>
+      <c r="F85" s="43"/>
+      <c r="G85" s="43"/>
+      <c r="H85" s="43"/>
+      <c r="I85" s="43"/>
+      <c r="J85" s="43"/>
+      <c r="K85" s="43"/>
+      <c r="L85" s="43"/>
+      <c r="M85" s="43"/>
+      <c r="N85" s="43"/>
+      <c r="O85" s="43"/>
+      <c r="P85" s="43"/>
+      <c r="Q85" s="43"/>
+      <c r="R85" s="43"/>
+    </row>
+    <row r="86" spans="2:18">
+      <c r="B86" s="43"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="43"/>
+      <c r="F86" s="43"/>
+      <c r="G86" s="43"/>
+      <c r="H86" s="43"/>
+      <c r="I86" s="43"/>
+      <c r="J86" s="43"/>
+      <c r="K86" s="43"/>
+      <c r="L86" s="43"/>
+      <c r="M86" s="43"/>
+      <c r="N86" s="43"/>
+      <c r="O86" s="43"/>
+      <c r="P86" s="43"/>
+      <c r="Q86" s="43"/>
+      <c r="R86" s="43"/>
+    </row>
+    <row r="89" spans="2:18">
       <c r="E89" s="23" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B85:R86"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="P47:Q48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="P6:Q6"/>
     <mergeCell ref="AH6:AI6"/>
     <mergeCell ref="P7:Q8"/>
     <mergeCell ref="AH7:AI8"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="B85:R86"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="P47:Q48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="P6:Q6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11505,13 +11738,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF690D20-3AF0-4911-A815-03050030AE1D}">
   <dimension ref="B2:AJ79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A34" zoomScale="96" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AR27" sqref="AR27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:36">
       <c r="B2" s="11"/>
       <c r="C2" s="30" t="s">
         <v>22</v>
@@ -11551,7 +11784,7 @@
       <c r="AI2" s="12"/>
       <c r="AJ2" s="13"/>
     </row>
-    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:36">
       <c r="B3" s="14"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -11587,7 +11820,7 @@
       <c r="AI3" s="10"/>
       <c r="AJ3" s="15"/>
     </row>
-    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:36">
       <c r="B4" s="14"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -11623,7 +11856,7 @@
       <c r="AI4" s="10"/>
       <c r="AJ4" s="15"/>
     </row>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:36">
       <c r="B5" s="14"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -11638,10 +11871,10 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
-      <c r="P5" s="38" t="s">
+      <c r="P5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="38"/>
+      <c r="Q5" s="42"/>
       <c r="R5" s="15"/>
       <c r="T5" s="14"/>
       <c r="U5" s="10"/>
@@ -11657,13 +11890,13 @@
       <c r="AE5" s="10"/>
       <c r="AF5" s="10"/>
       <c r="AG5" s="10"/>
-      <c r="AH5" s="38" t="s">
+      <c r="AH5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="AI5" s="38"/>
+      <c r="AI5" s="42"/>
       <c r="AJ5" s="15"/>
     </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:36">
       <c r="B6" s="14"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -11678,10 +11911,10 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
-      <c r="P6" s="36" t="s">
+      <c r="P6" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="36"/>
+      <c r="Q6" s="41"/>
       <c r="R6" s="15"/>
       <c r="T6" s="14"/>
       <c r="U6" s="10"/>
@@ -11697,13 +11930,13 @@
       <c r="AE6" s="10"/>
       <c r="AF6" s="10"/>
       <c r="AG6" s="10"/>
-      <c r="AH6" s="36" t="s">
+      <c r="AH6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="AI6" s="36"/>
+      <c r="AI6" s="41"/>
       <c r="AJ6" s="15"/>
     </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:36">
       <c r="B7" s="14"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -11718,8 +11951,8 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
       <c r="R7" s="15"/>
       <c r="T7" s="14"/>
       <c r="U7" s="10"/>
@@ -11735,11 +11968,11 @@
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
       <c r="AG7" s="10"/>
-      <c r="AH7" s="36"/>
-      <c r="AI7" s="36"/>
+      <c r="AH7" s="41"/>
+      <c r="AI7" s="41"/>
       <c r="AJ7" s="15"/>
     </row>
-    <row r="8" spans="2:36" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:36" ht="18.75">
       <c r="B8" s="14"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -11754,10 +11987,10 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
-      <c r="P8" s="34" t="s">
+      <c r="P8" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="Q8" s="34"/>
+      <c r="Q8" s="39"/>
       <c r="R8" s="15"/>
       <c r="T8" s="14"/>
       <c r="U8" s="10"/>
@@ -11773,13 +12006,13 @@
       <c r="AE8" s="10"/>
       <c r="AF8" s="10"/>
       <c r="AG8" s="10"/>
-      <c r="AH8" s="34" t="s">
+      <c r="AH8" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="AI8" s="34"/>
+      <c r="AI8" s="39"/>
       <c r="AJ8" s="15"/>
     </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:36">
       <c r="B9" s="14"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -11815,7 +12048,7 @@
       <c r="AI9" s="10"/>
       <c r="AJ9" s="15"/>
     </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:36">
       <c r="B10" s="14"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -11850,7 +12083,7 @@
       <c r="AI10" s="10"/>
       <c r="AJ10" s="15"/>
     </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:36">
       <c r="B11" s="14"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -11886,7 +12119,7 @@
       <c r="AI11" s="10"/>
       <c r="AJ11" s="15"/>
     </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:36">
       <c r="B12" s="14"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -11922,7 +12155,7 @@
       <c r="AI12" s="10"/>
       <c r="AJ12" s="15"/>
     </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:36">
       <c r="B13" s="14"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -11957,7 +12190,7 @@
       <c r="AI13" s="10"/>
       <c r="AJ13" s="15"/>
     </row>
-    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:36">
       <c r="B14" s="14"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -11993,7 +12226,7 @@
       <c r="AI14" s="10"/>
       <c r="AJ14" s="15"/>
     </row>
-    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:36">
       <c r="B15" s="14"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -12029,7 +12262,7 @@
       <c r="AI15" s="10"/>
       <c r="AJ15" s="15"/>
     </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:36">
       <c r="B16" s="14"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -12065,7 +12298,7 @@
       <c r="AI16" s="10"/>
       <c r="AJ16" s="15"/>
     </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:36">
       <c r="B17" s="14"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -12101,7 +12334,7 @@
       <c r="AI17" s="10"/>
       <c r="AJ17" s="15"/>
     </row>
-    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:36">
       <c r="B18" s="14"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -12137,7 +12370,7 @@
       <c r="AI18" s="10"/>
       <c r="AJ18" s="15"/>
     </row>
-    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:36">
       <c r="B19" s="14"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -12173,7 +12406,7 @@
       <c r="AI19" s="10"/>
       <c r="AJ19" s="15"/>
     </row>
-    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:36">
       <c r="B20" s="14"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -12209,7 +12442,7 @@
       <c r="AI20" s="10"/>
       <c r="AJ20" s="15"/>
     </row>
-    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:36">
       <c r="B21" s="14"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -12245,7 +12478,7 @@
       <c r="AI21" s="10"/>
       <c r="AJ21" s="15"/>
     </row>
-    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:36">
       <c r="B22" s="14"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -12280,7 +12513,7 @@
       <c r="AI22" s="10"/>
       <c r="AJ22" s="15"/>
     </row>
-    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:36">
       <c r="B23" s="14"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -12315,7 +12548,7 @@
       <c r="AI23" s="10"/>
       <c r="AJ23" s="15"/>
     </row>
-    <row r="24" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:36">
       <c r="B24" s="14"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -12351,7 +12584,7 @@
       <c r="AI24" s="10"/>
       <c r="AJ24" s="15"/>
     </row>
-    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:36">
       <c r="B25" s="14"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -12387,7 +12620,7 @@
       <c r="AI25" s="10"/>
       <c r="AJ25" s="15"/>
     </row>
-    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:36">
       <c r="B26" s="14"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -12423,7 +12656,7 @@
       <c r="AI26" s="10"/>
       <c r="AJ26" s="15"/>
     </row>
-    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:36">
       <c r="B27" s="14"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -12459,7 +12692,7 @@
       <c r="AI27" s="10"/>
       <c r="AJ27" s="15"/>
     </row>
-    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:36">
       <c r="B28" s="14"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -12495,7 +12728,7 @@
       <c r="AI28" s="10"/>
       <c r="AJ28" s="15"/>
     </row>
-    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:36">
       <c r="B29" s="14"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -12531,7 +12764,7 @@
       <c r="AI29" s="10"/>
       <c r="AJ29" s="15"/>
     </row>
-    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:36">
       <c r="B30" s="14"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -12567,7 +12800,7 @@
       <c r="AI30" s="10"/>
       <c r="AJ30" s="15"/>
     </row>
-    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:36">
       <c r="B31" s="14"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -12603,7 +12836,7 @@
       <c r="AI31" s="10"/>
       <c r="AJ31" s="15"/>
     </row>
-    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:36">
       <c r="B32" s="14"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -12639,7 +12872,7 @@
       <c r="AI32" s="10"/>
       <c r="AJ32" s="15"/>
     </row>
-    <row r="33" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:36">
       <c r="B33" s="14"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -12675,7 +12908,7 @@
       <c r="AI33" s="10"/>
       <c r="AJ33" s="15"/>
     </row>
-    <row r="34" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:36">
       <c r="B34" s="14"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -12711,7 +12944,7 @@
       <c r="AI34" s="10"/>
       <c r="AJ34" s="15"/>
     </row>
-    <row r="35" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:36">
       <c r="B35" s="14"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -12747,7 +12980,7 @@
       <c r="AI35" s="10"/>
       <c r="AJ35" s="15"/>
     </row>
-    <row r="36" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:36">
       <c r="B36" s="14"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -12783,7 +13016,7 @@
       <c r="AI36" s="10"/>
       <c r="AJ36" s="15"/>
     </row>
-    <row r="37" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:36">
       <c r="B37" s="14"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -12819,7 +13052,7 @@
       <c r="AI37" s="10"/>
       <c r="AJ37" s="15"/>
     </row>
-    <row r="38" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:36">
       <c r="B38" s="14"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -12855,7 +13088,7 @@
       <c r="AI38" s="10"/>
       <c r="AJ38" s="15"/>
     </row>
-    <row r="39" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:36">
       <c r="B39" s="16"/>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
@@ -12891,7 +13124,7 @@
       <c r="AI39" s="17"/>
       <c r="AJ39" s="18"/>
     </row>
-    <row r="42" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:36">
       <c r="B42" s="2"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -12910,7 +13143,7 @@
       <c r="Q42" s="3"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:36">
       <c r="B43" s="5"/>
       <c r="C43" s="19"/>
       <c r="D43" s="23" t="s">
@@ -12931,7 +13164,7 @@
       <c r="Q43" s="1"/>
       <c r="R43" s="6"/>
     </row>
-    <row r="44" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:36">
       <c r="B44" s="5"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -12950,7 +13183,7 @@
       <c r="Q44" s="1"/>
       <c r="R44" s="6"/>
     </row>
-    <row r="45" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:36">
       <c r="B45" s="5"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -12965,13 +13198,13 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
-      <c r="P45" s="38" t="s">
+      <c r="P45" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="Q45" s="38"/>
+      <c r="Q45" s="42"/>
       <c r="R45" s="6"/>
     </row>
-    <row r="46" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:36">
       <c r="B46" s="5"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -12986,13 +13219,13 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
-      <c r="P46" s="32" t="s">
+      <c r="P46" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="Q46" s="32"/>
+      <c r="Q46" s="37"/>
       <c r="R46" s="6"/>
     </row>
-    <row r="47" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:36">
       <c r="B47" s="5"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -13007,11 +13240,11 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
-      <c r="P47" s="32"/>
-      <c r="Q47" s="32"/>
+      <c r="P47" s="37"/>
+      <c r="Q47" s="37"/>
       <c r="R47" s="6"/>
     </row>
-    <row r="48" spans="2:36" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:36" ht="18.75">
       <c r="B48" s="5"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -13026,13 +13259,13 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
-      <c r="P48" s="33" t="s">
+      <c r="P48" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="Q48" s="33"/>
+      <c r="Q48" s="38"/>
       <c r="R48" s="6"/>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:18">
       <c r="B49" s="5"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -13051,7 +13284,7 @@
       <c r="Q49" s="1"/>
       <c r="R49" s="6"/>
     </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:18">
       <c r="B50" s="5"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -13070,7 +13303,7 @@
       <c r="Q50" s="1"/>
       <c r="R50" s="6"/>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:18">
       <c r="B51" s="5"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -13089,7 +13322,7 @@
       <c r="Q51" s="1"/>
       <c r="R51" s="6"/>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:18">
       <c r="B52" s="5"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -13108,7 +13341,7 @@
       <c r="Q52" s="1"/>
       <c r="R52" s="6"/>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:18">
       <c r="B53" s="5"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -13127,7 +13360,7 @@
       <c r="Q53" s="1"/>
       <c r="R53" s="6"/>
     </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:18">
       <c r="B54" s="5"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -13146,7 +13379,7 @@
       <c r="Q54" s="1"/>
       <c r="R54" s="6"/>
     </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:18">
       <c r="B55" s="5"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -13165,7 +13398,7 @@
       <c r="Q55" s="1"/>
       <c r="R55" s="6"/>
     </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:18">
       <c r="B56" s="5"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -13184,7 +13417,7 @@
       <c r="Q56" s="1"/>
       <c r="R56" s="6"/>
     </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:18">
       <c r="B57" s="5"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -13203,7 +13436,7 @@
       <c r="Q57" s="1"/>
       <c r="R57" s="6"/>
     </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:18">
       <c r="B58" s="5"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -13222,7 +13455,7 @@
       <c r="Q58" s="1"/>
       <c r="R58" s="6"/>
     </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:18">
       <c r="B59" s="5"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -13241,7 +13474,7 @@
       <c r="Q59" s="1"/>
       <c r="R59" s="6"/>
     </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:18">
       <c r="B60" s="5"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -13260,7 +13493,7 @@
       <c r="Q60" s="1"/>
       <c r="R60" s="6"/>
     </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:18">
       <c r="B61" s="5"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -13278,7 +13511,7 @@
       <c r="Q61" s="1"/>
       <c r="R61" s="6"/>
     </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:18">
       <c r="B62" s="5"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -13297,7 +13530,7 @@
       <c r="Q62" s="1"/>
       <c r="R62" s="6"/>
     </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:18">
       <c r="B63" s="5"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -13316,7 +13549,7 @@
       <c r="Q63" s="1"/>
       <c r="R63" s="6"/>
     </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:18">
       <c r="B64" s="5"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -13335,7 +13568,7 @@
       <c r="Q64" s="1"/>
       <c r="R64" s="6"/>
     </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:18">
       <c r="B65" s="5"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -13354,7 +13587,7 @@
       <c r="Q65" s="1"/>
       <c r="R65" s="6"/>
     </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:18">
       <c r="B66" s="5"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -13373,7 +13606,7 @@
       <c r="Q66" s="1"/>
       <c r="R66" s="6"/>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:18">
       <c r="B67" s="5"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -13392,7 +13625,7 @@
       <c r="Q67" s="1"/>
       <c r="R67" s="6"/>
     </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:18">
       <c r="B68" s="5"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -13411,7 +13644,7 @@
       <c r="Q68" s="1"/>
       <c r="R68" s="6"/>
     </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:18">
       <c r="B69" s="5"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -13430,7 +13663,7 @@
       <c r="Q69" s="1"/>
       <c r="R69" s="6"/>
     </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:18">
       <c r="B70" s="5"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -13449,7 +13682,7 @@
       <c r="Q70" s="1"/>
       <c r="R70" s="6"/>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:18">
       <c r="B71" s="5"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -13468,7 +13701,7 @@
       <c r="Q71" s="1"/>
       <c r="R71" s="6"/>
     </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:18">
       <c r="B72" s="5"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -13487,7 +13720,7 @@
       <c r="Q72" s="1"/>
       <c r="R72" s="6"/>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:18">
       <c r="B73" s="5"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -13506,7 +13739,7 @@
       <c r="Q73" s="1"/>
       <c r="R73" s="6"/>
     </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:18">
       <c r="B74" s="5"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -13525,7 +13758,7 @@
       <c r="Q74" s="1"/>
       <c r="R74" s="6"/>
     </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:18">
       <c r="B75" s="5"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -13544,7 +13777,7 @@
       <c r="Q75" s="1"/>
       <c r="R75" s="6"/>
     </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:18">
       <c r="B76" s="5"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -13563,7 +13796,7 @@
       <c r="Q76" s="1"/>
       <c r="R76" s="6"/>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:18">
       <c r="B77" s="5"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -13582,7 +13815,7 @@
       <c r="Q77" s="1"/>
       <c r="R77" s="6"/>
     </row>
-    <row r="78" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:18">
       <c r="B78" s="5"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -13601,7 +13834,7 @@
       <c r="Q78" s="1"/>
       <c r="R78" s="6"/>
     </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:18">
       <c r="B79" s="7"/>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
@@ -13642,13 +13875,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F21EAB9-BF43-48C4-8C18-F2ACFC45CB60}">
   <dimension ref="B2:AJ79"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AL27" sqref="AL27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE35" sqref="AE35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:36">
       <c r="B2" s="11"/>
       <c r="C2" s="12"/>
       <c r="D2" s="23" t="s">
@@ -13686,7 +13919,7 @@
       <c r="AI2" s="12"/>
       <c r="AJ2" s="13"/>
     </row>
-    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:36">
       <c r="B3" s="14"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -13724,7 +13957,7 @@
       <c r="AI3" s="10"/>
       <c r="AJ3" s="15"/>
     </row>
-    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:36">
       <c r="B4" s="14"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -13760,7 +13993,7 @@
       <c r="AI4" s="10"/>
       <c r="AJ4" s="15"/>
     </row>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:36">
       <c r="B5" s="14"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -13775,10 +14008,10 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
-      <c r="P5" s="38" t="s">
+      <c r="P5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="38"/>
+      <c r="Q5" s="42"/>
       <c r="R5" s="15"/>
       <c r="T5" s="14"/>
       <c r="U5" s="10"/>
@@ -13794,13 +14027,13 @@
       <c r="AE5" s="10"/>
       <c r="AF5" s="10"/>
       <c r="AG5" s="10"/>
-      <c r="AH5" s="38" t="s">
+      <c r="AH5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="AI5" s="38"/>
+      <c r="AI5" s="42"/>
       <c r="AJ5" s="15"/>
     </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:36">
       <c r="B6" s="14"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -13815,10 +14048,10 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
-      <c r="P6" s="36" t="s">
+      <c r="P6" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="36"/>
+      <c r="Q6" s="41"/>
       <c r="R6" s="15"/>
       <c r="T6" s="14"/>
       <c r="U6" s="10"/>
@@ -13834,13 +14067,13 @@
       <c r="AE6" s="10"/>
       <c r="AF6" s="10"/>
       <c r="AG6" s="10"/>
-      <c r="AH6" s="36" t="s">
+      <c r="AH6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="AI6" s="36"/>
+      <c r="AI6" s="41"/>
       <c r="AJ6" s="15"/>
     </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:36">
       <c r="B7" s="14"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -13855,8 +14088,8 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
       <c r="R7" s="15"/>
       <c r="T7" s="14"/>
       <c r="U7" s="10"/>
@@ -13872,11 +14105,11 @@
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
       <c r="AG7" s="10"/>
-      <c r="AH7" s="36"/>
-      <c r="AI7" s="36"/>
+      <c r="AH7" s="41"/>
+      <c r="AI7" s="41"/>
       <c r="AJ7" s="15"/>
     </row>
-    <row r="8" spans="2:36" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:36" ht="18.75">
       <c r="B8" s="14"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -13891,10 +14124,10 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
-      <c r="P8" s="34" t="s">
+      <c r="P8" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="Q8" s="34"/>
+      <c r="Q8" s="39"/>
       <c r="R8" s="15"/>
       <c r="T8" s="14"/>
       <c r="U8" s="10"/>
@@ -13910,13 +14143,13 @@
       <c r="AE8" s="10"/>
       <c r="AF8" s="10"/>
       <c r="AG8" s="10"/>
-      <c r="AH8" s="34" t="s">
+      <c r="AH8" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="AI8" s="34"/>
+      <c r="AI8" s="39"/>
       <c r="AJ8" s="15"/>
     </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:36">
       <c r="B9" s="14"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -13952,7 +14185,7 @@
       <c r="AI9" s="10"/>
       <c r="AJ9" s="15"/>
     </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:36">
       <c r="B10" s="14"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -13987,7 +14220,7 @@
       <c r="AI10" s="10"/>
       <c r="AJ10" s="15"/>
     </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:36">
       <c r="B11" s="14"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -14023,7 +14256,7 @@
       <c r="AI11" s="10"/>
       <c r="AJ11" s="15"/>
     </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:36">
       <c r="B12" s="14"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -14059,7 +14292,7 @@
       <c r="AI12" s="10"/>
       <c r="AJ12" s="15"/>
     </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:36">
       <c r="B13" s="14"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -14095,7 +14328,7 @@
       <c r="AI13" s="10"/>
       <c r="AJ13" s="15"/>
     </row>
-    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:36">
       <c r="B14" s="14"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -14131,7 +14364,7 @@
       <c r="AI14" s="10"/>
       <c r="AJ14" s="15"/>
     </row>
-    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:36">
       <c r="B15" s="14"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -14166,7 +14399,7 @@
       <c r="AI15" s="10"/>
       <c r="AJ15" s="15"/>
     </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:36">
       <c r="B16" s="14"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -14202,7 +14435,7 @@
       <c r="AI16" s="10"/>
       <c r="AJ16" s="15"/>
     </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:36">
       <c r="B17" s="14"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -14238,7 +14471,7 @@
       <c r="AI17" s="10"/>
       <c r="AJ17" s="15"/>
     </row>
-    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:36">
       <c r="B18" s="14"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -14274,7 +14507,7 @@
       <c r="AI18" s="10"/>
       <c r="AJ18" s="15"/>
     </row>
-    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:36">
       <c r="B19" s="14"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -14310,7 +14543,7 @@
       <c r="AI19" s="10"/>
       <c r="AJ19" s="15"/>
     </row>
-    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:36">
       <c r="B20" s="14"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -14346,7 +14579,7 @@
       <c r="AI20" s="10"/>
       <c r="AJ20" s="15"/>
     </row>
-    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:36">
       <c r="B21" s="14"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -14382,7 +14615,7 @@
       <c r="AI21" s="10"/>
       <c r="AJ21" s="15"/>
     </row>
-    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:36">
       <c r="B22" s="14"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -14418,7 +14651,7 @@
       <c r="AI22" s="10"/>
       <c r="AJ22" s="15"/>
     </row>
-    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:36">
       <c r="B23" s="14"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -14454,7 +14687,7 @@
       <c r="AI23" s="10"/>
       <c r="AJ23" s="15"/>
     </row>
-    <row r="24" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:36">
       <c r="B24" s="14"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -14489,7 +14722,7 @@
       <c r="AI24" s="10"/>
       <c r="AJ24" s="15"/>
     </row>
-    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:36">
       <c r="B25" s="14"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -14525,7 +14758,7 @@
       <c r="AI25" s="10"/>
       <c r="AJ25" s="15"/>
     </row>
-    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:36">
       <c r="B26" s="14"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -14561,7 +14794,7 @@
       <c r="AI26" s="10"/>
       <c r="AJ26" s="15"/>
     </row>
-    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:36">
       <c r="B27" s="14"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -14597,7 +14830,7 @@
       <c r="AI27" s="10"/>
       <c r="AJ27" s="15"/>
     </row>
-    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:36">
       <c r="B28" s="14"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -14633,7 +14866,7 @@
       <c r="AI28" s="10"/>
       <c r="AJ28" s="15"/>
     </row>
-    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:36">
       <c r="B29" s="14"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -14669,7 +14902,7 @@
       <c r="AI29" s="10"/>
       <c r="AJ29" s="15"/>
     </row>
-    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:36">
       <c r="B30" s="14"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -14705,7 +14938,7 @@
       <c r="AI30" s="10"/>
       <c r="AJ30" s="15"/>
     </row>
-    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:36">
       <c r="B31" s="14"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -14741,7 +14974,7 @@
       <c r="AI31" s="10"/>
       <c r="AJ31" s="15"/>
     </row>
-    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:36">
       <c r="B32" s="14"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -14777,7 +15010,7 @@
       <c r="AI32" s="10"/>
       <c r="AJ32" s="15"/>
     </row>
-    <row r="33" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:36">
       <c r="B33" s="14"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -14813,7 +15046,7 @@
       <c r="AI33" s="10"/>
       <c r="AJ33" s="15"/>
     </row>
-    <row r="34" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:36">
       <c r="B34" s="14"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -14849,7 +15082,7 @@
       <c r="AI34" s="10"/>
       <c r="AJ34" s="15"/>
     </row>
-    <row r="35" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:36">
       <c r="B35" s="14"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -14885,7 +15118,7 @@
       <c r="AI35" s="10"/>
       <c r="AJ35" s="15"/>
     </row>
-    <row r="36" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:36">
       <c r="B36" s="14"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -14920,7 +15153,7 @@
       <c r="AI36" s="10"/>
       <c r="AJ36" s="15"/>
     </row>
-    <row r="37" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:36">
       <c r="B37" s="14"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -14956,7 +15189,7 @@
       <c r="AI37" s="10"/>
       <c r="AJ37" s="15"/>
     </row>
-    <row r="38" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:36">
       <c r="B38" s="14"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -14992,7 +15225,7 @@
       <c r="AI38" s="10"/>
       <c r="AJ38" s="15"/>
     </row>
-    <row r="39" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:36">
       <c r="B39" s="16"/>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
@@ -15028,7 +15261,7 @@
       <c r="AI39" s="17"/>
       <c r="AJ39" s="18"/>
     </row>
-    <row r="42" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:36">
       <c r="B42" s="2"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -15047,7 +15280,7 @@
       <c r="Q42" s="3"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:36">
       <c r="B43" s="5"/>
       <c r="C43" s="19"/>
       <c r="D43" s="23" t="s">
@@ -15068,7 +15301,7 @@
       <c r="Q43" s="1"/>
       <c r="R43" s="6"/>
     </row>
-    <row r="44" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:36">
       <c r="B44" s="5"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -15087,7 +15320,7 @@
       <c r="Q44" s="1"/>
       <c r="R44" s="6"/>
     </row>
-    <row r="45" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:36">
       <c r="B45" s="5"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -15102,13 +15335,13 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
-      <c r="P45" s="38" t="s">
+      <c r="P45" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="Q45" s="38"/>
+      <c r="Q45" s="42"/>
       <c r="R45" s="6"/>
     </row>
-    <row r="46" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:36">
       <c r="B46" s="5"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -15122,13 +15355,13 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
-      <c r="P46" s="32" t="s">
+      <c r="P46" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="Q46" s="32"/>
+      <c r="Q46" s="37"/>
       <c r="R46" s="6"/>
     </row>
-    <row r="47" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:36">
       <c r="B47" s="5"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -15143,11 +15376,11 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
-      <c r="P47" s="32"/>
-      <c r="Q47" s="32"/>
+      <c r="P47" s="37"/>
+      <c r="Q47" s="37"/>
       <c r="R47" s="6"/>
     </row>
-    <row r="48" spans="2:36" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:36" ht="18.75">
       <c r="B48" s="5"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -15162,13 +15395,13 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
-      <c r="P48" s="33" t="s">
+      <c r="P48" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="Q48" s="33"/>
+      <c r="Q48" s="38"/>
       <c r="R48" s="6"/>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:18">
       <c r="B49" s="5"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -15187,7 +15420,7 @@
       <c r="Q49" s="1"/>
       <c r="R49" s="6"/>
     </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:18">
       <c r="B50" s="5"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -15206,7 +15439,7 @@
       <c r="Q50" s="1"/>
       <c r="R50" s="6"/>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:18">
       <c r="B51" s="5"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -15225,7 +15458,7 @@
       <c r="Q51" s="1"/>
       <c r="R51" s="6"/>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:18">
       <c r="B52" s="5"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -15244,7 +15477,7 @@
       <c r="Q52" s="1"/>
       <c r="R52" s="6"/>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:18">
       <c r="B53" s="5"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -15263,7 +15496,7 @@
       <c r="Q53" s="1"/>
       <c r="R53" s="6"/>
     </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:18">
       <c r="B54" s="5"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -15282,7 +15515,7 @@
       <c r="Q54" s="1"/>
       <c r="R54" s="6"/>
     </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:18">
       <c r="B55" s="5"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -15301,7 +15534,7 @@
       <c r="Q55" s="1"/>
       <c r="R55" s="6"/>
     </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:18">
       <c r="B56" s="5"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -15320,7 +15553,7 @@
       <c r="Q56" s="1"/>
       <c r="R56" s="6"/>
     </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:18">
       <c r="B57" s="5"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -15339,7 +15572,7 @@
       <c r="Q57" s="1"/>
       <c r="R57" s="6"/>
     </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:18">
       <c r="B58" s="5"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -15358,7 +15591,7 @@
       <c r="Q58" s="1"/>
       <c r="R58" s="6"/>
     </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:18">
       <c r="B59" s="5"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -15377,7 +15610,7 @@
       <c r="Q59" s="1"/>
       <c r="R59" s="6"/>
     </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:18">
       <c r="B60" s="5"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -15396,7 +15629,7 @@
       <c r="Q60" s="1"/>
       <c r="R60" s="6"/>
     </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:18">
       <c r="B61" s="5"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -15415,7 +15648,7 @@
       <c r="Q61" s="1"/>
       <c r="R61" s="6"/>
     </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:18">
       <c r="B62" s="5"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -15433,7 +15666,7 @@
       <c r="Q62" s="1"/>
       <c r="R62" s="6"/>
     </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:18">
       <c r="B63" s="5"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -15452,7 +15685,7 @@
       <c r="Q63" s="1"/>
       <c r="R63" s="6"/>
     </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:18">
       <c r="B64" s="5"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -15471,7 +15704,7 @@
       <c r="Q64" s="1"/>
       <c r="R64" s="6"/>
     </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:18">
       <c r="B65" s="5"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -15490,7 +15723,7 @@
       <c r="Q65" s="1"/>
       <c r="R65" s="6"/>
     </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:18">
       <c r="B66" s="5"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -15509,7 +15742,7 @@
       <c r="Q66" s="1"/>
       <c r="R66" s="6"/>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:18">
       <c r="B67" s="5"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -15528,7 +15761,7 @@
       <c r="Q67" s="1"/>
       <c r="R67" s="6"/>
     </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:18">
       <c r="B68" s="5"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -15547,7 +15780,7 @@
       <c r="Q68" s="1"/>
       <c r="R68" s="6"/>
     </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:18">
       <c r="B69" s="5"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -15566,7 +15799,7 @@
       <c r="Q69" s="1"/>
       <c r="R69" s="6"/>
     </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:18">
       <c r="B70" s="5"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -15585,7 +15818,7 @@
       <c r="Q70" s="1"/>
       <c r="R70" s="6"/>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:18">
       <c r="B71" s="5"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -15604,7 +15837,7 @@
       <c r="Q71" s="1"/>
       <c r="R71" s="6"/>
     </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:18">
       <c r="B72" s="5"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -15623,7 +15856,7 @@
       <c r="Q72" s="1"/>
       <c r="R72" s="6"/>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:18">
       <c r="B73" s="5"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -15642,7 +15875,7 @@
       <c r="Q73" s="1"/>
       <c r="R73" s="6"/>
     </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:18">
       <c r="B74" s="5"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -15661,7 +15894,7 @@
       <c r="Q74" s="1"/>
       <c r="R74" s="6"/>
     </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:18">
       <c r="B75" s="5"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -15680,7 +15913,7 @@
       <c r="Q75" s="1"/>
       <c r="R75" s="6"/>
     </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:18">
       <c r="B76" s="5"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -15699,7 +15932,7 @@
       <c r="Q76" s="1"/>
       <c r="R76" s="6"/>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:18">
       <c r="B77" s="5"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -15718,7 +15951,7 @@
       <c r="Q77" s="1"/>
       <c r="R77" s="6"/>
     </row>
-    <row r="78" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:18">
       <c r="B78" s="5"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -15737,7 +15970,7 @@
       <c r="Q78" s="1"/>
       <c r="R78" s="6"/>
     </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:18">
       <c r="B79" s="7"/>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
@@ -15775,83 +16008,370 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB37B1D-1558-41D3-9521-7BA857188B96}">
-  <dimension ref="D7:J10"/>
+  <dimension ref="D4:R36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView topLeftCell="G9" workbookViewId="0">
+      <selection activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="9.140625" style="39"/>
-    <col min="5" max="5" width="15.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="9.140625" style="39"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="31"/>
+    <col min="5" max="5" width="15.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="31"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D7" s="43" t="s">
+    <row r="4" customFormat="1"/>
+    <row r="5" customFormat="1"/>
+    <row r="6" customFormat="1"/>
+    <row r="7" customFormat="1"/>
+    <row r="8" customFormat="1"/>
+    <row r="9" customFormat="1"/>
+    <row r="10" customFormat="1"/>
+    <row r="11" customFormat="1"/>
+    <row r="12" customFormat="1"/>
+    <row r="13" customFormat="1"/>
+    <row r="18" spans="8:18">
+      <c r="H18" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+    </row>
+    <row r="20" spans="8:18">
+      <c r="H20" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="N20" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+    </row>
+    <row r="21" spans="8:18">
+      <c r="H21" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="I21" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+    </row>
+    <row r="22" spans="8:18">
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="L22" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="O22" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="P22" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q22" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="R22" s="31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="8:18">
+      <c r="H23" s="32">
+        <v>1</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="N23" s="32">
+        <v>1</v>
+      </c>
+      <c r="O23" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+    </row>
+    <row r="24" spans="8:18">
+      <c r="H24" s="31">
+        <v>2</v>
+      </c>
+      <c r="I24" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="43" t="s">
+      <c r="J24" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="N24" s="31">
+        <v>2</v>
+      </c>
+      <c r="O24" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+    </row>
+    <row r="25" spans="8:18">
+      <c r="H25" s="34">
+        <v>3</v>
+      </c>
+      <c r="I25" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="43" t="s">
+      <c r="J25" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="N25" s="31">
+        <v>3</v>
+      </c>
+      <c r="O25" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+    </row>
+    <row r="28" spans="8:18">
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+    </row>
+    <row r="29" spans="8:18">
+      <c r="H29" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+    </row>
+    <row r="31" spans="8:18">
+      <c r="H31" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="N31" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="45"/>
+    </row>
+    <row r="32" spans="8:18">
+      <c r="H32" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="47"/>
+    </row>
+    <row r="33" spans="8:18">
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="L33" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="O33" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="P33" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q33" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="R33" s="31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="8:18">
+      <c r="H34" s="32">
+        <v>1</v>
+      </c>
+      <c r="I34" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="43" t="s">
-        <v>33</v>
+      <c r="J34" s="31" t="s">
+        <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D8" s="40">
+      <c r="K34" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="L34" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="N34" s="32">
         <v>1</v>
       </c>
-      <c r="E8" s="40" t="s">
-        <v>5</v>
+      <c r="O34" s="32" t="s">
+        <v>30</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="41"/>
-    </row>
-    <row r="9" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D9" s="40">
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+    </row>
+    <row r="35" spans="8:18">
+      <c r="H35" s="31">
         <v>2</v>
       </c>
-      <c r="E9" s="40" t="s">
-        <v>0</v>
+      <c r="I35" s="31" t="s">
+        <v>31</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="41"/>
-    </row>
-    <row r="10" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D10" s="42">
+      <c r="J35" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="K35" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="L35" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="N35" s="31">
+        <v>2</v>
+      </c>
+      <c r="O35" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+    </row>
+    <row r="36" spans="8:18">
+      <c r="H36" s="34">
         <v>3</v>
       </c>
-      <c r="E10" s="42" t="s">
-        <v>6</v>
+      <c r="I36" s="34" t="s">
+        <v>32</v>
       </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="44"/>
+      <c r="J36" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="K36" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="L36" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="N36" s="31">
+        <v>3</v>
+      </c>
+      <c r="O36" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="31"/>
     </row>
   </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="H18:R18"/>
+    <mergeCell ref="H29:R29"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="N31:R31"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="N20:R20"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/HASIL PENGUJIAN 100 EPOCHS.xlsx
+++ b/HASIL PENGUJIAN 100 EPOCHS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SKRIPSI\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF3B96B-2535-4EBA-9D2F-D2199DDDCAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD995C63-6229-4FE6-A5F7-35D0FB601FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADAM FULL" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="Bukti Error" sheetId="7" r:id="rId4"/>
     <sheet name="ADAM SMALL" sheetId="4" r:id="rId5"/>
     <sheet name="SGD SMALL" sheetId="5" r:id="rId6"/>
-    <sheet name="RMSProp SMALL" sheetId="6" r:id="rId7"/>
-    <sheet name="Rekapan" sheetId="8" r:id="rId8"/>
+    <sheet name="Rekapan" sheetId="8" r:id="rId7"/>
+    <sheet name="RMSProp SMALL" sheetId="6" r:id="rId8"/>
+    <sheet name="K-Fold full" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="52">
   <si>
     <t>80/20</t>
   </si>
@@ -183,12 +184,18 @@
   <si>
     <t>0.53</t>
   </si>
+  <si>
+    <t>Adam 3 Fold</t>
+  </si>
+  <si>
+    <t>0.9925</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,6 +296,12 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -439,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -508,10 +521,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -532,6 +545,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3631,6 +3648,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495789</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57259</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CF24F19-07C8-7E50-0304-62363BC7EE6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="3657600"/>
+          <a:ext cx="3505689" cy="781159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9687,10 +9753,10 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
-      <c r="P6" s="42" t="s">
+      <c r="P6" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="42"/>
+      <c r="Q6" s="43"/>
       <c r="R6" s="15"/>
       <c r="T6" s="14"/>
       <c r="U6" s="10"/>
@@ -9705,10 +9771,10 @@
       <c r="AE6" s="10"/>
       <c r="AF6" s="10"/>
       <c r="AG6" s="10"/>
-      <c r="AH6" s="42" t="s">
+      <c r="AH6" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="AI6" s="42"/>
+      <c r="AI6" s="43"/>
       <c r="AJ6" s="15"/>
     </row>
     <row r="7" spans="2:36">
@@ -11014,10 +11080,10 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
-      <c r="P46" s="42" t="s">
+      <c r="P46" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="Q46" s="42"/>
+      <c r="Q46" s="43"/>
       <c r="R46" s="6"/>
     </row>
     <row r="47" spans="2:36" ht="15" customHeight="1">
@@ -11671,44 +11737,44 @@
       <c r="R80" s="9"/>
     </row>
     <row r="85" spans="2:18">
-      <c r="B85" s="43" t="s">
+      <c r="B85" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C85" s="43"/>
-      <c r="D85" s="43"/>
-      <c r="E85" s="43"/>
-      <c r="F85" s="43"/>
-      <c r="G85" s="43"/>
-      <c r="H85" s="43"/>
-      <c r="I85" s="43"/>
-      <c r="J85" s="43"/>
-      <c r="K85" s="43"/>
-      <c r="L85" s="43"/>
-      <c r="M85" s="43"/>
-      <c r="N85" s="43"/>
-      <c r="O85" s="43"/>
-      <c r="P85" s="43"/>
-      <c r="Q85" s="43"/>
-      <c r="R85" s="43"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="42"/>
+      <c r="F85" s="42"/>
+      <c r="G85" s="42"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="42"/>
+      <c r="J85" s="42"/>
+      <c r="K85" s="42"/>
+      <c r="L85" s="42"/>
+      <c r="M85" s="42"/>
+      <c r="N85" s="42"/>
+      <c r="O85" s="42"/>
+      <c r="P85" s="42"/>
+      <c r="Q85" s="42"/>
+      <c r="R85" s="42"/>
     </row>
     <row r="86" spans="2:18">
-      <c r="B86" s="43"/>
-      <c r="C86" s="43"/>
-      <c r="D86" s="43"/>
-      <c r="E86" s="43"/>
-      <c r="F86" s="43"/>
-      <c r="G86" s="43"/>
-      <c r="H86" s="43"/>
-      <c r="I86" s="43"/>
-      <c r="J86" s="43"/>
-      <c r="K86" s="43"/>
-      <c r="L86" s="43"/>
-      <c r="M86" s="43"/>
-      <c r="N86" s="43"/>
-      <c r="O86" s="43"/>
-      <c r="P86" s="43"/>
-      <c r="Q86" s="43"/>
-      <c r="R86" s="43"/>
+      <c r="B86" s="42"/>
+      <c r="C86" s="42"/>
+      <c r="D86" s="42"/>
+      <c r="E86" s="42"/>
+      <c r="F86" s="42"/>
+      <c r="G86" s="42"/>
+      <c r="H86" s="42"/>
+      <c r="I86" s="42"/>
+      <c r="J86" s="42"/>
+      <c r="K86" s="42"/>
+      <c r="L86" s="42"/>
+      <c r="M86" s="42"/>
+      <c r="N86" s="42"/>
+      <c r="O86" s="42"/>
+      <c r="P86" s="42"/>
+      <c r="Q86" s="42"/>
+      <c r="R86" s="42"/>
     </row>
     <row r="89" spans="2:18">
       <c r="E89" s="23" t="s">
@@ -11717,16 +11783,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="P7:Q8"/>
+    <mergeCell ref="AH7:AI8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="AH9:AI9"/>
     <mergeCell ref="B85:R86"/>
     <mergeCell ref="P46:Q46"/>
     <mergeCell ref="P47:Q48"/>
     <mergeCell ref="P49:Q49"/>
     <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="AH6:AI6"/>
-    <mergeCell ref="P7:Q8"/>
-    <mergeCell ref="AH7:AI8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="AH9:AI9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11871,10 +11937,10 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
-      <c r="P5" s="42" t="s">
+      <c r="P5" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="42"/>
+      <c r="Q5" s="43"/>
       <c r="R5" s="15"/>
       <c r="T5" s="14"/>
       <c r="U5" s="10"/>
@@ -11890,10 +11956,10 @@
       <c r="AE5" s="10"/>
       <c r="AF5" s="10"/>
       <c r="AG5" s="10"/>
-      <c r="AH5" s="42" t="s">
+      <c r="AH5" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="AI5" s="42"/>
+      <c r="AI5" s="43"/>
       <c r="AJ5" s="15"/>
     </row>
     <row r="6" spans="2:36">
@@ -13198,10 +13264,10 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
-      <c r="P45" s="42" t="s">
+      <c r="P45" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="Q45" s="42"/>
+      <c r="Q45" s="43"/>
       <c r="R45" s="6"/>
     </row>
     <row r="46" spans="2:36">
@@ -13872,10 +13938,381 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB37B1D-1558-41D3-9521-7BA857188B96}">
+  <dimension ref="D4:R36"/>
+  <sheetViews>
+    <sheetView topLeftCell="G9" workbookViewId="0">
+      <selection activeCell="X29" sqref="X29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="9.140625" style="31"/>
+    <col min="5" max="5" width="15.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="31"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" customFormat="1"/>
+    <row r="5" customFormat="1"/>
+    <row r="6" customFormat="1"/>
+    <row r="7" customFormat="1"/>
+    <row r="8" customFormat="1"/>
+    <row r="9" customFormat="1"/>
+    <row r="10" customFormat="1"/>
+    <row r="11" customFormat="1"/>
+    <row r="12" customFormat="1"/>
+    <row r="13" customFormat="1"/>
+    <row r="18" spans="8:18">
+      <c r="H18" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+    </row>
+    <row r="20" spans="8:18">
+      <c r="H20" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="N20" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+    </row>
+    <row r="21" spans="8:18">
+      <c r="H21" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+    </row>
+    <row r="22" spans="8:18">
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="L22" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="O22" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="P22" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q22" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="R22" s="31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="8:18">
+      <c r="H23" s="32">
+        <v>1</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="N23" s="32">
+        <v>1</v>
+      </c>
+      <c r="O23" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+    </row>
+    <row r="24" spans="8:18">
+      <c r="H24" s="31">
+        <v>2</v>
+      </c>
+      <c r="I24" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="N24" s="31">
+        <v>2</v>
+      </c>
+      <c r="O24" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+    </row>
+    <row r="25" spans="8:18">
+      <c r="H25" s="34">
+        <v>3</v>
+      </c>
+      <c r="I25" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="N25" s="31">
+        <v>3</v>
+      </c>
+      <c r="O25" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+    </row>
+    <row r="28" spans="8:18">
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+    </row>
+    <row r="29" spans="8:18">
+      <c r="H29" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+    </row>
+    <row r="31" spans="8:18">
+      <c r="H31" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="N31" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="45"/>
+    </row>
+    <row r="32" spans="8:18">
+      <c r="H32" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="47"/>
+    </row>
+    <row r="33" spans="8:18">
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="L33" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="O33" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="P33" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q33" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="R33" s="31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="8:18">
+      <c r="H34" s="32">
+        <v>1</v>
+      </c>
+      <c r="I34" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="J34" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="K34" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="L34" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="N34" s="32">
+        <v>1</v>
+      </c>
+      <c r="O34" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+    </row>
+    <row r="35" spans="8:18">
+      <c r="H35" s="31">
+        <v>2</v>
+      </c>
+      <c r="I35" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="J35" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="K35" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="L35" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="N35" s="31">
+        <v>2</v>
+      </c>
+      <c r="O35" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+    </row>
+    <row r="36" spans="8:18">
+      <c r="H36" s="34">
+        <v>3</v>
+      </c>
+      <c r="I36" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="K36" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="L36" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="N36" s="31">
+        <v>3</v>
+      </c>
+      <c r="O36" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="H18:R18"/>
+    <mergeCell ref="H29:R29"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="N31:R31"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="N20:R20"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F21EAB9-BF43-48C4-8C18-F2ACFC45CB60}">
   <dimension ref="B2:AJ79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AE35" sqref="AE35"/>
     </sheetView>
   </sheetViews>
@@ -14008,10 +14445,10 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
-      <c r="P5" s="42" t="s">
+      <c r="P5" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="42"/>
+      <c r="Q5" s="43"/>
       <c r="R5" s="15"/>
       <c r="T5" s="14"/>
       <c r="U5" s="10"/>
@@ -14027,10 +14464,10 @@
       <c r="AE5" s="10"/>
       <c r="AF5" s="10"/>
       <c r="AG5" s="10"/>
-      <c r="AH5" s="42" t="s">
+      <c r="AH5" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="AI5" s="42"/>
+      <c r="AI5" s="43"/>
       <c r="AJ5" s="15"/>
     </row>
     <row r="6" spans="2:36">
@@ -15335,10 +15772,10 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
-      <c r="P45" s="42" t="s">
+      <c r="P45" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="Q45" s="42"/>
+      <c r="Q45" s="43"/>
       <c r="R45" s="6"/>
     </row>
     <row r="46" spans="2:36">
@@ -16006,373 +16443,52 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB37B1D-1558-41D3-9521-7BA857188B96}">
-  <dimension ref="D4:R36"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13ACB64D-87C3-45D6-9CCA-8E220A151064}">
+  <dimension ref="B4:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="G9" workbookViewId="0">
-      <selection activeCell="X29" sqref="X29"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="4" max="4" width="9.140625" style="31"/>
-    <col min="5" max="5" width="15.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="31"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="4" customFormat="1"/>
-    <row r="5" customFormat="1"/>
-    <row r="6" customFormat="1"/>
-    <row r="7" customFormat="1"/>
-    <row r="8" customFormat="1"/>
-    <row r="9" customFormat="1"/>
-    <row r="10" customFormat="1"/>
-    <row r="11" customFormat="1"/>
-    <row r="12" customFormat="1"/>
-    <row r="13" customFormat="1"/>
-    <row r="18" spans="8:18">
-      <c r="H18" s="44" t="s">
-        <v>40</v>
+    <row r="4" spans="2:5">
+      <c r="C4" s="50">
+        <v>3</v>
       </c>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-    </row>
-    <row r="20" spans="8:18">
-      <c r="H20" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="N20" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-    </row>
-    <row r="21" spans="8:18">
-      <c r="H21" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-    </row>
-    <row r="22" spans="8:18">
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="K22" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="L22" s="34" t="s">
+      <c r="D4" s="50">
         <v>5</v>
       </c>
-      <c r="N22" s="32" t="s">
-        <v>27</v>
+      <c r="E4" s="50">
+        <v>7</v>
       </c>
-      <c r="O22" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="P22" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q22" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="R22" s="31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="8:18">
-      <c r="H23" s="32">
-        <v>1</v>
-      </c>
-      <c r="I23" s="32" t="s">
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="J23" s="31" t="s">
-        <v>33</v>
+      <c r="C5" t="s">
+        <v>51</v>
       </c>
-      <c r="K23" s="31" t="s">
-        <v>34</v>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="51" t="s">
+        <v>32</v>
       </c>
-      <c r="L23" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="N23" s="32">
-        <v>1</v>
-      </c>
-      <c r="O23" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
-    </row>
-    <row r="24" spans="8:18">
-      <c r="H24" s="31">
-        <v>2</v>
-      </c>
-      <c r="I24" s="31" t="s">
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="J24" s="31" t="s">
-        <v>34</v>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>50</v>
       </c>
-      <c r="K24" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="L24" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="N24" s="31">
-        <v>2</v>
-      </c>
-      <c r="O24" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-    </row>
-    <row r="25" spans="8:18">
-      <c r="H25" s="34">
-        <v>3</v>
-      </c>
-      <c r="I25" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="J25" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="K25" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="L25" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="N25" s="31">
-        <v>3</v>
-      </c>
-      <c r="O25" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-    </row>
-    <row r="28" spans="8:18">
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-    </row>
-    <row r="29" spans="8:18">
-      <c r="H29" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
-    </row>
-    <row r="31" spans="8:18">
-      <c r="H31" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="N31" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="45"/>
-    </row>
-    <row r="32" spans="8:18">
-      <c r="H32" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="I32" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="J32" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q32" s="47"/>
-      <c r="R32" s="47"/>
-    </row>
-    <row r="33" spans="8:18">
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="K33" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="L33" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="O33" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="P33" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q33" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="R33" s="31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="8:18">
-      <c r="H34" s="32">
-        <v>1</v>
-      </c>
-      <c r="I34" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="J34" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="K34" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="L34" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="N34" s="32">
-        <v>1</v>
-      </c>
-      <c r="O34" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
-    </row>
-    <row r="35" spans="8:18">
-      <c r="H35" s="31">
-        <v>2</v>
-      </c>
-      <c r="I35" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="J35" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="K35" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="L35" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="N35" s="31">
-        <v>2</v>
-      </c>
-      <c r="O35" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="31"/>
-    </row>
-    <row r="36" spans="8:18">
-      <c r="H36" s="34">
-        <v>3</v>
-      </c>
-      <c r="I36" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="J36" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="K36" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="L36" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="N36" s="31">
-        <v>3</v>
-      </c>
-      <c r="O36" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="H18:R18"/>
-    <mergeCell ref="H29:R29"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="N31:R31"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="N20:R20"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/HASIL PENGUJIAN 100 EPOCHS.xlsx
+++ b/HASIL PENGUJIAN 100 EPOCHS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SKRIPSI\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD995C63-6229-4FE6-A5F7-35D0FB601FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F628B9D-0BB6-448E-A1EB-23AD07AAE9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADAM FULL" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="SGD SMALL" sheetId="5" r:id="rId6"/>
     <sheet name="Rekapan" sheetId="8" r:id="rId7"/>
     <sheet name="RMSProp SMALL" sheetId="6" r:id="rId8"/>
-    <sheet name="K-Fold full" sheetId="9" r:id="rId9"/>
+    <sheet name="K-Fold Half" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="60">
   <si>
     <t>80/20</t>
   </si>
@@ -190,12 +190,36 @@
   <si>
     <t>0.9925</t>
   </si>
+  <si>
+    <t>3 fold</t>
+  </si>
+  <si>
+    <t>0.9344</t>
+  </si>
+  <si>
+    <t>Adam 5 Fold</t>
+  </si>
+  <si>
+    <t>Adam 7 Fold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t>53m 33s</t>
+  </si>
+  <si>
+    <t>1h 6m 57s</t>
+  </si>
+  <si>
+    <t>1h 30m 31s</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,6 +326,13 @@
       <color theme="1"/>
       <name val="Aptos"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -452,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -503,6 +534,10 @@
     <xf numFmtId="46" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -545,10 +580,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3694,6 +3726,270 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>258011</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>124437</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{182097D0-5A64-F2D8-96F3-5198B55E6CC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4629150" y="4695825"/>
+          <a:ext cx="5992061" cy="4382112"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>124199</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152538</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ABDE07A-E0D1-949D-FAB8-408E0C066EA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11468100" y="3733800"/>
+          <a:ext cx="2676899" cy="990738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>166147</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>543827</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>153051</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CB05A45-7DF1-26DF-CEEC-547C9DC0F281}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11477624" y="4928647"/>
+          <a:ext cx="5525403" cy="3987404"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>86015</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104867</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81752143-18AC-C174-AFCD-94D70167A253}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4714875" y="3829050"/>
+          <a:ext cx="2076740" cy="657317"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>14718</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>40658</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00C4B0B3-CEEE-80F0-B473-FBD990E2F452}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18788062" y="3726656"/>
+          <a:ext cx="3086531" cy="1267002"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>547686</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>61997</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>41480</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>79234</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6048F5D2-0E96-02C3-D3B8-D71C622DA0BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18764249" y="5205497"/>
+          <a:ext cx="5565981" cy="3636737"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3962,7 +4258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D4:AL83"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C53" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="V43" sqref="V43"/>
     </sheetView>
   </sheetViews>
@@ -4031,54 +4327,54 @@
     </row>
     <row r="9" spans="4:38">
       <c r="D9" s="5"/>
-      <c r="R9" s="36" t="s">
+      <c r="R9" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="S9" s="36"/>
+      <c r="S9" s="38"/>
       <c r="T9" s="6"/>
       <c r="V9" s="5"/>
-      <c r="AJ9" s="36" t="s">
+      <c r="AJ9" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="AK9" s="36"/>
+      <c r="AK9" s="38"/>
       <c r="AL9" s="6"/>
     </row>
     <row r="10" spans="4:38">
       <c r="D10" s="5"/>
-      <c r="R10" s="37" t="s">
+      <c r="R10" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="S10" s="37"/>
+      <c r="S10" s="39"/>
       <c r="T10" s="6"/>
       <c r="V10" s="5"/>
-      <c r="AJ10" s="37" t="s">
+      <c r="AJ10" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AK10" s="37"/>
+      <c r="AK10" s="39"/>
       <c r="AL10" s="6"/>
     </row>
     <row r="11" spans="4:38">
       <c r="D11" s="5"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
       <c r="T11" s="6"/>
       <c r="V11" s="5"/>
-      <c r="AJ11" s="37"/>
-      <c r="AK11" s="37"/>
+      <c r="AJ11" s="39"/>
+      <c r="AK11" s="39"/>
       <c r="AL11" s="6"/>
     </row>
     <row r="12" spans="4:38" ht="18.75">
       <c r="D12" s="5"/>
-      <c r="R12" s="38" t="s">
+      <c r="R12" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="S12" s="38"/>
+      <c r="S12" s="40"/>
       <c r="T12" s="6"/>
       <c r="V12" s="5"/>
-      <c r="AJ12" s="38" t="s">
+      <c r="AJ12" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="AK12" s="38"/>
+      <c r="AK12" s="40"/>
       <c r="AL12" s="6"/>
     </row>
     <row r="13" spans="4:38">
@@ -4329,32 +4625,32 @@
     </row>
     <row r="49" spans="4:20">
       <c r="D49" s="5"/>
-      <c r="R49" s="36" t="s">
+      <c r="R49" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="S49" s="36"/>
+      <c r="S49" s="38"/>
       <c r="T49" s="6"/>
     </row>
     <row r="50" spans="4:20">
       <c r="D50" s="5"/>
-      <c r="R50" s="37" t="s">
+      <c r="R50" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="S50" s="37"/>
+      <c r="S50" s="39"/>
       <c r="T50" s="6"/>
     </row>
     <row r="51" spans="4:20">
       <c r="D51" s="5"/>
-      <c r="R51" s="37"/>
-      <c r="S51" s="37"/>
+      <c r="R51" s="39"/>
+      <c r="S51" s="39"/>
       <c r="T51" s="6"/>
     </row>
     <row r="52" spans="4:20" ht="18.75">
       <c r="D52" s="5"/>
-      <c r="R52" s="38" t="s">
+      <c r="R52" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="S52" s="38"/>
+      <c r="S52" s="40"/>
       <c r="T52" s="6"/>
     </row>
     <row r="53" spans="4:20">
@@ -4662,10 +4958,10 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="40" t="s">
+      <c r="P7" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="Q7" s="40"/>
+      <c r="Q7" s="42"/>
       <c r="R7" s="15"/>
       <c r="T7" s="14"/>
       <c r="U7" s="10"/>
@@ -4681,10 +4977,10 @@
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
       <c r="AG7" s="10"/>
-      <c r="AH7" s="40" t="s">
+      <c r="AH7" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="AI7" s="40"/>
+      <c r="AI7" s="42"/>
       <c r="AJ7" s="15"/>
     </row>
     <row r="8" spans="2:36">
@@ -4702,10 +4998,10 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
-      <c r="P8" s="41" t="s">
+      <c r="P8" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="Q8" s="41"/>
+      <c r="Q8" s="43"/>
       <c r="R8" s="15"/>
       <c r="T8" s="14"/>
       <c r="U8" s="10"/>
@@ -4721,10 +5017,10 @@
       <c r="AE8" s="10"/>
       <c r="AF8" s="10"/>
       <c r="AG8" s="10"/>
-      <c r="AH8" s="41" t="s">
+      <c r="AH8" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="AI8" s="41"/>
+      <c r="AI8" s="43"/>
       <c r="AJ8" s="15"/>
     </row>
     <row r="9" spans="2:36">
@@ -4742,8 +5038,8 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
       <c r="R9" s="15"/>
       <c r="T9" s="14"/>
       <c r="U9" s="10"/>
@@ -4759,8 +5055,8 @@
       <c r="AE9" s="10"/>
       <c r="AF9" s="10"/>
       <c r="AG9" s="10"/>
-      <c r="AH9" s="41"/>
-      <c r="AI9" s="41"/>
+      <c r="AH9" s="43"/>
+      <c r="AI9" s="43"/>
       <c r="AJ9" s="15"/>
     </row>
     <row r="10" spans="2:36" ht="18.75">
@@ -4778,10 +5074,10 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
-      <c r="P10" s="39" t="s">
+      <c r="P10" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="Q10" s="39"/>
+      <c r="Q10" s="41"/>
       <c r="R10" s="15"/>
       <c r="T10" s="14"/>
       <c r="U10" s="10"/>
@@ -4797,10 +5093,10 @@
       <c r="AE10" s="10"/>
       <c r="AF10" s="10"/>
       <c r="AG10" s="10"/>
-      <c r="AH10" s="39" t="s">
+      <c r="AH10" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="AI10" s="39"/>
+      <c r="AI10" s="41"/>
       <c r="AJ10" s="15"/>
     </row>
     <row r="11" spans="2:36">
@@ -5990,10 +6286,10 @@
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
-      <c r="P47" s="40" t="s">
+      <c r="P47" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="Q47" s="40"/>
+      <c r="Q47" s="42"/>
       <c r="R47" s="15"/>
     </row>
     <row r="48" spans="2:36">
@@ -6011,10 +6307,10 @@
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
-      <c r="P48" s="41" t="s">
+      <c r="P48" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="Q48" s="41"/>
+      <c r="Q48" s="43"/>
       <c r="R48" s="15"/>
     </row>
     <row r="49" spans="2:18">
@@ -6032,8 +6328,8 @@
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
-      <c r="P49" s="41"/>
-      <c r="Q49" s="41"/>
+      <c r="P49" s="43"/>
+      <c r="Q49" s="43"/>
       <c r="R49" s="15"/>
     </row>
     <row r="50" spans="2:18" ht="18.75">
@@ -6050,10 +6346,10 @@
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
-      <c r="P50" s="39" t="s">
+      <c r="P50" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="Q50" s="39"/>
+      <c r="Q50" s="41"/>
       <c r="R50" s="15"/>
     </row>
     <row r="51" spans="2:18">
@@ -6665,7 +6961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800CFA05-9B27-4650-A169-A5D3EBB0D79D}">
   <dimension ref="B2:AJ79"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" zoomScale="68" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="68" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Z70" sqref="Z70"/>
     </sheetView>
   </sheetViews>
@@ -6804,10 +7100,10 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
-      <c r="P5" s="40" t="s">
+      <c r="P5" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="40"/>
+      <c r="Q5" s="42"/>
       <c r="R5" s="15"/>
       <c r="S5"/>
       <c r="T5" s="14"/>
@@ -6824,10 +7120,10 @@
       <c r="AE5" s="10"/>
       <c r="AF5" s="10"/>
       <c r="AG5" s="10"/>
-      <c r="AH5" s="40" t="s">
+      <c r="AH5" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="AI5" s="40"/>
+      <c r="AI5" s="42"/>
       <c r="AJ5" s="15"/>
     </row>
     <row r="6" spans="2:36">
@@ -6845,10 +7141,10 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
-      <c r="P6" s="41" t="s">
+      <c r="P6" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="41"/>
+      <c r="Q6" s="43"/>
       <c r="R6" s="15"/>
       <c r="S6"/>
       <c r="T6" s="14"/>
@@ -6865,10 +7161,10 @@
       <c r="AE6" s="10"/>
       <c r="AF6" s="10"/>
       <c r="AG6" s="10"/>
-      <c r="AH6" s="41" t="s">
+      <c r="AH6" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="AI6" s="41"/>
+      <c r="AI6" s="43"/>
       <c r="AJ6" s="15"/>
     </row>
     <row r="7" spans="2:36">
@@ -6886,8 +7182,8 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
       <c r="R7" s="15"/>
       <c r="S7"/>
       <c r="T7" s="14"/>
@@ -6904,8 +7200,8 @@
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
       <c r="AG7" s="10"/>
-      <c r="AH7" s="41"/>
-      <c r="AI7" s="41"/>
+      <c r="AH7" s="43"/>
+      <c r="AI7" s="43"/>
       <c r="AJ7" s="15"/>
     </row>
     <row r="8" spans="2:36" ht="18.75">
@@ -6923,10 +7219,10 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
-      <c r="P8" s="39" t="s">
+      <c r="P8" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="Q8" s="39"/>
+      <c r="Q8" s="41"/>
       <c r="R8" s="15"/>
       <c r="S8"/>
       <c r="T8" s="14"/>
@@ -6943,10 +7239,10 @@
       <c r="AE8" s="10"/>
       <c r="AF8" s="10"/>
       <c r="AG8" s="10"/>
-      <c r="AH8" s="39" t="s">
+      <c r="AH8" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="AI8" s="39"/>
+      <c r="AI8" s="41"/>
       <c r="AJ8" s="15"/>
     </row>
     <row r="9" spans="2:36">
@@ -8298,10 +8594,10 @@
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
-      <c r="P45" s="40" t="s">
+      <c r="P45" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="Q45" s="40"/>
+      <c r="Q45" s="42"/>
       <c r="R45" s="15"/>
       <c r="S45"/>
       <c r="T45"/>
@@ -8337,10 +8633,10 @@
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
-      <c r="P46" s="41" t="s">
+      <c r="P46" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="Q46" s="41"/>
+      <c r="Q46" s="43"/>
       <c r="R46" s="15"/>
       <c r="S46"/>
       <c r="T46"/>
@@ -8376,8 +8672,8 @@
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
-      <c r="P47" s="41"/>
-      <c r="Q47" s="41"/>
+      <c r="P47" s="43"/>
+      <c r="Q47" s="43"/>
       <c r="R47" s="15"/>
       <c r="S47"/>
       <c r="T47"/>
@@ -8413,10 +8709,10 @@
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
-      <c r="P48" s="39" t="s">
+      <c r="P48" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="Q48" s="39"/>
+      <c r="Q48" s="41"/>
       <c r="R48" s="15"/>
       <c r="S48"/>
       <c r="T48"/>
@@ -9621,7 +9917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7155BC64-C482-45D1-904B-A1912B1B7F57}">
   <dimension ref="B3:AJ89"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AG15" sqref="AG15"/>
     </sheetView>
   </sheetViews>
@@ -9753,10 +10049,10 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
-      <c r="P6" s="43" t="s">
+      <c r="P6" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="43"/>
+      <c r="Q6" s="45"/>
       <c r="R6" s="15"/>
       <c r="T6" s="14"/>
       <c r="U6" s="10"/>
@@ -9771,10 +10067,10 @@
       <c r="AE6" s="10"/>
       <c r="AF6" s="10"/>
       <c r="AG6" s="10"/>
-      <c r="AH6" s="43" t="s">
+      <c r="AH6" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="AI6" s="43"/>
+      <c r="AI6" s="45"/>
       <c r="AJ6" s="15"/>
     </row>
     <row r="7" spans="2:36">
@@ -9792,10 +10088,10 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="41" t="s">
+      <c r="P7" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="Q7" s="41"/>
+      <c r="Q7" s="43"/>
       <c r="R7" s="15"/>
       <c r="T7" s="14"/>
       <c r="U7" s="10"/>
@@ -9811,10 +10107,10 @@
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
       <c r="AG7" s="10"/>
-      <c r="AH7" s="41" t="s">
+      <c r="AH7" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="AI7" s="41"/>
+      <c r="AI7" s="43"/>
       <c r="AJ7" s="15"/>
     </row>
     <row r="8" spans="2:36">
@@ -9832,8 +10128,8 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
       <c r="R8" s="15"/>
       <c r="T8" s="14"/>
       <c r="U8" s="10"/>
@@ -9849,8 +10145,8 @@
       <c r="AE8" s="10"/>
       <c r="AF8" s="10"/>
       <c r="AG8" s="10"/>
-      <c r="AH8" s="41"/>
-      <c r="AI8" s="41"/>
+      <c r="AH8" s="43"/>
+      <c r="AI8" s="43"/>
       <c r="AJ8" s="15"/>
     </row>
     <row r="9" spans="2:36" ht="18.75">
@@ -9868,10 +10164,10 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
-      <c r="P9" s="39" t="s">
+      <c r="P9" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="Q9" s="39"/>
+      <c r="Q9" s="41"/>
       <c r="R9" s="15"/>
       <c r="T9" s="14"/>
       <c r="U9" s="10"/>
@@ -9887,10 +10183,10 @@
       <c r="AE9" s="10"/>
       <c r="AF9" s="10"/>
       <c r="AG9" s="10"/>
-      <c r="AH9" s="39" t="s">
+      <c r="AH9" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="AI9" s="39"/>
+      <c r="AI9" s="41"/>
       <c r="AJ9" s="15"/>
     </row>
     <row r="10" spans="2:36">
@@ -11080,10 +11376,10 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
-      <c r="P46" s="43" t="s">
+      <c r="P46" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="Q46" s="43"/>
+      <c r="Q46" s="45"/>
       <c r="R46" s="6"/>
     </row>
     <row r="47" spans="2:36" ht="15" customHeight="1">
@@ -11101,10 +11397,10 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
-      <c r="P47" s="37" t="s">
+      <c r="P47" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="Q47" s="37"/>
+      <c r="Q47" s="39"/>
       <c r="R47" s="6"/>
     </row>
     <row r="48" spans="2:36" ht="15" customHeight="1">
@@ -11122,8 +11418,8 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
-      <c r="P48" s="37"/>
-      <c r="Q48" s="37"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="39"/>
       <c r="R48" s="6"/>
     </row>
     <row r="49" spans="2:18" ht="18.75">
@@ -11141,10 +11437,10 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
-      <c r="P49" s="38" t="s">
+      <c r="P49" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="Q49" s="38"/>
+      <c r="Q49" s="40"/>
       <c r="R49" s="6"/>
     </row>
     <row r="50" spans="2:18">
@@ -11737,44 +12033,44 @@
       <c r="R80" s="9"/>
     </row>
     <row r="85" spans="2:18">
-      <c r="B85" s="42" t="s">
+      <c r="B85" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C85" s="42"/>
-      <c r="D85" s="42"/>
-      <c r="E85" s="42"/>
-      <c r="F85" s="42"/>
-      <c r="G85" s="42"/>
-      <c r="H85" s="42"/>
-      <c r="I85" s="42"/>
-      <c r="J85" s="42"/>
-      <c r="K85" s="42"/>
-      <c r="L85" s="42"/>
-      <c r="M85" s="42"/>
-      <c r="N85" s="42"/>
-      <c r="O85" s="42"/>
-      <c r="P85" s="42"/>
-      <c r="Q85" s="42"/>
-      <c r="R85" s="42"/>
+      <c r="C85" s="44"/>
+      <c r="D85" s="44"/>
+      <c r="E85" s="44"/>
+      <c r="F85" s="44"/>
+      <c r="G85" s="44"/>
+      <c r="H85" s="44"/>
+      <c r="I85" s="44"/>
+      <c r="J85" s="44"/>
+      <c r="K85" s="44"/>
+      <c r="L85" s="44"/>
+      <c r="M85" s="44"/>
+      <c r="N85" s="44"/>
+      <c r="O85" s="44"/>
+      <c r="P85" s="44"/>
+      <c r="Q85" s="44"/>
+      <c r="R85" s="44"/>
     </row>
     <row r="86" spans="2:18">
-      <c r="B86" s="42"/>
-      <c r="C86" s="42"/>
-      <c r="D86" s="42"/>
-      <c r="E86" s="42"/>
-      <c r="F86" s="42"/>
-      <c r="G86" s="42"/>
-      <c r="H86" s="42"/>
-      <c r="I86" s="42"/>
-      <c r="J86" s="42"/>
-      <c r="K86" s="42"/>
-      <c r="L86" s="42"/>
-      <c r="M86" s="42"/>
-      <c r="N86" s="42"/>
-      <c r="O86" s="42"/>
-      <c r="P86" s="42"/>
-      <c r="Q86" s="42"/>
-      <c r="R86" s="42"/>
+      <c r="B86" s="44"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="44"/>
+      <c r="E86" s="44"/>
+      <c r="F86" s="44"/>
+      <c r="G86" s="44"/>
+      <c r="H86" s="44"/>
+      <c r="I86" s="44"/>
+      <c r="J86" s="44"/>
+      <c r="K86" s="44"/>
+      <c r="L86" s="44"/>
+      <c r="M86" s="44"/>
+      <c r="N86" s="44"/>
+      <c r="O86" s="44"/>
+      <c r="P86" s="44"/>
+      <c r="Q86" s="44"/>
+      <c r="R86" s="44"/>
     </row>
     <row r="89" spans="2:18">
       <c r="E89" s="23" t="s">
@@ -11804,7 +12100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF690D20-3AF0-4911-A815-03050030AE1D}">
   <dimension ref="B2:AJ79"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" zoomScale="96" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A60" zoomScale="96" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AR27" sqref="AR27"/>
     </sheetView>
   </sheetViews>
@@ -11937,10 +12233,10 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
-      <c r="P5" s="43" t="s">
+      <c r="P5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="43"/>
+      <c r="Q5" s="45"/>
       <c r="R5" s="15"/>
       <c r="T5" s="14"/>
       <c r="U5" s="10"/>
@@ -11956,10 +12252,10 @@
       <c r="AE5" s="10"/>
       <c r="AF5" s="10"/>
       <c r="AG5" s="10"/>
-      <c r="AH5" s="43" t="s">
+      <c r="AH5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="AI5" s="43"/>
+      <c r="AI5" s="45"/>
       <c r="AJ5" s="15"/>
     </row>
     <row r="6" spans="2:36">
@@ -11977,10 +12273,10 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
-      <c r="P6" s="41" t="s">
+      <c r="P6" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="41"/>
+      <c r="Q6" s="43"/>
       <c r="R6" s="15"/>
       <c r="T6" s="14"/>
       <c r="U6" s="10"/>
@@ -11996,10 +12292,10 @@
       <c r="AE6" s="10"/>
       <c r="AF6" s="10"/>
       <c r="AG6" s="10"/>
-      <c r="AH6" s="41" t="s">
+      <c r="AH6" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="AI6" s="41"/>
+      <c r="AI6" s="43"/>
       <c r="AJ6" s="15"/>
     </row>
     <row r="7" spans="2:36">
@@ -12017,8 +12313,8 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
       <c r="R7" s="15"/>
       <c r="T7" s="14"/>
       <c r="U7" s="10"/>
@@ -12034,8 +12330,8 @@
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
       <c r="AG7" s="10"/>
-      <c r="AH7" s="41"/>
-      <c r="AI7" s="41"/>
+      <c r="AH7" s="43"/>
+      <c r="AI7" s="43"/>
       <c r="AJ7" s="15"/>
     </row>
     <row r="8" spans="2:36" ht="18.75">
@@ -12053,10 +12349,10 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
-      <c r="P8" s="39" t="s">
+      <c r="P8" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="Q8" s="39"/>
+      <c r="Q8" s="41"/>
       <c r="R8" s="15"/>
       <c r="T8" s="14"/>
       <c r="U8" s="10"/>
@@ -12072,10 +12368,10 @@
       <c r="AE8" s="10"/>
       <c r="AF8" s="10"/>
       <c r="AG8" s="10"/>
-      <c r="AH8" s="39" t="s">
+      <c r="AH8" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="AI8" s="39"/>
+      <c r="AI8" s="41"/>
       <c r="AJ8" s="15"/>
     </row>
     <row r="9" spans="2:36">
@@ -13264,10 +13560,10 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
-      <c r="P45" s="43" t="s">
+      <c r="P45" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="Q45" s="43"/>
+      <c r="Q45" s="45"/>
       <c r="R45" s="6"/>
     </row>
     <row r="46" spans="2:36">
@@ -13285,10 +13581,10 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
-      <c r="P46" s="37" t="s">
+      <c r="P46" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="Q46" s="37"/>
+      <c r="Q46" s="39"/>
       <c r="R46" s="6"/>
     </row>
     <row r="47" spans="2:36">
@@ -13306,8 +13602,8 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
-      <c r="P47" s="37"/>
-      <c r="Q47" s="37"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="39"/>
       <c r="R47" s="6"/>
     </row>
     <row r="48" spans="2:36" ht="18.75">
@@ -13325,10 +13621,10 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
-      <c r="P48" s="38" t="s">
+      <c r="P48" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="Q48" s="38"/>
+      <c r="Q48" s="40"/>
       <c r="R48" s="6"/>
     </row>
     <row r="49" spans="2:18">
@@ -13941,7 +14237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB37B1D-1558-41D3-9521-7BA857188B96}">
   <dimension ref="D4:R36"/>
   <sheetViews>
-    <sheetView topLeftCell="G9" workbookViewId="0">
+    <sheetView topLeftCell="G10" workbookViewId="0">
       <selection activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
@@ -13965,59 +14261,59 @@
     <row r="12" customFormat="1"/>
     <row r="13" customFormat="1"/>
     <row r="18" spans="8:18">
-      <c r="H18" s="44" t="s">
+      <c r="H18" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
     </row>
     <row r="20" spans="8:18">
-      <c r="H20" s="45" t="s">
+      <c r="H20" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="N20" s="45" t="s">
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="N20" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
     </row>
     <row r="21" spans="8:18">
-      <c r="H21" s="48" t="s">
+      <c r="H21" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="48" t="s">
+      <c r="I21" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="J21" s="46" t="s">
+      <c r="J21" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
       <c r="N21" s="31"/>
       <c r="O21" s="31"/>
-      <c r="P21" s="47" t="s">
+      <c r="P21" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
     </row>
     <row r="22" spans="8:18">
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
       <c r="J22" s="35" t="s">
         <v>6</v>
       </c>
@@ -14124,64 +14420,64 @@
     <row r="28" spans="8:18">
       <c r="H28" s="31"/>
       <c r="I28" s="31"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
     </row>
     <row r="29" spans="8:18">
-      <c r="H29" s="44" t="s">
+      <c r="H29" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="46"/>
     </row>
     <row r="31" spans="8:18">
-      <c r="H31" s="45" t="s">
+      <c r="H31" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="N31" s="45" t="s">
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="N31" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="45"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="47"/>
     </row>
     <row r="32" spans="8:18">
-      <c r="H32" s="48" t="s">
+      <c r="H32" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="I32" s="48" t="s">
+      <c r="I32" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="J32" s="46" t="s">
+      <c r="J32" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
       <c r="N32" s="31"/>
       <c r="O32" s="31"/>
-      <c r="P32" s="47" t="s">
+      <c r="P32" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="Q32" s="47"/>
-      <c r="R32" s="47"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
     </row>
     <row r="33" spans="8:18">
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
       <c r="J33" s="35" t="s">
         <v>6</v>
       </c>
@@ -14312,7 +14608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F21EAB9-BF43-48C4-8C18-F2ACFC45CB60}">
   <dimension ref="B2:AJ79"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A87" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AE35" sqref="AE35"/>
     </sheetView>
   </sheetViews>
@@ -14445,10 +14741,10 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
-      <c r="P5" s="43" t="s">
+      <c r="P5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="43"/>
+      <c r="Q5" s="45"/>
       <c r="R5" s="15"/>
       <c r="T5" s="14"/>
       <c r="U5" s="10"/>
@@ -14464,10 +14760,10 @@
       <c r="AE5" s="10"/>
       <c r="AF5" s="10"/>
       <c r="AG5" s="10"/>
-      <c r="AH5" s="43" t="s">
+      <c r="AH5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="AI5" s="43"/>
+      <c r="AI5" s="45"/>
       <c r="AJ5" s="15"/>
     </row>
     <row r="6" spans="2:36">
@@ -14485,10 +14781,10 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
-      <c r="P6" s="41" t="s">
+      <c r="P6" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="41"/>
+      <c r="Q6" s="43"/>
       <c r="R6" s="15"/>
       <c r="T6" s="14"/>
       <c r="U6" s="10"/>
@@ -14504,10 +14800,10 @@
       <c r="AE6" s="10"/>
       <c r="AF6" s="10"/>
       <c r="AG6" s="10"/>
-      <c r="AH6" s="41" t="s">
+      <c r="AH6" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="AI6" s="41"/>
+      <c r="AI6" s="43"/>
       <c r="AJ6" s="15"/>
     </row>
     <row r="7" spans="2:36">
@@ -14525,8 +14821,8 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
       <c r="R7" s="15"/>
       <c r="T7" s="14"/>
       <c r="U7" s="10"/>
@@ -14542,8 +14838,8 @@
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
       <c r="AG7" s="10"/>
-      <c r="AH7" s="41"/>
-      <c r="AI7" s="41"/>
+      <c r="AH7" s="43"/>
+      <c r="AI7" s="43"/>
       <c r="AJ7" s="15"/>
     </row>
     <row r="8" spans="2:36" ht="18.75">
@@ -14561,10 +14857,10 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
-      <c r="P8" s="39" t="s">
+      <c r="P8" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="Q8" s="39"/>
+      <c r="Q8" s="41"/>
       <c r="R8" s="15"/>
       <c r="T8" s="14"/>
       <c r="U8" s="10"/>
@@ -14580,10 +14876,10 @@
       <c r="AE8" s="10"/>
       <c r="AF8" s="10"/>
       <c r="AG8" s="10"/>
-      <c r="AH8" s="39" t="s">
+      <c r="AH8" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="AI8" s="39"/>
+      <c r="AI8" s="41"/>
       <c r="AJ8" s="15"/>
     </row>
     <row r="9" spans="2:36">
@@ -15772,10 +16068,10 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
-      <c r="P45" s="43" t="s">
+      <c r="P45" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="Q45" s="43"/>
+      <c r="Q45" s="45"/>
       <c r="R45" s="6"/>
     </row>
     <row r="46" spans="2:36">
@@ -15792,10 +16088,10 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
-      <c r="P46" s="37" t="s">
+      <c r="P46" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="Q46" s="37"/>
+      <c r="Q46" s="39"/>
       <c r="R46" s="6"/>
     </row>
     <row r="47" spans="2:36">
@@ -15813,8 +16109,8 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
-      <c r="P47" s="37"/>
-      <c r="Q47" s="37"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="39"/>
       <c r="R47" s="6"/>
     </row>
     <row r="48" spans="2:36" ht="18.75">
@@ -15832,10 +16128,10 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
-      <c r="P48" s="38" t="s">
+      <c r="P48" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="Q48" s="38"/>
+      <c r="Q48" s="40"/>
       <c r="R48" s="6"/>
     </row>
     <row r="49" spans="2:18">
@@ -16445,46 +16741,85 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13ACB64D-87C3-45D6-9CCA-8E220A151064}">
-  <dimension ref="B4:E19"/>
+  <dimension ref="B1:AH24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="X1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AC15" sqref="AC15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="4" spans="2:5">
-      <c r="C4" s="50">
+    <row r="1" spans="2:16" ht="15.75">
+      <c r="P1" s="52" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16">
+      <c r="C4" s="36">
         <v>3</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="36">
         <v>5</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4" s="36">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="51" t="s">
+    <row r="5" spans="2:16">
+      <c r="B5" s="37" t="s">
         <v>30</v>
       </c>
       <c r="C5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="51" t="s">
+    <row r="6" spans="2:16">
+      <c r="B6" s="37" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="51" t="s">
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="B7" s="37" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:34">
       <c r="B19" t="s">
         <v>50</v>
+      </c>
+      <c r="I19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" t="s">
+        <v>52</v>
+      </c>
+      <c r="K19" t="s">
+        <v>57</v>
+      </c>
+      <c r="T19" t="s">
+        <v>54</v>
+      </c>
+      <c r="V19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="2:34">
+      <c r="AC20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="2:34">
+      <c r="AC24" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/HASIL PENGUJIAN 100 EPOCHS.xlsx
+++ b/HASIL PENGUJIAN 100 EPOCHS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SKRIPSI\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F628B9D-0BB6-448E-A1EB-23AD07AAE9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCF1431-F858-4868-828F-2F20D450F5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="603" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADAM FULL" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="Rekapan" sheetId="8" r:id="rId7"/>
     <sheet name="RMSProp SMALL" sheetId="6" r:id="rId8"/>
     <sheet name="K-Fold Half" sheetId="9" r:id="rId9"/>
+    <sheet name="VGG16Net" sheetId="10" r:id="rId10"/>
+    <sheet name="CNN Models" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="112">
   <si>
     <t>80/20</t>
   </si>
@@ -214,12 +216,168 @@
   <si>
     <t>1h 30m 31s</t>
   </si>
+  <si>
+    <t>Layer (type)</t>
+  </si>
+  <si>
+    <t>Output Shape</t>
+  </si>
+  <si>
+    <t>input_1 (InputLayer)</t>
+  </si>
+  <si>
+    <t>(None, 224, 224, 3)</t>
+  </si>
+  <si>
+    <t>block1_conv1 (Conv2D)</t>
+  </si>
+  <si>
+    <t>(None, 224, 224, 64)</t>
+  </si>
+  <si>
+    <t>block1_conv2 (Conv2D)</t>
+  </si>
+  <si>
+    <t>block1_pool (MaxPooling2D)</t>
+  </si>
+  <si>
+    <t>(None, 112, 112, 64)</t>
+  </si>
+  <si>
+    <t>block2_conv1 (Conv2D)</t>
+  </si>
+  <si>
+    <t>(None, 112, 112, 128)</t>
+  </si>
+  <si>
+    <t>block2_conv2 (Conv2D)</t>
+  </si>
+  <si>
+    <t>block2_pool (MaxPooling2D)</t>
+  </si>
+  <si>
+    <t>(None, 56, 56, 128)</t>
+  </si>
+  <si>
+    <t>block3_conv1 (Conv2D)</t>
+  </si>
+  <si>
+    <t>(None, 56, 56, 256)</t>
+  </si>
+  <si>
+    <t>block3_conv2 (Conv2D)</t>
+  </si>
+  <si>
+    <t>block3_conv3 (Conv2D)</t>
+  </si>
+  <si>
+    <t>block3_pool (MaxPooling2D)</t>
+  </si>
+  <si>
+    <t>(None, 28, 28, 256)</t>
+  </si>
+  <si>
+    <t>block4_conv1 (Conv2D)</t>
+  </si>
+  <si>
+    <t>(None, 28, 28, 512)</t>
+  </si>
+  <si>
+    <t>block4_conv2 (Conv2D)</t>
+  </si>
+  <si>
+    <t>block4_conv3 (Conv2D)</t>
+  </si>
+  <si>
+    <t>block4_pool (MaxPooling2D)</t>
+  </si>
+  <si>
+    <t>(None, 14, 14, 512)</t>
+  </si>
+  <si>
+    <t>block5_conv1 (Conv2D)</t>
+  </si>
+  <si>
+    <t>block5_conv2 (Conv2D)</t>
+  </si>
+  <si>
+    <t>block5_conv3 (Conv2D)</t>
+  </si>
+  <si>
+    <t>block5_pool (MaxPooling2D)</t>
+  </si>
+  <si>
+    <t>(None, 7, 7, 512)</t>
+  </si>
+  <si>
+    <t>Param</t>
+  </si>
+  <si>
+    <t>average_pooling2d (AveragePooling2D)</t>
+  </si>
+  <si>
+    <t>(None, 1, 1, 512)</t>
+  </si>
+  <si>
+    <t>flatten (Flatten)</t>
+  </si>
+  <si>
+    <t>(None, 512)</t>
+  </si>
+  <si>
+    <t>dense (Dense)</t>
+  </si>
+  <si>
+    <t>(None, 128)</t>
+  </si>
+  <si>
+    <t>dropout (Dropout)</t>
+  </si>
+  <si>
+    <t>dense_1 (Dense)</t>
+  </si>
+  <si>
+    <t>(None, 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total params: </t>
+  </si>
+  <si>
+    <t>14,780,610</t>
+  </si>
+  <si>
+    <t>Trainable params</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-trainable params: </t>
+  </si>
+  <si>
+    <t>14,714,688</t>
+  </si>
+  <si>
+    <t>Total params:</t>
+  </si>
+  <si>
+    <t>Trainable params:</t>
+  </si>
+  <si>
+    <t>Non-trainable params:</t>
+  </si>
+  <si>
+    <t>147,44,688</t>
+  </si>
+  <si>
+    <t>RMSProp 3 Fold</t>
+  </si>
+  <si>
+    <t>5599.056s</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,6 +492,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -391,7 +555,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -479,11 +643,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -538,6 +733,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -556,10 +752,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -580,7 +776,50 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3990,6 +4229,94 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>409971</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>112028</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0AE8DFC-7764-855E-138B-22543D1D072D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4857750" y="11144249"/>
+          <a:ext cx="2838846" cy="790685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>11907</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>134300</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>134000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{979566F3-D6F9-F210-4AB6-97FA8EE0CA09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4869657" y="12061031"/>
+          <a:ext cx="6801799" cy="4658375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4327,54 +4654,54 @@
     </row>
     <row r="9" spans="4:38">
       <c r="D9" s="5"/>
-      <c r="R9" s="38" t="s">
+      <c r="R9" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="S9" s="38"/>
+      <c r="S9" s="39"/>
       <c r="T9" s="6"/>
       <c r="V9" s="5"/>
-      <c r="AJ9" s="38" t="s">
+      <c r="AJ9" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="AK9" s="38"/>
+      <c r="AK9" s="39"/>
       <c r="AL9" s="6"/>
     </row>
     <row r="10" spans="4:38">
       <c r="D10" s="5"/>
-      <c r="R10" s="39" t="s">
+      <c r="R10" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="S10" s="39"/>
+      <c r="S10" s="40"/>
       <c r="T10" s="6"/>
       <c r="V10" s="5"/>
-      <c r="AJ10" s="39" t="s">
+      <c r="AJ10" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AK10" s="39"/>
+      <c r="AK10" s="40"/>
       <c r="AL10" s="6"/>
     </row>
     <row r="11" spans="4:38">
       <c r="D11" s="5"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
       <c r="T11" s="6"/>
       <c r="V11" s="5"/>
-      <c r="AJ11" s="39"/>
-      <c r="AK11" s="39"/>
+      <c r="AJ11" s="40"/>
+      <c r="AK11" s="40"/>
       <c r="AL11" s="6"/>
     </row>
     <row r="12" spans="4:38" ht="18.75">
       <c r="D12" s="5"/>
-      <c r="R12" s="40" t="s">
+      <c r="R12" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="S12" s="40"/>
+      <c r="S12" s="41"/>
       <c r="T12" s="6"/>
       <c r="V12" s="5"/>
-      <c r="AJ12" s="40" t="s">
+      <c r="AJ12" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="AK12" s="40"/>
+      <c r="AK12" s="41"/>
       <c r="AL12" s="6"/>
     </row>
     <row r="13" spans="4:38">
@@ -4625,32 +4952,32 @@
     </row>
     <row r="49" spans="4:20">
       <c r="D49" s="5"/>
-      <c r="R49" s="38" t="s">
+      <c r="R49" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="S49" s="38"/>
+      <c r="S49" s="39"/>
       <c r="T49" s="6"/>
     </row>
     <row r="50" spans="4:20">
       <c r="D50" s="5"/>
-      <c r="R50" s="39" t="s">
+      <c r="R50" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="S50" s="39"/>
+      <c r="S50" s="40"/>
       <c r="T50" s="6"/>
     </row>
     <row r="51" spans="4:20">
       <c r="D51" s="5"/>
-      <c r="R51" s="39"/>
-      <c r="S51" s="39"/>
+      <c r="R51" s="40"/>
+      <c r="S51" s="40"/>
       <c r="T51" s="6"/>
     </row>
     <row r="52" spans="4:20" ht="18.75">
       <c r="D52" s="5"/>
-      <c r="R52" s="40" t="s">
+      <c r="R52" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="S52" s="40"/>
+      <c r="S52" s="41"/>
       <c r="T52" s="6"/>
     </row>
     <row r="53" spans="4:20">
@@ -4819,6 +5146,593 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD7CA3B2-BA33-4AF5-B904-D583318F22EF}">
+  <dimension ref="B4:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:4">
+      <c r="B4" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="54">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="54">
+        <v>36928</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="54">
+        <v>73856</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="54">
+        <v>147584</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="54">
+        <v>295168</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="54">
+        <v>590080</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="54">
+        <v>590080</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="54">
+        <v>1180160</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="54">
+        <v>2359808</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="54">
+        <v>2359808</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="54">
+        <v>2359808</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="54">
+        <v>2359808</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="54">
+        <v>2359808</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="71"/>
+      <c r="D26" s="72" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967C2994-A903-479A-A2EE-CB0C231F01E9}">
+  <dimension ref="B3:D30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4">
+      <c r="B3" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="54">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="54">
+        <v>36928</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="54">
+        <v>73856</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="54">
+        <v>147584</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="54">
+        <v>295168</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="54">
+        <v>590080</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="54">
+        <v>590080</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="54">
+        <v>1180160</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="54">
+        <v>2359808</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="54">
+        <v>2359808</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="54">
+        <v>2359808</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="54">
+        <v>2359808</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="54">
+        <v>2359808</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="54">
+        <v>65664</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="64">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="59"/>
+      <c r="D28" s="60" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="59"/>
+      <c r="D29" s="60">
+        <v>65.921999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="68"/>
+      <c r="D30" s="69" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4958,10 +5872,10 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="42" t="s">
+      <c r="P7" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="Q7" s="42"/>
+      <c r="Q7" s="43"/>
       <c r="R7" s="15"/>
       <c r="T7" s="14"/>
       <c r="U7" s="10"/>
@@ -4977,10 +5891,10 @@
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
       <c r="AG7" s="10"/>
-      <c r="AH7" s="42" t="s">
+      <c r="AH7" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="AI7" s="42"/>
+      <c r="AI7" s="43"/>
       <c r="AJ7" s="15"/>
     </row>
     <row r="8" spans="2:36">
@@ -4998,10 +5912,10 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
-      <c r="P8" s="43" t="s">
+      <c r="P8" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="Q8" s="43"/>
+      <c r="Q8" s="44"/>
       <c r="R8" s="15"/>
       <c r="T8" s="14"/>
       <c r="U8" s="10"/>
@@ -5017,10 +5931,10 @@
       <c r="AE8" s="10"/>
       <c r="AF8" s="10"/>
       <c r="AG8" s="10"/>
-      <c r="AH8" s="43" t="s">
+      <c r="AH8" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="AI8" s="43"/>
+      <c r="AI8" s="44"/>
       <c r="AJ8" s="15"/>
     </row>
     <row r="9" spans="2:36">
@@ -5038,8 +5952,8 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
       <c r="R9" s="15"/>
       <c r="T9" s="14"/>
       <c r="U9" s="10"/>
@@ -5055,8 +5969,8 @@
       <c r="AE9" s="10"/>
       <c r="AF9" s="10"/>
       <c r="AG9" s="10"/>
-      <c r="AH9" s="43"/>
-      <c r="AI9" s="43"/>
+      <c r="AH9" s="44"/>
+      <c r="AI9" s="44"/>
       <c r="AJ9" s="15"/>
     </row>
     <row r="10" spans="2:36" ht="18.75">
@@ -5074,10 +5988,10 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
-      <c r="P10" s="41" t="s">
+      <c r="P10" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="Q10" s="41"/>
+      <c r="Q10" s="42"/>
       <c r="R10" s="15"/>
       <c r="T10" s="14"/>
       <c r="U10" s="10"/>
@@ -5093,10 +6007,10 @@
       <c r="AE10" s="10"/>
       <c r="AF10" s="10"/>
       <c r="AG10" s="10"/>
-      <c r="AH10" s="41" t="s">
+      <c r="AH10" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="AI10" s="41"/>
+      <c r="AI10" s="42"/>
       <c r="AJ10" s="15"/>
     </row>
     <row r="11" spans="2:36">
@@ -6286,10 +7200,10 @@
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
-      <c r="P47" s="42" t="s">
+      <c r="P47" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="Q47" s="42"/>
+      <c r="Q47" s="43"/>
       <c r="R47" s="15"/>
     </row>
     <row r="48" spans="2:36">
@@ -6307,10 +7221,10 @@
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
-      <c r="P48" s="43" t="s">
+      <c r="P48" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="Q48" s="43"/>
+      <c r="Q48" s="44"/>
       <c r="R48" s="15"/>
     </row>
     <row r="49" spans="2:18">
@@ -6328,8 +7242,8 @@
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
-      <c r="P49" s="43"/>
-      <c r="Q49" s="43"/>
+      <c r="P49" s="44"/>
+      <c r="Q49" s="44"/>
       <c r="R49" s="15"/>
     </row>
     <row r="50" spans="2:18" ht="18.75">
@@ -6346,10 +7260,10 @@
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
-      <c r="P50" s="41" t="s">
+      <c r="P50" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="Q50" s="41"/>
+      <c r="Q50" s="42"/>
       <c r="R50" s="15"/>
     </row>
     <row r="51" spans="2:18">
@@ -7100,10 +8014,10 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
-      <c r="P5" s="42" t="s">
+      <c r="P5" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="42"/>
+      <c r="Q5" s="43"/>
       <c r="R5" s="15"/>
       <c r="S5"/>
       <c r="T5" s="14"/>
@@ -7120,10 +8034,10 @@
       <c r="AE5" s="10"/>
       <c r="AF5" s="10"/>
       <c r="AG5" s="10"/>
-      <c r="AH5" s="42" t="s">
+      <c r="AH5" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="AI5" s="42"/>
+      <c r="AI5" s="43"/>
       <c r="AJ5" s="15"/>
     </row>
     <row r="6" spans="2:36">
@@ -7141,10 +8055,10 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
-      <c r="P6" s="43" t="s">
+      <c r="P6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="43"/>
+      <c r="Q6" s="44"/>
       <c r="R6" s="15"/>
       <c r="S6"/>
       <c r="T6" s="14"/>
@@ -7161,10 +8075,10 @@
       <c r="AE6" s="10"/>
       <c r="AF6" s="10"/>
       <c r="AG6" s="10"/>
-      <c r="AH6" s="43" t="s">
+      <c r="AH6" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="AI6" s="43"/>
+      <c r="AI6" s="44"/>
       <c r="AJ6" s="15"/>
     </row>
     <row r="7" spans="2:36">
@@ -7182,8 +8096,8 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
       <c r="R7" s="15"/>
       <c r="S7"/>
       <c r="T7" s="14"/>
@@ -7200,8 +8114,8 @@
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
       <c r="AG7" s="10"/>
-      <c r="AH7" s="43"/>
-      <c r="AI7" s="43"/>
+      <c r="AH7" s="44"/>
+      <c r="AI7" s="44"/>
       <c r="AJ7" s="15"/>
     </row>
     <row r="8" spans="2:36" ht="18.75">
@@ -7219,10 +8133,10 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
-      <c r="P8" s="41" t="s">
+      <c r="P8" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="Q8" s="41"/>
+      <c r="Q8" s="42"/>
       <c r="R8" s="15"/>
       <c r="S8"/>
       <c r="T8" s="14"/>
@@ -7239,10 +8153,10 @@
       <c r="AE8" s="10"/>
       <c r="AF8" s="10"/>
       <c r="AG8" s="10"/>
-      <c r="AH8" s="41" t="s">
+      <c r="AH8" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="AI8" s="41"/>
+      <c r="AI8" s="42"/>
       <c r="AJ8" s="15"/>
     </row>
     <row r="9" spans="2:36">
@@ -8594,10 +9508,10 @@
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
-      <c r="P45" s="42" t="s">
+      <c r="P45" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="Q45" s="42"/>
+      <c r="Q45" s="43"/>
       <c r="R45" s="15"/>
       <c r="S45"/>
       <c r="T45"/>
@@ -8633,10 +9547,10 @@
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
-      <c r="P46" s="43" t="s">
+      <c r="P46" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="Q46" s="43"/>
+      <c r="Q46" s="44"/>
       <c r="R46" s="15"/>
       <c r="S46"/>
       <c r="T46"/>
@@ -8672,8 +9586,8 @@
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
-      <c r="P47" s="43"/>
-      <c r="Q47" s="43"/>
+      <c r="P47" s="44"/>
+      <c r="Q47" s="44"/>
       <c r="R47" s="15"/>
       <c r="S47"/>
       <c r="T47"/>
@@ -8709,10 +9623,10 @@
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
-      <c r="P48" s="41" t="s">
+      <c r="P48" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="Q48" s="41"/>
+      <c r="Q48" s="42"/>
       <c r="R48" s="15"/>
       <c r="S48"/>
       <c r="T48"/>
@@ -10088,10 +11002,10 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="43" t="s">
+      <c r="P7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="Q7" s="43"/>
+      <c r="Q7" s="44"/>
       <c r="R7" s="15"/>
       <c r="T7" s="14"/>
       <c r="U7" s="10"/>
@@ -10107,10 +11021,10 @@
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
       <c r="AG7" s="10"/>
-      <c r="AH7" s="43" t="s">
+      <c r="AH7" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="AI7" s="43"/>
+      <c r="AI7" s="44"/>
       <c r="AJ7" s="15"/>
     </row>
     <row r="8" spans="2:36">
@@ -10128,8 +11042,8 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
       <c r="R8" s="15"/>
       <c r="T8" s="14"/>
       <c r="U8" s="10"/>
@@ -10145,8 +11059,8 @@
       <c r="AE8" s="10"/>
       <c r="AF8" s="10"/>
       <c r="AG8" s="10"/>
-      <c r="AH8" s="43"/>
-      <c r="AI8" s="43"/>
+      <c r="AH8" s="44"/>
+      <c r="AI8" s="44"/>
       <c r="AJ8" s="15"/>
     </row>
     <row r="9" spans="2:36" ht="18.75">
@@ -10164,10 +11078,10 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
-      <c r="P9" s="41" t="s">
+      <c r="P9" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="Q9" s="41"/>
+      <c r="Q9" s="42"/>
       <c r="R9" s="15"/>
       <c r="T9" s="14"/>
       <c r="U9" s="10"/>
@@ -10183,10 +11097,10 @@
       <c r="AE9" s="10"/>
       <c r="AF9" s="10"/>
       <c r="AG9" s="10"/>
-      <c r="AH9" s="41" t="s">
+      <c r="AH9" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="AI9" s="41"/>
+      <c r="AI9" s="42"/>
       <c r="AJ9" s="15"/>
     </row>
     <row r="10" spans="2:36">
@@ -11397,10 +12311,10 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
-      <c r="P47" s="39" t="s">
+      <c r="P47" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="Q47" s="39"/>
+      <c r="Q47" s="40"/>
       <c r="R47" s="6"/>
     </row>
     <row r="48" spans="2:36" ht="15" customHeight="1">
@@ -11418,8 +12332,8 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
-      <c r="P48" s="39"/>
-      <c r="Q48" s="39"/>
+      <c r="P48" s="40"/>
+      <c r="Q48" s="40"/>
       <c r="R48" s="6"/>
     </row>
     <row r="49" spans="2:18" ht="18.75">
@@ -11437,10 +12351,10 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
-      <c r="P49" s="40" t="s">
+      <c r="P49" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="Q49" s="40"/>
+      <c r="Q49" s="41"/>
       <c r="R49" s="6"/>
     </row>
     <row r="50" spans="2:18">
@@ -12033,44 +12947,44 @@
       <c r="R80" s="9"/>
     </row>
     <row r="85" spans="2:18">
-      <c r="B85" s="44" t="s">
+      <c r="B85" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C85" s="44"/>
-      <c r="D85" s="44"/>
-      <c r="E85" s="44"/>
-      <c r="F85" s="44"/>
-      <c r="G85" s="44"/>
-      <c r="H85" s="44"/>
-      <c r="I85" s="44"/>
-      <c r="J85" s="44"/>
-      <c r="K85" s="44"/>
-      <c r="L85" s="44"/>
-      <c r="M85" s="44"/>
-      <c r="N85" s="44"/>
-      <c r="O85" s="44"/>
-      <c r="P85" s="44"/>
-      <c r="Q85" s="44"/>
-      <c r="R85" s="44"/>
+      <c r="C85" s="46"/>
+      <c r="D85" s="46"/>
+      <c r="E85" s="46"/>
+      <c r="F85" s="46"/>
+      <c r="G85" s="46"/>
+      <c r="H85" s="46"/>
+      <c r="I85" s="46"/>
+      <c r="J85" s="46"/>
+      <c r="K85" s="46"/>
+      <c r="L85" s="46"/>
+      <c r="M85" s="46"/>
+      <c r="N85" s="46"/>
+      <c r="O85" s="46"/>
+      <c r="P85" s="46"/>
+      <c r="Q85" s="46"/>
+      <c r="R85" s="46"/>
     </row>
     <row r="86" spans="2:18">
-      <c r="B86" s="44"/>
-      <c r="C86" s="44"/>
-      <c r="D86" s="44"/>
-      <c r="E86" s="44"/>
-      <c r="F86" s="44"/>
-      <c r="G86" s="44"/>
-      <c r="H86" s="44"/>
-      <c r="I86" s="44"/>
-      <c r="J86" s="44"/>
-      <c r="K86" s="44"/>
-      <c r="L86" s="44"/>
-      <c r="M86" s="44"/>
-      <c r="N86" s="44"/>
-      <c r="O86" s="44"/>
-      <c r="P86" s="44"/>
-      <c r="Q86" s="44"/>
-      <c r="R86" s="44"/>
+      <c r="B86" s="46"/>
+      <c r="C86" s="46"/>
+      <c r="D86" s="46"/>
+      <c r="E86" s="46"/>
+      <c r="F86" s="46"/>
+      <c r="G86" s="46"/>
+      <c r="H86" s="46"/>
+      <c r="I86" s="46"/>
+      <c r="J86" s="46"/>
+      <c r="K86" s="46"/>
+      <c r="L86" s="46"/>
+      <c r="M86" s="46"/>
+      <c r="N86" s="46"/>
+      <c r="O86" s="46"/>
+      <c r="P86" s="46"/>
+      <c r="Q86" s="46"/>
+      <c r="R86" s="46"/>
     </row>
     <row r="89" spans="2:18">
       <c r="E89" s="23" t="s">
@@ -12079,16 +12993,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B85:R86"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="P47:Q48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="P6:Q6"/>
     <mergeCell ref="AH6:AI6"/>
     <mergeCell ref="P7:Q8"/>
     <mergeCell ref="AH7:AI8"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="B85:R86"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="P47:Q48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="P6:Q6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12273,10 +13187,10 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
-      <c r="P6" s="43" t="s">
+      <c r="P6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="43"/>
+      <c r="Q6" s="44"/>
       <c r="R6" s="15"/>
       <c r="T6" s="14"/>
       <c r="U6" s="10"/>
@@ -12292,10 +13206,10 @@
       <c r="AE6" s="10"/>
       <c r="AF6" s="10"/>
       <c r="AG6" s="10"/>
-      <c r="AH6" s="43" t="s">
+      <c r="AH6" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="AI6" s="43"/>
+      <c r="AI6" s="44"/>
       <c r="AJ6" s="15"/>
     </row>
     <row r="7" spans="2:36">
@@ -12313,8 +13227,8 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
       <c r="R7" s="15"/>
       <c r="T7" s="14"/>
       <c r="U7" s="10"/>
@@ -12330,8 +13244,8 @@
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
       <c r="AG7" s="10"/>
-      <c r="AH7" s="43"/>
-      <c r="AI7" s="43"/>
+      <c r="AH7" s="44"/>
+      <c r="AI7" s="44"/>
       <c r="AJ7" s="15"/>
     </row>
     <row r="8" spans="2:36" ht="18.75">
@@ -12349,10 +13263,10 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
-      <c r="P8" s="41" t="s">
+      <c r="P8" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="Q8" s="41"/>
+      <c r="Q8" s="42"/>
       <c r="R8" s="15"/>
       <c r="T8" s="14"/>
       <c r="U8" s="10"/>
@@ -12368,10 +13282,10 @@
       <c r="AE8" s="10"/>
       <c r="AF8" s="10"/>
       <c r="AG8" s="10"/>
-      <c r="AH8" s="41" t="s">
+      <c r="AH8" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="AI8" s="41"/>
+      <c r="AI8" s="42"/>
       <c r="AJ8" s="15"/>
     </row>
     <row r="9" spans="2:36">
@@ -13581,10 +14495,10 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
-      <c r="P46" s="39" t="s">
+      <c r="P46" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="Q46" s="39"/>
+      <c r="Q46" s="40"/>
       <c r="R46" s="6"/>
     </row>
     <row r="47" spans="2:36">
@@ -13602,8 +14516,8 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
-      <c r="P47" s="39"/>
-      <c r="Q47" s="39"/>
+      <c r="P47" s="40"/>
+      <c r="Q47" s="40"/>
       <c r="R47" s="6"/>
     </row>
     <row r="48" spans="2:36" ht="18.75">
@@ -13621,10 +14535,10 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
-      <c r="P48" s="40" t="s">
+      <c r="P48" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="Q48" s="40"/>
+      <c r="Q48" s="41"/>
       <c r="R48" s="6"/>
     </row>
     <row r="49" spans="2:18">
@@ -14261,59 +15175,59 @@
     <row r="12" customFormat="1"/>
     <row r="13" customFormat="1"/>
     <row r="18" spans="8:18">
-      <c r="H18" s="46" t="s">
+      <c r="H18" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="47"/>
     </row>
     <row r="20" spans="8:18">
-      <c r="H20" s="47" t="s">
+      <c r="H20" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="N20" s="47" t="s">
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="N20" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
     </row>
     <row r="21" spans="8:18">
-      <c r="H21" s="50" t="s">
+      <c r="H21" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="50" t="s">
+      <c r="I21" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="J21" s="48" t="s">
+      <c r="J21" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
       <c r="N21" s="31"/>
       <c r="O21" s="31"/>
-      <c r="P21" s="49" t="s">
+      <c r="P21" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="49"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
     </row>
     <row r="22" spans="8:18">
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
       <c r="J22" s="35" t="s">
         <v>6</v>
       </c>
@@ -14420,64 +15334,64 @@
     <row r="28" spans="8:18">
       <c r="H28" s="31"/>
       <c r="I28" s="31"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
     </row>
     <row r="29" spans="8:18">
-      <c r="H29" s="46" t="s">
+      <c r="H29" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="46"/>
-      <c r="R29" s="46"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="47"/>
     </row>
     <row r="31" spans="8:18">
-      <c r="H31" s="47" t="s">
+      <c r="H31" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="N31" s="47" t="s">
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="N31" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="47"/>
-      <c r="R31" s="47"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="48"/>
     </row>
     <row r="32" spans="8:18">
-      <c r="H32" s="50" t="s">
+      <c r="H32" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="I32" s="50" t="s">
+      <c r="I32" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="J32" s="48" t="s">
+      <c r="J32" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
       <c r="N32" s="31"/>
       <c r="O32" s="31"/>
-      <c r="P32" s="49" t="s">
+      <c r="P32" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="Q32" s="49"/>
-      <c r="R32" s="49"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="50"/>
     </row>
     <row r="33" spans="8:18">
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
       <c r="J33" s="35" t="s">
         <v>6</v>
       </c>
@@ -14781,10 +15695,10 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
-      <c r="P6" s="43" t="s">
+      <c r="P6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="43"/>
+      <c r="Q6" s="44"/>
       <c r="R6" s="15"/>
       <c r="T6" s="14"/>
       <c r="U6" s="10"/>
@@ -14800,10 +15714,10 @@
       <c r="AE6" s="10"/>
       <c r="AF6" s="10"/>
       <c r="AG6" s="10"/>
-      <c r="AH6" s="43" t="s">
+      <c r="AH6" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="AI6" s="43"/>
+      <c r="AI6" s="44"/>
       <c r="AJ6" s="15"/>
     </row>
     <row r="7" spans="2:36">
@@ -14821,8 +15735,8 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
       <c r="R7" s="15"/>
       <c r="T7" s="14"/>
       <c r="U7" s="10"/>
@@ -14838,8 +15752,8 @@
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
       <c r="AG7" s="10"/>
-      <c r="AH7" s="43"/>
-      <c r="AI7" s="43"/>
+      <c r="AH7" s="44"/>
+      <c r="AI7" s="44"/>
       <c r="AJ7" s="15"/>
     </row>
     <row r="8" spans="2:36" ht="18.75">
@@ -14857,10 +15771,10 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
-      <c r="P8" s="41" t="s">
+      <c r="P8" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="Q8" s="41"/>
+      <c r="Q8" s="42"/>
       <c r="R8" s="15"/>
       <c r="T8" s="14"/>
       <c r="U8" s="10"/>
@@ -14876,10 +15790,10 @@
       <c r="AE8" s="10"/>
       <c r="AF8" s="10"/>
       <c r="AG8" s="10"/>
-      <c r="AH8" s="41" t="s">
+      <c r="AH8" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="AI8" s="41"/>
+      <c r="AI8" s="42"/>
       <c r="AJ8" s="15"/>
     </row>
     <row r="9" spans="2:36">
@@ -16088,10 +17002,10 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
-      <c r="P46" s="39" t="s">
+      <c r="P46" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="Q46" s="39"/>
+      <c r="Q46" s="40"/>
       <c r="R46" s="6"/>
     </row>
     <row r="47" spans="2:36">
@@ -16109,8 +17023,8 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
-      <c r="P47" s="39"/>
-      <c r="Q47" s="39"/>
+      <c r="P47" s="40"/>
+      <c r="Q47" s="40"/>
       <c r="R47" s="6"/>
     </row>
     <row r="48" spans="2:36" ht="18.75">
@@ -16128,10 +17042,10 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
-      <c r="P48" s="40" t="s">
+      <c r="P48" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="Q48" s="40"/>
+      <c r="Q48" s="41"/>
       <c r="R48" s="6"/>
     </row>
     <row r="49" spans="2:18">
@@ -16741,16 +17655,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13ACB64D-87C3-45D6-9CCA-8E220A151064}">
-  <dimension ref="B1:AH24"/>
+  <dimension ref="B1:AH58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="X1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AC15" sqref="AC15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AA21" sqref="AA21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="2:16" ht="15.75">
-      <c r="P1" s="52" t="s">
+      <c r="P1" s="38" t="s">
         <v>39</v>
       </c>
     </row>
@@ -16820,6 +17734,14 @@
     <row r="24" spans="2:34">
       <c r="AC24" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="9:12">
+      <c r="I58" t="s">
+        <v>110</v>
+      </c>
+      <c r="L58" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
